--- a/Data Source.xlsx
+++ b/Data Source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\olah_data_app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\olah_data_hidrologi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F756F55-D7FA-4474-9947-683B5DBD4D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF6DDD0-9EC7-48A9-B863-C92C1B77EC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{8D55CE16-5948-44A0-B88B-ED623A383CF9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{8D55CE16-5948-44A0-B88B-ED623A383CF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -443,7 +443,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -569,6 +569,17 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="6">
@@ -935,16 +946,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1118,14 +1127,14 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1180,9 +1189,16 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{DB7019BE-28DF-49AD-A0E5-51C6377396E5}"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{253129CA-077B-4AD5-BA80-DECFD7255615}"/>
     <cellStyle name="Normal 7" xfId="2" xr:uid="{528C7A14-C14E-4F2A-B5B4-3E22A1F9D67B}"/>
   </cellStyles>
@@ -1612,1100 +1628,1851 @@
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView zoomScale="78" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.7109375" style="3"/>
+    <col min="1" max="1" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
+      <c r="A1" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
+      <c r="A3" s="83"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="85" t="s">
+      <c r="B4" s="81"/>
+      <c r="C4" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="85"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83" t="s">
+      <c r="B5" s="81"/>
+      <c r="C5" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="83"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="83" t="s">
+      <c r="D5" s="81"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83" t="s">
+      <c r="G5" s="81"/>
+      <c r="H5" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83" t="s">
+      <c r="I5" s="81"/>
+      <c r="J5" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83" t="s">
+      <c r="K5" s="81"/>
+      <c r="L5" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="83"/>
+      <c r="M5" s="81"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83" t="s">
+      <c r="B6" s="81"/>
+      <c r="C6" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="83"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="83" t="s">
+      <c r="D6" s="81"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83" t="s">
+      <c r="G6" s="81"/>
+      <c r="H6" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83" t="s">
+      <c r="I6" s="81"/>
+      <c r="J6" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83" t="s">
+      <c r="K6" s="81"/>
+      <c r="L6" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="83"/>
+      <c r="M6" s="81"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83" t="s">
+      <c r="B7" s="81"/>
+      <c r="C7" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="83"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="83" t="s">
+      <c r="D7" s="81"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83" t="s">
+      <c r="G7" s="81"/>
+      <c r="H7" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83" t="s">
+      <c r="I7" s="81"/>
+      <c r="J7" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83" t="s">
+      <c r="K7" s="81"/>
+      <c r="L7" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="83"/>
+      <c r="M7" s="81"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83" t="s">
+      <c r="B8" s="81"/>
+      <c r="C8" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="83"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="83" t="s">
+      <c r="D8" s="81"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83" t="s">
+      <c r="G8" s="81"/>
+      <c r="H8" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83" t="s">
+      <c r="I8" s="81"/>
+      <c r="J8" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83" t="s">
+      <c r="K8" s="81"/>
+      <c r="L8" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="M8" s="83"/>
+      <c r="M8" s="81"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="82"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="82" t="s">
+      <c r="A10" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="82"/>
-      <c r="B11" s="2">
+      <c r="A11" s="83"/>
+      <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>2</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>3</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>4</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>5</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>6</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>7</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>8</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <v>9</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="1">
         <v>10</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="1">
         <v>11</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>1</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
+      <c r="B12" s="102">
+        <v>31</v>
+      </c>
+      <c r="C12" s="102">
+        <v>9</v>
+      </c>
+      <c r="D12" s="102">
+        <v>26</v>
+      </c>
+      <c r="E12" s="102">
+        <v>67</v>
+      </c>
+      <c r="F12" s="102">
+        <v>31</v>
+      </c>
+      <c r="G12" s="102">
+        <v>0</v>
+      </c>
+      <c r="H12" s="102">
+        <v>0</v>
+      </c>
+      <c r="I12" s="102">
+        <v>0</v>
+      </c>
+      <c r="J12" s="102">
+        <v>0</v>
+      </c>
+      <c r="K12" s="102">
+        <v>0</v>
+      </c>
+      <c r="L12" s="102">
+        <v>0</v>
+      </c>
+      <c r="M12" s="102">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>2</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
+      <c r="B13" s="102">
+        <v>16</v>
+      </c>
+      <c r="C13" s="102">
+        <v>5</v>
+      </c>
+      <c r="D13" s="102">
+        <v>32</v>
+      </c>
+      <c r="E13" s="102">
+        <v>7</v>
+      </c>
+      <c r="F13" s="102">
+        <v>0</v>
+      </c>
+      <c r="G13" s="102">
+        <v>0</v>
+      </c>
+      <c r="H13" s="102">
+        <v>0</v>
+      </c>
+      <c r="I13" s="102">
+        <v>0</v>
+      </c>
+      <c r="J13" s="102">
+        <v>0</v>
+      </c>
+      <c r="K13" s="102">
+        <v>0</v>
+      </c>
+      <c r="L13" s="102">
+        <v>0</v>
+      </c>
+      <c r="M13" s="102">
+        <v>67</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>3</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
+      <c r="B14" s="102">
+        <v>0</v>
+      </c>
+      <c r="C14" s="102">
+        <v>68</v>
+      </c>
+      <c r="D14" s="102">
+        <v>16</v>
+      </c>
+      <c r="E14" s="102">
+        <v>47</v>
+      </c>
+      <c r="F14" s="102">
+        <v>64</v>
+      </c>
+      <c r="G14" s="102">
+        <v>0</v>
+      </c>
+      <c r="H14" s="102">
+        <v>23</v>
+      </c>
+      <c r="I14" s="102">
+        <v>0</v>
+      </c>
+      <c r="J14" s="102">
+        <v>0</v>
+      </c>
+      <c r="K14" s="102">
+        <v>0</v>
+      </c>
+      <c r="L14" s="102">
+        <v>0</v>
+      </c>
+      <c r="M14" s="102">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>4</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
+      <c r="B15" s="102">
+        <v>0</v>
+      </c>
+      <c r="C15" s="102">
+        <v>7</v>
+      </c>
+      <c r="D15" s="102">
+        <v>0</v>
+      </c>
+      <c r="E15" s="102">
+        <v>0</v>
+      </c>
+      <c r="F15" s="102">
+        <v>59</v>
+      </c>
+      <c r="G15" s="102">
+        <v>0</v>
+      </c>
+      <c r="H15" s="102">
+        <v>0</v>
+      </c>
+      <c r="I15" s="102">
+        <v>0</v>
+      </c>
+      <c r="J15" s="102">
+        <v>0</v>
+      </c>
+      <c r="K15" s="102">
+        <v>0</v>
+      </c>
+      <c r="L15" s="102">
+        <v>0</v>
+      </c>
+      <c r="M15" s="102">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>5</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
+      <c r="B16" s="102">
+        <v>14</v>
+      </c>
+      <c r="C16" s="102">
+        <v>0</v>
+      </c>
+      <c r="D16" s="102">
+        <v>15</v>
+      </c>
+      <c r="E16" s="102">
+        <v>0</v>
+      </c>
+      <c r="F16" s="102">
+        <v>0</v>
+      </c>
+      <c r="G16" s="102">
+        <v>0</v>
+      </c>
+      <c r="H16" s="102">
+        <v>13</v>
+      </c>
+      <c r="I16" s="102">
+        <v>0</v>
+      </c>
+      <c r="J16" s="102">
+        <v>0</v>
+      </c>
+      <c r="K16" s="102">
+        <v>0</v>
+      </c>
+      <c r="L16" s="102">
+        <v>23</v>
+      </c>
+      <c r="M16" s="102">
+        <v>54</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>6</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
+      <c r="B17" s="102">
+        <v>0</v>
+      </c>
+      <c r="C17" s="102">
+        <v>0</v>
+      </c>
+      <c r="D17" s="102">
+        <v>81</v>
+      </c>
+      <c r="E17" s="102">
+        <v>0</v>
+      </c>
+      <c r="F17" s="102">
+        <v>0</v>
+      </c>
+      <c r="G17" s="102">
+        <v>0</v>
+      </c>
+      <c r="H17" s="102">
+        <v>0</v>
+      </c>
+      <c r="I17" s="102">
+        <v>0</v>
+      </c>
+      <c r="J17" s="102">
+        <v>0</v>
+      </c>
+      <c r="K17" s="102">
+        <v>0</v>
+      </c>
+      <c r="L17" s="102">
+        <v>0</v>
+      </c>
+      <c r="M17" s="102">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>7</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
+      <c r="B18" s="102">
+        <v>0</v>
+      </c>
+      <c r="C18" s="102">
+        <v>15</v>
+      </c>
+      <c r="D18" s="102">
+        <v>0</v>
+      </c>
+      <c r="E18" s="102">
+        <v>0</v>
+      </c>
+      <c r="F18" s="102">
+        <v>0</v>
+      </c>
+      <c r="G18" s="102">
+        <v>0</v>
+      </c>
+      <c r="H18" s="102">
+        <v>0</v>
+      </c>
+      <c r="I18" s="102">
+        <v>0</v>
+      </c>
+      <c r="J18" s="102">
+        <v>0</v>
+      </c>
+      <c r="K18" s="102">
+        <v>0</v>
+      </c>
+      <c r="L18" s="102">
+        <v>0</v>
+      </c>
+      <c r="M18" s="102">
+        <v>26</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>8</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
+      <c r="B19" s="102">
+        <v>0</v>
+      </c>
+      <c r="C19" s="102">
+        <v>72</v>
+      </c>
+      <c r="D19" s="102">
+        <v>0</v>
+      </c>
+      <c r="E19" s="102">
+        <v>0</v>
+      </c>
+      <c r="F19" s="102">
+        <v>16</v>
+      </c>
+      <c r="G19" s="102">
+        <v>0</v>
+      </c>
+      <c r="H19" s="102">
+        <v>7</v>
+      </c>
+      <c r="I19" s="102">
+        <v>0</v>
+      </c>
+      <c r="J19" s="102">
+        <v>0</v>
+      </c>
+      <c r="K19" s="102">
+        <v>0</v>
+      </c>
+      <c r="L19" s="102">
+        <v>0</v>
+      </c>
+      <c r="M19" s="102">
+        <v>51</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>9</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
+      <c r="B20" s="102">
+        <v>37</v>
+      </c>
+      <c r="C20" s="102">
+        <v>19</v>
+      </c>
+      <c r="D20" s="102">
+        <v>12</v>
+      </c>
+      <c r="E20" s="102">
+        <v>38</v>
+      </c>
+      <c r="F20" s="102">
+        <v>0</v>
+      </c>
+      <c r="G20" s="102">
+        <v>0</v>
+      </c>
+      <c r="H20" s="102">
+        <v>0</v>
+      </c>
+      <c r="I20" s="102">
+        <v>0</v>
+      </c>
+      <c r="J20" s="102">
+        <v>0</v>
+      </c>
+      <c r="K20" s="102">
+        <v>0</v>
+      </c>
+      <c r="L20" s="102">
+        <v>0</v>
+      </c>
+      <c r="M20" s="102">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>10</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
+      <c r="B21" s="102">
+        <v>23</v>
+      </c>
+      <c r="C21" s="102">
+        <v>43</v>
+      </c>
+      <c r="D21" s="102">
+        <v>47</v>
+      </c>
+      <c r="E21" s="102">
+        <v>49</v>
+      </c>
+      <c r="F21" s="102">
+        <v>7</v>
+      </c>
+      <c r="G21" s="102">
+        <v>0</v>
+      </c>
+      <c r="H21" s="102">
+        <v>0</v>
+      </c>
+      <c r="I21" s="102">
+        <v>0</v>
+      </c>
+      <c r="J21" s="102">
+        <v>0</v>
+      </c>
+      <c r="K21" s="102">
+        <v>0</v>
+      </c>
+      <c r="L21" s="102">
+        <v>5</v>
+      </c>
+      <c r="M21" s="102">
+        <v>34</v>
+      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>11</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
+      <c r="B22" s="102">
+        <v>0</v>
+      </c>
+      <c r="C22" s="102">
+        <v>46</v>
+      </c>
+      <c r="D22" s="102">
+        <v>0</v>
+      </c>
+      <c r="E22" s="102">
+        <v>24</v>
+      </c>
+      <c r="F22" s="102">
+        <v>0</v>
+      </c>
+      <c r="G22" s="102">
+        <v>0</v>
+      </c>
+      <c r="H22" s="102">
+        <v>0</v>
+      </c>
+      <c r="I22" s="102">
+        <v>0</v>
+      </c>
+      <c r="J22" s="102">
+        <v>0</v>
+      </c>
+      <c r="K22" s="102">
+        <v>0</v>
+      </c>
+      <c r="L22" s="102">
+        <v>9</v>
+      </c>
+      <c r="M22" s="102">
+        <v>9</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>12</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
+      <c r="B23" s="102">
+        <v>0</v>
+      </c>
+      <c r="C23" s="102">
+        <v>31</v>
+      </c>
+      <c r="D23" s="102">
+        <v>32</v>
+      </c>
+      <c r="E23" s="102">
+        <v>29</v>
+      </c>
+      <c r="F23" s="102">
+        <v>0</v>
+      </c>
+      <c r="G23" s="102">
+        <v>0</v>
+      </c>
+      <c r="H23" s="102">
+        <v>0</v>
+      </c>
+      <c r="I23" s="102">
+        <v>0</v>
+      </c>
+      <c r="J23" s="102">
+        <v>0</v>
+      </c>
+      <c r="K23" s="102">
+        <v>0</v>
+      </c>
+      <c r="L23" s="102">
+        <v>0</v>
+      </c>
+      <c r="M23" s="102">
+        <v>26</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>13</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
+      <c r="B24" s="102">
+        <v>0</v>
+      </c>
+      <c r="C24" s="102">
+        <v>47</v>
+      </c>
+      <c r="D24" s="102">
+        <v>0</v>
+      </c>
+      <c r="E24" s="102">
+        <v>84</v>
+      </c>
+      <c r="F24" s="102">
+        <v>0</v>
+      </c>
+      <c r="G24" s="102">
+        <v>0</v>
+      </c>
+      <c r="H24" s="102">
+        <v>0</v>
+      </c>
+      <c r="I24" s="102">
+        <v>0</v>
+      </c>
+      <c r="J24" s="102">
+        <v>0</v>
+      </c>
+      <c r="K24" s="102">
+        <v>0</v>
+      </c>
+      <c r="L24" s="102">
+        <v>0</v>
+      </c>
+      <c r="M24" s="102">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>14</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
+      <c r="B25" s="102">
+        <v>23</v>
+      </c>
+      <c r="C25" s="102">
+        <v>42</v>
+      </c>
+      <c r="D25" s="102">
+        <v>0</v>
+      </c>
+      <c r="E25" s="102">
+        <v>12</v>
+      </c>
+      <c r="F25" s="102">
+        <v>0</v>
+      </c>
+      <c r="G25" s="102">
+        <v>0</v>
+      </c>
+      <c r="H25" s="102">
+        <v>0</v>
+      </c>
+      <c r="I25" s="102">
+        <v>0</v>
+      </c>
+      <c r="J25" s="102">
+        <v>0</v>
+      </c>
+      <c r="K25" s="102">
+        <v>0</v>
+      </c>
+      <c r="L25" s="102">
+        <v>0</v>
+      </c>
+      <c r="M25" s="102">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>15</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
+      <c r="B26" s="102">
+        <v>0</v>
+      </c>
+      <c r="C26" s="102">
+        <v>52</v>
+      </c>
+      <c r="D26" s="102">
+        <v>61</v>
+      </c>
+      <c r="E26" s="102">
+        <v>54</v>
+      </c>
+      <c r="F26" s="102">
+        <v>0</v>
+      </c>
+      <c r="G26" s="102">
+        <v>0</v>
+      </c>
+      <c r="H26" s="102">
+        <v>0</v>
+      </c>
+      <c r="I26" s="102">
+        <v>0</v>
+      </c>
+      <c r="J26" s="102">
+        <v>0</v>
+      </c>
+      <c r="K26" s="102">
+        <v>0</v>
+      </c>
+      <c r="L26" s="102">
+        <v>0</v>
+      </c>
+      <c r="M26" s="102">
+        <v>32</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>16</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
+      <c r="B27" s="102">
+        <v>36</v>
+      </c>
+      <c r="C27" s="102">
+        <v>9</v>
+      </c>
+      <c r="D27" s="102">
+        <v>7</v>
+      </c>
+      <c r="E27" s="102">
+        <v>0</v>
+      </c>
+      <c r="F27" s="102">
+        <v>0</v>
+      </c>
+      <c r="G27" s="102">
+        <v>0</v>
+      </c>
+      <c r="H27" s="102">
+        <v>0</v>
+      </c>
+      <c r="I27" s="102">
+        <v>0</v>
+      </c>
+      <c r="J27" s="102">
+        <v>0</v>
+      </c>
+      <c r="K27" s="102">
+        <v>0</v>
+      </c>
+      <c r="L27" s="102">
+        <v>24</v>
+      </c>
+      <c r="M27" s="102">
+        <v>46</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>17</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
+      <c r="B28" s="102">
+        <v>9</v>
+      </c>
+      <c r="C28" s="102">
+        <v>23</v>
+      </c>
+      <c r="D28" s="102">
+        <v>0</v>
+      </c>
+      <c r="E28" s="102">
+        <v>14</v>
+      </c>
+      <c r="F28" s="102">
+        <v>0</v>
+      </c>
+      <c r="G28" s="102">
+        <v>0</v>
+      </c>
+      <c r="H28" s="102">
+        <v>0</v>
+      </c>
+      <c r="I28" s="102">
+        <v>0</v>
+      </c>
+      <c r="J28" s="102">
+        <v>0</v>
+      </c>
+      <c r="K28" s="102">
+        <v>0</v>
+      </c>
+      <c r="L28" s="102">
+        <v>49</v>
+      </c>
+      <c r="M28" s="102">
+        <v>29</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>18</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
+      <c r="B29" s="102">
+        <v>29</v>
+      </c>
+      <c r="C29" s="102">
+        <v>11</v>
+      </c>
+      <c r="D29" s="102">
+        <v>0</v>
+      </c>
+      <c r="E29" s="102">
+        <v>58</v>
+      </c>
+      <c r="F29" s="102">
+        <v>0</v>
+      </c>
+      <c r="G29" s="102">
+        <v>0</v>
+      </c>
+      <c r="H29" s="102">
+        <v>0</v>
+      </c>
+      <c r="I29" s="102">
+        <v>0</v>
+      </c>
+      <c r="J29" s="102">
+        <v>0</v>
+      </c>
+      <c r="K29" s="102">
+        <v>0</v>
+      </c>
+      <c r="L29" s="102">
+        <v>0</v>
+      </c>
+      <c r="M29" s="102">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>19</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
+      <c r="B30" s="102">
+        <v>49</v>
+      </c>
+      <c r="C30" s="102">
+        <v>56</v>
+      </c>
+      <c r="D30" s="102">
+        <v>0</v>
+      </c>
+      <c r="E30" s="102">
+        <v>0</v>
+      </c>
+      <c r="F30" s="102">
+        <v>0</v>
+      </c>
+      <c r="G30" s="102">
+        <v>0</v>
+      </c>
+      <c r="H30" s="102">
+        <v>0</v>
+      </c>
+      <c r="I30" s="102">
+        <v>0</v>
+      </c>
+      <c r="J30" s="102">
+        <v>0</v>
+      </c>
+      <c r="K30" s="102">
+        <v>0</v>
+      </c>
+      <c r="L30" s="102">
+        <v>0</v>
+      </c>
+      <c r="M30" s="102">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>20</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
+      <c r="B31" s="102">
+        <v>34</v>
+      </c>
+      <c r="C31" s="102">
+        <v>78</v>
+      </c>
+      <c r="D31" s="102">
+        <v>0</v>
+      </c>
+      <c r="E31" s="102">
+        <v>14</v>
+      </c>
+      <c r="F31" s="102">
+        <v>0</v>
+      </c>
+      <c r="G31" s="102">
+        <v>0</v>
+      </c>
+      <c r="H31" s="102">
+        <v>0</v>
+      </c>
+      <c r="I31" s="102">
+        <v>0</v>
+      </c>
+      <c r="J31" s="102">
+        <v>0</v>
+      </c>
+      <c r="K31" s="102">
+        <v>0</v>
+      </c>
+      <c r="L31" s="102">
+        <v>0</v>
+      </c>
+      <c r="M31" s="102">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>21</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
+      <c r="B32" s="102">
+        <v>0</v>
+      </c>
+      <c r="C32" s="102">
+        <v>48</v>
+      </c>
+      <c r="D32" s="102">
+        <v>0</v>
+      </c>
+      <c r="E32" s="102">
+        <v>0</v>
+      </c>
+      <c r="F32" s="102">
+        <v>0</v>
+      </c>
+      <c r="G32" s="102">
+        <v>0</v>
+      </c>
+      <c r="H32" s="102">
+        <v>0</v>
+      </c>
+      <c r="I32" s="102">
+        <v>0</v>
+      </c>
+      <c r="J32" s="102">
+        <v>0</v>
+      </c>
+      <c r="K32" s="102">
+        <v>0</v>
+      </c>
+      <c r="L32" s="102">
+        <v>0</v>
+      </c>
+      <c r="M32" s="102">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>22</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
+      <c r="B33" s="102">
+        <v>11</v>
+      </c>
+      <c r="C33" s="102">
+        <v>116</v>
+      </c>
+      <c r="D33" s="102">
+        <v>28</v>
+      </c>
+      <c r="E33" s="102">
+        <v>48</v>
+      </c>
+      <c r="F33" s="102">
+        <v>0</v>
+      </c>
+      <c r="G33" s="102">
+        <v>0</v>
+      </c>
+      <c r="H33" s="102">
+        <v>0</v>
+      </c>
+      <c r="I33" s="102">
+        <v>0</v>
+      </c>
+      <c r="J33" s="102">
+        <v>0</v>
+      </c>
+      <c r="K33" s="102">
+        <v>0</v>
+      </c>
+      <c r="L33" s="102">
+        <v>0</v>
+      </c>
+      <c r="M33" s="102">
+        <v>8</v>
+      </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>23</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
+      <c r="B34" s="102">
+        <v>0</v>
+      </c>
+      <c r="C34" s="102">
+        <v>50</v>
+      </c>
+      <c r="D34" s="102">
+        <v>0</v>
+      </c>
+      <c r="E34" s="102">
+        <v>0</v>
+      </c>
+      <c r="F34" s="102">
+        <v>0</v>
+      </c>
+      <c r="G34" s="102">
+        <v>0</v>
+      </c>
+      <c r="H34" s="102">
+        <v>0</v>
+      </c>
+      <c r="I34" s="102">
+        <v>0</v>
+      </c>
+      <c r="J34" s="102">
+        <v>0</v>
+      </c>
+      <c r="K34" s="102">
+        <v>0</v>
+      </c>
+      <c r="L34" s="102">
+        <v>0</v>
+      </c>
+      <c r="M34" s="102">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>24</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
+      <c r="B35" s="102">
+        <v>0</v>
+      </c>
+      <c r="C35" s="102">
+        <v>7</v>
+      </c>
+      <c r="D35" s="102">
+        <v>39</v>
+      </c>
+      <c r="E35" s="102">
+        <v>39</v>
+      </c>
+      <c r="F35" s="102">
+        <v>0</v>
+      </c>
+      <c r="G35" s="102">
+        <v>0</v>
+      </c>
+      <c r="H35" s="102">
+        <v>0</v>
+      </c>
+      <c r="I35" s="102">
+        <v>0</v>
+      </c>
+      <c r="J35" s="102">
+        <v>0</v>
+      </c>
+      <c r="K35" s="102">
+        <v>0</v>
+      </c>
+      <c r="L35" s="102">
+        <v>0</v>
+      </c>
+      <c r="M35" s="102">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>25</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
+      <c r="B36" s="102">
+        <v>0</v>
+      </c>
+      <c r="C36" s="102">
+        <v>0</v>
+      </c>
+      <c r="D36" s="102">
+        <v>61</v>
+      </c>
+      <c r="E36" s="102">
+        <v>0</v>
+      </c>
+      <c r="F36" s="102">
+        <v>0</v>
+      </c>
+      <c r="G36" s="102">
+        <v>0</v>
+      </c>
+      <c r="H36" s="102">
+        <v>0</v>
+      </c>
+      <c r="I36" s="102">
+        <v>0</v>
+      </c>
+      <c r="J36" s="102">
+        <v>0</v>
+      </c>
+      <c r="K36" s="102">
+        <v>0</v>
+      </c>
+      <c r="L36" s="102">
+        <v>0</v>
+      </c>
+      <c r="M36" s="102">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>26</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
+      <c r="B37" s="102">
+        <v>63</v>
+      </c>
+      <c r="C37" s="102">
+        <v>0</v>
+      </c>
+      <c r="D37" s="102">
+        <v>3</v>
+      </c>
+      <c r="E37" s="102">
+        <v>7</v>
+      </c>
+      <c r="F37" s="102">
+        <v>0</v>
+      </c>
+      <c r="G37" s="102">
+        <v>0</v>
+      </c>
+      <c r="H37" s="102">
+        <v>0</v>
+      </c>
+      <c r="I37" s="102">
+        <v>0</v>
+      </c>
+      <c r="J37" s="102">
+        <v>0</v>
+      </c>
+      <c r="K37" s="102">
+        <v>0</v>
+      </c>
+      <c r="L37" s="102">
+        <v>0</v>
+      </c>
+      <c r="M37" s="102">
+        <v>20</v>
+      </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>27</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
+      <c r="B38" s="102">
+        <v>35</v>
+      </c>
+      <c r="C38" s="102">
+        <v>11</v>
+      </c>
+      <c r="D38" s="102">
+        <v>0</v>
+      </c>
+      <c r="E38" s="102">
+        <v>0</v>
+      </c>
+      <c r="F38" s="102">
+        <v>0</v>
+      </c>
+      <c r="G38" s="102">
+        <v>0</v>
+      </c>
+      <c r="H38" s="102">
+        <v>0</v>
+      </c>
+      <c r="I38" s="102">
+        <v>0</v>
+      </c>
+      <c r="J38" s="102">
+        <v>0</v>
+      </c>
+      <c r="K38" s="102">
+        <v>0</v>
+      </c>
+      <c r="L38" s="102">
+        <v>43</v>
+      </c>
+      <c r="M38" s="102">
+        <v>34</v>
+      </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>28</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
+      <c r="B39" s="102">
+        <v>47</v>
+      </c>
+      <c r="C39" s="102">
+        <v>23</v>
+      </c>
+      <c r="D39" s="102">
+        <v>0</v>
+      </c>
+      <c r="E39" s="102">
+        <v>0</v>
+      </c>
+      <c r="F39" s="102">
+        <v>0</v>
+      </c>
+      <c r="G39" s="102">
+        <v>0</v>
+      </c>
+      <c r="H39" s="102">
+        <v>0</v>
+      </c>
+      <c r="I39" s="102">
+        <v>0</v>
+      </c>
+      <c r="J39" s="102">
+        <v>0</v>
+      </c>
+      <c r="K39" s="102">
+        <v>0</v>
+      </c>
+      <c r="L39" s="102">
+        <v>36</v>
+      </c>
+      <c r="M39" s="102">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>29</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
+      <c r="B40" s="102">
+        <v>53</v>
+      </c>
+      <c r="C40" s="103"/>
+      <c r="D40" s="102">
+        <v>9</v>
+      </c>
+      <c r="E40" s="102">
+        <v>73</v>
+      </c>
+      <c r="F40" s="102">
+        <v>0</v>
+      </c>
+      <c r="G40" s="102">
+        <v>0</v>
+      </c>
+      <c r="H40" s="102">
+        <v>0</v>
+      </c>
+      <c r="I40" s="102">
+        <v>0</v>
+      </c>
+      <c r="J40" s="102">
+        <v>0</v>
+      </c>
+      <c r="K40" s="102">
+        <v>0</v>
+      </c>
+      <c r="L40" s="102">
+        <v>59</v>
+      </c>
+      <c r="M40" s="102">
+        <v>41</v>
+      </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>30</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
+      <c r="B41" s="102">
+        <v>42</v>
+      </c>
+      <c r="C41" s="103"/>
+      <c r="D41" s="102">
+        <v>0</v>
+      </c>
+      <c r="E41" s="102">
+        <v>8</v>
+      </c>
+      <c r="F41" s="102">
+        <v>0</v>
+      </c>
+      <c r="G41" s="102">
+        <v>0</v>
+      </c>
+      <c r="H41" s="102">
+        <v>0</v>
+      </c>
+      <c r="I41" s="102">
+        <v>0</v>
+      </c>
+      <c r="J41" s="102">
+        <v>0</v>
+      </c>
+      <c r="K41" s="102">
+        <v>0</v>
+      </c>
+      <c r="L41" s="102">
+        <v>41</v>
+      </c>
+      <c r="M41" s="102">
+        <v>49</v>
+      </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>31</v>
       </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
+      <c r="B42" s="102">
+        <v>12</v>
+      </c>
+      <c r="C42" s="103"/>
+      <c r="D42" s="102">
+        <v>58</v>
+      </c>
+      <c r="E42" s="103"/>
+      <c r="F42" s="102">
+        <v>0</v>
+      </c>
+      <c r="G42" s="103"/>
+      <c r="H42" s="102">
+        <v>0</v>
+      </c>
+      <c r="I42" s="102">
+        <v>0</v>
+      </c>
+      <c r="J42" s="103"/>
+      <c r="K42" s="102">
+        <v>0</v>
+      </c>
+      <c r="L42" s="103"/>
+      <c r="M42" s="102">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="1">
         <f>SUM(B12:B42)</f>
-        <v>0</v>
-      </c>
-      <c r="C43" s="2">
+        <v>564</v>
+      </c>
+      <c r="C43" s="1">
         <f t="shared" ref="C43:M43" si="0">SUM(C12:C42)</f>
-        <v>0</v>
-      </c>
-      <c r="D43" s="2">
+        <v>888</v>
+      </c>
+      <c r="D43" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E43" s="2">
+        <v>527</v>
+      </c>
+      <c r="E43" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="2">
+        <v>672</v>
+      </c>
+      <c r="F43" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="2">
+        <v>177</v>
+      </c>
+      <c r="G43" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="2">
+        <v>43</v>
+      </c>
+      <c r="I43" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J43" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K43" s="2">
+      <c r="K43" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L43" s="2">
+      <c r="L43" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M43" s="2">
+        <v>289</v>
+      </c>
+      <c r="M43" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>544</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="1">
         <f>SUM(B12:B21)</f>
-        <v>0</v>
-      </c>
-      <c r="C44" s="2">
+        <v>121</v>
+      </c>
+      <c r="C44" s="1">
         <f t="shared" ref="C44:M44" si="1">SUM(C12:C21)</f>
-        <v>0</v>
-      </c>
-      <c r="D44" s="2">
+        <v>238</v>
+      </c>
+      <c r="D44" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E44" s="2">
+        <v>229</v>
+      </c>
+      <c r="E44" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="2">
+        <v>208</v>
+      </c>
+      <c r="F44" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="2">
+        <v>177</v>
+      </c>
+      <c r="G44" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="2">
+        <v>43</v>
+      </c>
+      <c r="I44" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J44" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K44" s="2">
+      <c r="K44" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L44" s="2">
+      <c r="L44" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M44" s="2">
+        <v>28</v>
+      </c>
+      <c r="M44" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="1">
         <f>SUM(B22:B31)</f>
-        <v>0</v>
-      </c>
-      <c r="C45" s="2">
+        <v>180</v>
+      </c>
+      <c r="C45" s="1">
         <f t="shared" ref="C45:M45" si="2">SUM(C22:C31)</f>
-        <v>0</v>
-      </c>
-      <c r="D45" s="2">
+        <v>395</v>
+      </c>
+      <c r="D45" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E45" s="2">
+        <v>100</v>
+      </c>
+      <c r="E45" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="2">
+        <v>289</v>
+      </c>
+      <c r="F45" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J45" s="2">
+      <c r="J45" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K45" s="2">
+      <c r="K45" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L45" s="2">
+      <c r="L45" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M45" s="2">
+        <v>82</v>
+      </c>
+      <c r="M45" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="1">
         <f>SUM(B32:B42)</f>
-        <v>0</v>
-      </c>
-      <c r="C46" s="2">
+        <v>263</v>
+      </c>
+      <c r="C46" s="1">
         <f t="shared" ref="C46:M46" si="3">SUM(C32:C42)</f>
-        <v>0</v>
-      </c>
-      <c r="D46" s="2">
+        <v>255</v>
+      </c>
+      <c r="D46" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E46" s="2">
+        <v>198</v>
+      </c>
+      <c r="E46" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="2">
+        <v>175</v>
+      </c>
+      <c r="F46" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I46" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J46" s="2">
+      <c r="J46" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K46" s="2">
+      <c r="K46" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L46" s="2">
+      <c r="L46" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M46" s="2">
+        <v>179</v>
+      </c>
+      <c r="M46" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="1">
         <f>MAX(B12:B42)</f>
-        <v>0</v>
-      </c>
-      <c r="C47" s="2">
+        <v>63</v>
+      </c>
+      <c r="C47" s="1">
         <f t="shared" ref="C47:M47" si="4">MAX(C12:C42)</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="2">
+        <v>116</v>
+      </c>
+      <c r="D47" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E47" s="2">
+        <v>81</v>
+      </c>
+      <c r="E47" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="2">
+        <v>84</v>
+      </c>
+      <c r="F47" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="2">
+        <v>64</v>
+      </c>
+      <c r="G47" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="2">
+        <v>23</v>
+      </c>
+      <c r="I47" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J47" s="2">
+      <c r="J47" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K47" s="2">
+      <c r="K47" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L47" s="2">
+      <c r="L47" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M47" s="2">
+        <v>59</v>
+      </c>
+      <c r="M47" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G48" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="H48" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="I48" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="J48" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="K48" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L48" s="2" t="s">
+      <c r="L48" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M48" s="2" t="s">
+      <c r="M48" s="1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A9:M9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:M10"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
@@ -2718,27 +3485,6 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A9:M9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:M10"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2748,1170 +3494,1278 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9CD2B76-21D7-4623-B0B0-158FBAF48880}">
   <dimension ref="B2:S26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6"/>
-    <col min="2" max="2" width="4.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="6"/>
-    <col min="7" max="7" width="12.85546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="6" customWidth="1"/>
-    <col min="9" max="252" width="9.140625" style="6"/>
-    <col min="253" max="253" width="4.28515625" style="6" customWidth="1"/>
-    <col min="254" max="254" width="9.140625" style="6"/>
-    <col min="255" max="255" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="256" max="257" width="9.140625" style="6"/>
-    <col min="258" max="258" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="259" max="508" width="9.140625" style="6"/>
-    <col min="509" max="509" width="4.28515625" style="6" customWidth="1"/>
-    <col min="510" max="510" width="9.140625" style="6"/>
-    <col min="511" max="511" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="512" max="513" width="9.140625" style="6"/>
-    <col min="514" max="514" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="515" max="764" width="9.140625" style="6"/>
-    <col min="765" max="765" width="4.28515625" style="6" customWidth="1"/>
-    <col min="766" max="766" width="9.140625" style="6"/>
-    <col min="767" max="767" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="768" max="769" width="9.140625" style="6"/>
-    <col min="770" max="770" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="771" max="1020" width="9.140625" style="6"/>
-    <col min="1021" max="1021" width="4.28515625" style="6" customWidth="1"/>
-    <col min="1022" max="1022" width="9.140625" style="6"/>
-    <col min="1023" max="1023" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="1024" max="1025" width="9.140625" style="6"/>
-    <col min="1026" max="1026" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="1027" max="1276" width="9.140625" style="6"/>
-    <col min="1277" max="1277" width="4.28515625" style="6" customWidth="1"/>
-    <col min="1278" max="1278" width="9.140625" style="6"/>
-    <col min="1279" max="1279" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="1280" max="1281" width="9.140625" style="6"/>
-    <col min="1282" max="1282" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="1283" max="1532" width="9.140625" style="6"/>
-    <col min="1533" max="1533" width="4.28515625" style="6" customWidth="1"/>
-    <col min="1534" max="1534" width="9.140625" style="6"/>
-    <col min="1535" max="1535" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="1536" max="1537" width="9.140625" style="6"/>
-    <col min="1538" max="1538" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="1539" max="1788" width="9.140625" style="6"/>
-    <col min="1789" max="1789" width="4.28515625" style="6" customWidth="1"/>
-    <col min="1790" max="1790" width="9.140625" style="6"/>
-    <col min="1791" max="1791" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="1792" max="1793" width="9.140625" style="6"/>
-    <col min="1794" max="1794" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="1795" max="2044" width="9.140625" style="6"/>
-    <col min="2045" max="2045" width="4.28515625" style="6" customWidth="1"/>
-    <col min="2046" max="2046" width="9.140625" style="6"/>
-    <col min="2047" max="2047" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2048" max="2049" width="9.140625" style="6"/>
-    <col min="2050" max="2050" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2051" max="2300" width="9.140625" style="6"/>
-    <col min="2301" max="2301" width="4.28515625" style="6" customWidth="1"/>
-    <col min="2302" max="2302" width="9.140625" style="6"/>
-    <col min="2303" max="2303" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2304" max="2305" width="9.140625" style="6"/>
-    <col min="2306" max="2306" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2307" max="2556" width="9.140625" style="6"/>
-    <col min="2557" max="2557" width="4.28515625" style="6" customWidth="1"/>
-    <col min="2558" max="2558" width="9.140625" style="6"/>
-    <col min="2559" max="2559" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2560" max="2561" width="9.140625" style="6"/>
-    <col min="2562" max="2562" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2563" max="2812" width="9.140625" style="6"/>
-    <col min="2813" max="2813" width="4.28515625" style="6" customWidth="1"/>
-    <col min="2814" max="2814" width="9.140625" style="6"/>
-    <col min="2815" max="2815" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2816" max="2817" width="9.140625" style="6"/>
-    <col min="2818" max="2818" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2819" max="3068" width="9.140625" style="6"/>
-    <col min="3069" max="3069" width="4.28515625" style="6" customWidth="1"/>
-    <col min="3070" max="3070" width="9.140625" style="6"/>
-    <col min="3071" max="3071" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3072" max="3073" width="9.140625" style="6"/>
-    <col min="3074" max="3074" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3075" max="3324" width="9.140625" style="6"/>
-    <col min="3325" max="3325" width="4.28515625" style="6" customWidth="1"/>
-    <col min="3326" max="3326" width="9.140625" style="6"/>
-    <col min="3327" max="3327" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3328" max="3329" width="9.140625" style="6"/>
-    <col min="3330" max="3330" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3331" max="3580" width="9.140625" style="6"/>
-    <col min="3581" max="3581" width="4.28515625" style="6" customWidth="1"/>
-    <col min="3582" max="3582" width="9.140625" style="6"/>
-    <col min="3583" max="3583" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3584" max="3585" width="9.140625" style="6"/>
-    <col min="3586" max="3586" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3587" max="3836" width="9.140625" style="6"/>
-    <col min="3837" max="3837" width="4.28515625" style="6" customWidth="1"/>
-    <col min="3838" max="3838" width="9.140625" style="6"/>
-    <col min="3839" max="3839" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3840" max="3841" width="9.140625" style="6"/>
-    <col min="3842" max="3842" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3843" max="4092" width="9.140625" style="6"/>
-    <col min="4093" max="4093" width="4.28515625" style="6" customWidth="1"/>
-    <col min="4094" max="4094" width="9.140625" style="6"/>
-    <col min="4095" max="4095" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4096" max="4097" width="9.140625" style="6"/>
-    <col min="4098" max="4098" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4099" max="4348" width="9.140625" style="6"/>
-    <col min="4349" max="4349" width="4.28515625" style="6" customWidth="1"/>
-    <col min="4350" max="4350" width="9.140625" style="6"/>
-    <col min="4351" max="4351" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4352" max="4353" width="9.140625" style="6"/>
-    <col min="4354" max="4354" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4355" max="4604" width="9.140625" style="6"/>
-    <col min="4605" max="4605" width="4.28515625" style="6" customWidth="1"/>
-    <col min="4606" max="4606" width="9.140625" style="6"/>
-    <col min="4607" max="4607" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4608" max="4609" width="9.140625" style="6"/>
-    <col min="4610" max="4610" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4611" max="4860" width="9.140625" style="6"/>
-    <col min="4861" max="4861" width="4.28515625" style="6" customWidth="1"/>
-    <col min="4862" max="4862" width="9.140625" style="6"/>
-    <col min="4863" max="4863" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4864" max="4865" width="9.140625" style="6"/>
-    <col min="4866" max="4866" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4867" max="5116" width="9.140625" style="6"/>
-    <col min="5117" max="5117" width="4.28515625" style="6" customWidth="1"/>
-    <col min="5118" max="5118" width="9.140625" style="6"/>
-    <col min="5119" max="5119" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5120" max="5121" width="9.140625" style="6"/>
-    <col min="5122" max="5122" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5123" max="5372" width="9.140625" style="6"/>
-    <col min="5373" max="5373" width="4.28515625" style="6" customWidth="1"/>
-    <col min="5374" max="5374" width="9.140625" style="6"/>
-    <col min="5375" max="5375" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5376" max="5377" width="9.140625" style="6"/>
-    <col min="5378" max="5378" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5379" max="5628" width="9.140625" style="6"/>
-    <col min="5629" max="5629" width="4.28515625" style="6" customWidth="1"/>
-    <col min="5630" max="5630" width="9.140625" style="6"/>
-    <col min="5631" max="5631" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5632" max="5633" width="9.140625" style="6"/>
-    <col min="5634" max="5634" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5635" max="5884" width="9.140625" style="6"/>
-    <col min="5885" max="5885" width="4.28515625" style="6" customWidth="1"/>
-    <col min="5886" max="5886" width="9.140625" style="6"/>
-    <col min="5887" max="5887" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5888" max="5889" width="9.140625" style="6"/>
-    <col min="5890" max="5890" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5891" max="6140" width="9.140625" style="6"/>
-    <col min="6141" max="6141" width="4.28515625" style="6" customWidth="1"/>
-    <col min="6142" max="6142" width="9.140625" style="6"/>
-    <col min="6143" max="6143" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6144" max="6145" width="9.140625" style="6"/>
-    <col min="6146" max="6146" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6147" max="6396" width="9.140625" style="6"/>
-    <col min="6397" max="6397" width="4.28515625" style="6" customWidth="1"/>
-    <col min="6398" max="6398" width="9.140625" style="6"/>
-    <col min="6399" max="6399" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6400" max="6401" width="9.140625" style="6"/>
-    <col min="6402" max="6402" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6403" max="6652" width="9.140625" style="6"/>
-    <col min="6653" max="6653" width="4.28515625" style="6" customWidth="1"/>
-    <col min="6654" max="6654" width="9.140625" style="6"/>
-    <col min="6655" max="6655" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6656" max="6657" width="9.140625" style="6"/>
-    <col min="6658" max="6658" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6659" max="6908" width="9.140625" style="6"/>
-    <col min="6909" max="6909" width="4.28515625" style="6" customWidth="1"/>
-    <col min="6910" max="6910" width="9.140625" style="6"/>
-    <col min="6911" max="6911" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6912" max="6913" width="9.140625" style="6"/>
-    <col min="6914" max="6914" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6915" max="7164" width="9.140625" style="6"/>
-    <col min="7165" max="7165" width="4.28515625" style="6" customWidth="1"/>
-    <col min="7166" max="7166" width="9.140625" style="6"/>
-    <col min="7167" max="7167" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7168" max="7169" width="9.140625" style="6"/>
-    <col min="7170" max="7170" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7171" max="7420" width="9.140625" style="6"/>
-    <col min="7421" max="7421" width="4.28515625" style="6" customWidth="1"/>
-    <col min="7422" max="7422" width="9.140625" style="6"/>
-    <col min="7423" max="7423" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7424" max="7425" width="9.140625" style="6"/>
-    <col min="7426" max="7426" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7427" max="7676" width="9.140625" style="6"/>
-    <col min="7677" max="7677" width="4.28515625" style="6" customWidth="1"/>
-    <col min="7678" max="7678" width="9.140625" style="6"/>
-    <col min="7679" max="7679" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7680" max="7681" width="9.140625" style="6"/>
-    <col min="7682" max="7682" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7683" max="7932" width="9.140625" style="6"/>
-    <col min="7933" max="7933" width="4.28515625" style="6" customWidth="1"/>
-    <col min="7934" max="7934" width="9.140625" style="6"/>
-    <col min="7935" max="7935" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7936" max="7937" width="9.140625" style="6"/>
-    <col min="7938" max="7938" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7939" max="8188" width="9.140625" style="6"/>
-    <col min="8189" max="8189" width="4.28515625" style="6" customWidth="1"/>
-    <col min="8190" max="8190" width="9.140625" style="6"/>
-    <col min="8191" max="8191" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8192" max="8193" width="9.140625" style="6"/>
-    <col min="8194" max="8194" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8195" max="8444" width="9.140625" style="6"/>
-    <col min="8445" max="8445" width="4.28515625" style="6" customWidth="1"/>
-    <col min="8446" max="8446" width="9.140625" style="6"/>
-    <col min="8447" max="8447" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8448" max="8449" width="9.140625" style="6"/>
-    <col min="8450" max="8450" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8451" max="8700" width="9.140625" style="6"/>
-    <col min="8701" max="8701" width="4.28515625" style="6" customWidth="1"/>
-    <col min="8702" max="8702" width="9.140625" style="6"/>
-    <col min="8703" max="8703" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8704" max="8705" width="9.140625" style="6"/>
-    <col min="8706" max="8706" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8707" max="8956" width="9.140625" style="6"/>
-    <col min="8957" max="8957" width="4.28515625" style="6" customWidth="1"/>
-    <col min="8958" max="8958" width="9.140625" style="6"/>
-    <col min="8959" max="8959" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8960" max="8961" width="9.140625" style="6"/>
-    <col min="8962" max="8962" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8963" max="9212" width="9.140625" style="6"/>
-    <col min="9213" max="9213" width="4.28515625" style="6" customWidth="1"/>
-    <col min="9214" max="9214" width="9.140625" style="6"/>
-    <col min="9215" max="9215" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9216" max="9217" width="9.140625" style="6"/>
-    <col min="9218" max="9218" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9219" max="9468" width="9.140625" style="6"/>
-    <col min="9469" max="9469" width="4.28515625" style="6" customWidth="1"/>
-    <col min="9470" max="9470" width="9.140625" style="6"/>
-    <col min="9471" max="9471" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9472" max="9473" width="9.140625" style="6"/>
-    <col min="9474" max="9474" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9475" max="9724" width="9.140625" style="6"/>
-    <col min="9725" max="9725" width="4.28515625" style="6" customWidth="1"/>
-    <col min="9726" max="9726" width="9.140625" style="6"/>
-    <col min="9727" max="9727" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9728" max="9729" width="9.140625" style="6"/>
-    <col min="9730" max="9730" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9731" max="9980" width="9.140625" style="6"/>
-    <col min="9981" max="9981" width="4.28515625" style="6" customWidth="1"/>
-    <col min="9982" max="9982" width="9.140625" style="6"/>
-    <col min="9983" max="9983" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9984" max="9985" width="9.140625" style="6"/>
-    <col min="9986" max="9986" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9987" max="10236" width="9.140625" style="6"/>
-    <col min="10237" max="10237" width="4.28515625" style="6" customWidth="1"/>
-    <col min="10238" max="10238" width="9.140625" style="6"/>
-    <col min="10239" max="10239" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10240" max="10241" width="9.140625" style="6"/>
-    <col min="10242" max="10242" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10243" max="10492" width="9.140625" style="6"/>
-    <col min="10493" max="10493" width="4.28515625" style="6" customWidth="1"/>
-    <col min="10494" max="10494" width="9.140625" style="6"/>
-    <col min="10495" max="10495" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10496" max="10497" width="9.140625" style="6"/>
-    <col min="10498" max="10498" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10499" max="10748" width="9.140625" style="6"/>
-    <col min="10749" max="10749" width="4.28515625" style="6" customWidth="1"/>
-    <col min="10750" max="10750" width="9.140625" style="6"/>
-    <col min="10751" max="10751" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10752" max="10753" width="9.140625" style="6"/>
-    <col min="10754" max="10754" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10755" max="11004" width="9.140625" style="6"/>
-    <col min="11005" max="11005" width="4.28515625" style="6" customWidth="1"/>
-    <col min="11006" max="11006" width="9.140625" style="6"/>
-    <col min="11007" max="11007" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11008" max="11009" width="9.140625" style="6"/>
-    <col min="11010" max="11010" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11011" max="11260" width="9.140625" style="6"/>
-    <col min="11261" max="11261" width="4.28515625" style="6" customWidth="1"/>
-    <col min="11262" max="11262" width="9.140625" style="6"/>
-    <col min="11263" max="11263" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11264" max="11265" width="9.140625" style="6"/>
-    <col min="11266" max="11266" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11267" max="11516" width="9.140625" style="6"/>
-    <col min="11517" max="11517" width="4.28515625" style="6" customWidth="1"/>
-    <col min="11518" max="11518" width="9.140625" style="6"/>
-    <col min="11519" max="11519" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11520" max="11521" width="9.140625" style="6"/>
-    <col min="11522" max="11522" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11523" max="11772" width="9.140625" style="6"/>
-    <col min="11773" max="11773" width="4.28515625" style="6" customWidth="1"/>
-    <col min="11774" max="11774" width="9.140625" style="6"/>
-    <col min="11775" max="11775" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11776" max="11777" width="9.140625" style="6"/>
-    <col min="11778" max="11778" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11779" max="12028" width="9.140625" style="6"/>
-    <col min="12029" max="12029" width="4.28515625" style="6" customWidth="1"/>
-    <col min="12030" max="12030" width="9.140625" style="6"/>
-    <col min="12031" max="12031" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="12032" max="12033" width="9.140625" style="6"/>
-    <col min="12034" max="12034" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12035" max="12284" width="9.140625" style="6"/>
-    <col min="12285" max="12285" width="4.28515625" style="6" customWidth="1"/>
-    <col min="12286" max="12286" width="9.140625" style="6"/>
-    <col min="12287" max="12287" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="12288" max="12289" width="9.140625" style="6"/>
-    <col min="12290" max="12290" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12291" max="12540" width="9.140625" style="6"/>
-    <col min="12541" max="12541" width="4.28515625" style="6" customWidth="1"/>
-    <col min="12542" max="12542" width="9.140625" style="6"/>
-    <col min="12543" max="12543" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="12544" max="12545" width="9.140625" style="6"/>
-    <col min="12546" max="12546" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12547" max="12796" width="9.140625" style="6"/>
-    <col min="12797" max="12797" width="4.28515625" style="6" customWidth="1"/>
-    <col min="12798" max="12798" width="9.140625" style="6"/>
-    <col min="12799" max="12799" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="12800" max="12801" width="9.140625" style="6"/>
-    <col min="12802" max="12802" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12803" max="13052" width="9.140625" style="6"/>
-    <col min="13053" max="13053" width="4.28515625" style="6" customWidth="1"/>
-    <col min="13054" max="13054" width="9.140625" style="6"/>
-    <col min="13055" max="13055" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="13056" max="13057" width="9.140625" style="6"/>
-    <col min="13058" max="13058" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13059" max="13308" width="9.140625" style="6"/>
-    <col min="13309" max="13309" width="4.28515625" style="6" customWidth="1"/>
-    <col min="13310" max="13310" width="9.140625" style="6"/>
-    <col min="13311" max="13311" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="13312" max="13313" width="9.140625" style="6"/>
-    <col min="13314" max="13314" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13315" max="13564" width="9.140625" style="6"/>
-    <col min="13565" max="13565" width="4.28515625" style="6" customWidth="1"/>
-    <col min="13566" max="13566" width="9.140625" style="6"/>
-    <col min="13567" max="13567" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="13568" max="13569" width="9.140625" style="6"/>
-    <col min="13570" max="13570" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13571" max="13820" width="9.140625" style="6"/>
-    <col min="13821" max="13821" width="4.28515625" style="6" customWidth="1"/>
-    <col min="13822" max="13822" width="9.140625" style="6"/>
-    <col min="13823" max="13823" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="13824" max="13825" width="9.140625" style="6"/>
-    <col min="13826" max="13826" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13827" max="14076" width="9.140625" style="6"/>
-    <col min="14077" max="14077" width="4.28515625" style="6" customWidth="1"/>
-    <col min="14078" max="14078" width="9.140625" style="6"/>
-    <col min="14079" max="14079" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="14080" max="14081" width="9.140625" style="6"/>
-    <col min="14082" max="14082" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14083" max="14332" width="9.140625" style="6"/>
-    <col min="14333" max="14333" width="4.28515625" style="6" customWidth="1"/>
-    <col min="14334" max="14334" width="9.140625" style="6"/>
-    <col min="14335" max="14335" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="14336" max="14337" width="9.140625" style="6"/>
-    <col min="14338" max="14338" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14339" max="14588" width="9.140625" style="6"/>
-    <col min="14589" max="14589" width="4.28515625" style="6" customWidth="1"/>
-    <col min="14590" max="14590" width="9.140625" style="6"/>
-    <col min="14591" max="14591" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="14592" max="14593" width="9.140625" style="6"/>
-    <col min="14594" max="14594" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14595" max="14844" width="9.140625" style="6"/>
-    <col min="14845" max="14845" width="4.28515625" style="6" customWidth="1"/>
-    <col min="14846" max="14846" width="9.140625" style="6"/>
-    <col min="14847" max="14847" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="14848" max="14849" width="9.140625" style="6"/>
-    <col min="14850" max="14850" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14851" max="15100" width="9.140625" style="6"/>
-    <col min="15101" max="15101" width="4.28515625" style="6" customWidth="1"/>
-    <col min="15102" max="15102" width="9.140625" style="6"/>
-    <col min="15103" max="15103" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="15104" max="15105" width="9.140625" style="6"/>
-    <col min="15106" max="15106" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="15107" max="15356" width="9.140625" style="6"/>
-    <col min="15357" max="15357" width="4.28515625" style="6" customWidth="1"/>
-    <col min="15358" max="15358" width="9.140625" style="6"/>
-    <col min="15359" max="15359" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="15360" max="15361" width="9.140625" style="6"/>
-    <col min="15362" max="15362" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="15363" max="15612" width="9.140625" style="6"/>
-    <col min="15613" max="15613" width="4.28515625" style="6" customWidth="1"/>
-    <col min="15614" max="15614" width="9.140625" style="6"/>
-    <col min="15615" max="15615" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="15616" max="15617" width="9.140625" style="6"/>
-    <col min="15618" max="15618" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="15619" max="15868" width="9.140625" style="6"/>
-    <col min="15869" max="15869" width="4.28515625" style="6" customWidth="1"/>
-    <col min="15870" max="15870" width="9.140625" style="6"/>
-    <col min="15871" max="15871" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="15872" max="15873" width="9.140625" style="6"/>
-    <col min="15874" max="15874" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="15875" max="16124" width="9.140625" style="6"/>
-    <col min="16125" max="16125" width="4.28515625" style="6" customWidth="1"/>
-    <col min="16126" max="16126" width="9.140625" style="6"/>
-    <col min="16127" max="16127" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="16128" max="16129" width="9.140625" style="6"/>
-    <col min="16130" max="16130" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="16131" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="4.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="5"/>
+    <col min="7" max="7" width="12.85546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="5" customWidth="1"/>
+    <col min="9" max="252" width="9.140625" style="5"/>
+    <col min="253" max="253" width="4.28515625" style="5" customWidth="1"/>
+    <col min="254" max="254" width="9.140625" style="5"/>
+    <col min="255" max="255" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="256" max="257" width="9.140625" style="5"/>
+    <col min="258" max="258" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="259" max="508" width="9.140625" style="5"/>
+    <col min="509" max="509" width="4.28515625" style="5" customWidth="1"/>
+    <col min="510" max="510" width="9.140625" style="5"/>
+    <col min="511" max="511" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="512" max="513" width="9.140625" style="5"/>
+    <col min="514" max="514" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="515" max="764" width="9.140625" style="5"/>
+    <col min="765" max="765" width="4.28515625" style="5" customWidth="1"/>
+    <col min="766" max="766" width="9.140625" style="5"/>
+    <col min="767" max="767" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="768" max="769" width="9.140625" style="5"/>
+    <col min="770" max="770" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="771" max="1020" width="9.140625" style="5"/>
+    <col min="1021" max="1021" width="4.28515625" style="5" customWidth="1"/>
+    <col min="1022" max="1022" width="9.140625" style="5"/>
+    <col min="1023" max="1023" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1024" max="1025" width="9.140625" style="5"/>
+    <col min="1026" max="1026" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1276" width="9.140625" style="5"/>
+    <col min="1277" max="1277" width="4.28515625" style="5" customWidth="1"/>
+    <col min="1278" max="1278" width="9.140625" style="5"/>
+    <col min="1279" max="1279" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1280" max="1281" width="9.140625" style="5"/>
+    <col min="1282" max="1282" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1532" width="9.140625" style="5"/>
+    <col min="1533" max="1533" width="4.28515625" style="5" customWidth="1"/>
+    <col min="1534" max="1534" width="9.140625" style="5"/>
+    <col min="1535" max="1535" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1536" max="1537" width="9.140625" style="5"/>
+    <col min="1538" max="1538" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1788" width="9.140625" style="5"/>
+    <col min="1789" max="1789" width="4.28515625" style="5" customWidth="1"/>
+    <col min="1790" max="1790" width="9.140625" style="5"/>
+    <col min="1791" max="1791" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1792" max="1793" width="9.140625" style="5"/>
+    <col min="1794" max="1794" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1795" max="2044" width="9.140625" style="5"/>
+    <col min="2045" max="2045" width="4.28515625" style="5" customWidth="1"/>
+    <col min="2046" max="2046" width="9.140625" style="5"/>
+    <col min="2047" max="2047" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2048" max="2049" width="9.140625" style="5"/>
+    <col min="2050" max="2050" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2300" width="9.140625" style="5"/>
+    <col min="2301" max="2301" width="4.28515625" style="5" customWidth="1"/>
+    <col min="2302" max="2302" width="9.140625" style="5"/>
+    <col min="2303" max="2303" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2304" max="2305" width="9.140625" style="5"/>
+    <col min="2306" max="2306" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2556" width="9.140625" style="5"/>
+    <col min="2557" max="2557" width="4.28515625" style="5" customWidth="1"/>
+    <col min="2558" max="2558" width="9.140625" style="5"/>
+    <col min="2559" max="2559" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2560" max="2561" width="9.140625" style="5"/>
+    <col min="2562" max="2562" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2812" width="9.140625" style="5"/>
+    <col min="2813" max="2813" width="4.28515625" style="5" customWidth="1"/>
+    <col min="2814" max="2814" width="9.140625" style="5"/>
+    <col min="2815" max="2815" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2816" max="2817" width="9.140625" style="5"/>
+    <col min="2818" max="2818" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2819" max="3068" width="9.140625" style="5"/>
+    <col min="3069" max="3069" width="4.28515625" style="5" customWidth="1"/>
+    <col min="3070" max="3070" width="9.140625" style="5"/>
+    <col min="3071" max="3071" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3072" max="3073" width="9.140625" style="5"/>
+    <col min="3074" max="3074" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3324" width="9.140625" style="5"/>
+    <col min="3325" max="3325" width="4.28515625" style="5" customWidth="1"/>
+    <col min="3326" max="3326" width="9.140625" style="5"/>
+    <col min="3327" max="3327" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3328" max="3329" width="9.140625" style="5"/>
+    <col min="3330" max="3330" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3580" width="9.140625" style="5"/>
+    <col min="3581" max="3581" width="4.28515625" style="5" customWidth="1"/>
+    <col min="3582" max="3582" width="9.140625" style="5"/>
+    <col min="3583" max="3583" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3584" max="3585" width="9.140625" style="5"/>
+    <col min="3586" max="3586" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3836" width="9.140625" style="5"/>
+    <col min="3837" max="3837" width="4.28515625" style="5" customWidth="1"/>
+    <col min="3838" max="3838" width="9.140625" style="5"/>
+    <col min="3839" max="3839" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3840" max="3841" width="9.140625" style="5"/>
+    <col min="3842" max="3842" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3843" max="4092" width="9.140625" style="5"/>
+    <col min="4093" max="4093" width="4.28515625" style="5" customWidth="1"/>
+    <col min="4094" max="4094" width="9.140625" style="5"/>
+    <col min="4095" max="4095" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4096" max="4097" width="9.140625" style="5"/>
+    <col min="4098" max="4098" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4348" width="9.140625" style="5"/>
+    <col min="4349" max="4349" width="4.28515625" style="5" customWidth="1"/>
+    <col min="4350" max="4350" width="9.140625" style="5"/>
+    <col min="4351" max="4351" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4352" max="4353" width="9.140625" style="5"/>
+    <col min="4354" max="4354" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4604" width="9.140625" style="5"/>
+    <col min="4605" max="4605" width="4.28515625" style="5" customWidth="1"/>
+    <col min="4606" max="4606" width="9.140625" style="5"/>
+    <col min="4607" max="4607" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4608" max="4609" width="9.140625" style="5"/>
+    <col min="4610" max="4610" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4860" width="9.140625" style="5"/>
+    <col min="4861" max="4861" width="4.28515625" style="5" customWidth="1"/>
+    <col min="4862" max="4862" width="9.140625" style="5"/>
+    <col min="4863" max="4863" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4864" max="4865" width="9.140625" style="5"/>
+    <col min="4866" max="4866" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4867" max="5116" width="9.140625" style="5"/>
+    <col min="5117" max="5117" width="4.28515625" style="5" customWidth="1"/>
+    <col min="5118" max="5118" width="9.140625" style="5"/>
+    <col min="5119" max="5119" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5120" max="5121" width="9.140625" style="5"/>
+    <col min="5122" max="5122" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5372" width="9.140625" style="5"/>
+    <col min="5373" max="5373" width="4.28515625" style="5" customWidth="1"/>
+    <col min="5374" max="5374" width="9.140625" style="5"/>
+    <col min="5375" max="5375" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5376" max="5377" width="9.140625" style="5"/>
+    <col min="5378" max="5378" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5628" width="9.140625" style="5"/>
+    <col min="5629" max="5629" width="4.28515625" style="5" customWidth="1"/>
+    <col min="5630" max="5630" width="9.140625" style="5"/>
+    <col min="5631" max="5631" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5632" max="5633" width="9.140625" style="5"/>
+    <col min="5634" max="5634" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5884" width="9.140625" style="5"/>
+    <col min="5885" max="5885" width="4.28515625" style="5" customWidth="1"/>
+    <col min="5886" max="5886" width="9.140625" style="5"/>
+    <col min="5887" max="5887" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5888" max="5889" width="9.140625" style="5"/>
+    <col min="5890" max="5890" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5891" max="6140" width="9.140625" style="5"/>
+    <col min="6141" max="6141" width="4.28515625" style="5" customWidth="1"/>
+    <col min="6142" max="6142" width="9.140625" style="5"/>
+    <col min="6143" max="6143" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6144" max="6145" width="9.140625" style="5"/>
+    <col min="6146" max="6146" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6396" width="9.140625" style="5"/>
+    <col min="6397" max="6397" width="4.28515625" style="5" customWidth="1"/>
+    <col min="6398" max="6398" width="9.140625" style="5"/>
+    <col min="6399" max="6399" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6400" max="6401" width="9.140625" style="5"/>
+    <col min="6402" max="6402" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6652" width="9.140625" style="5"/>
+    <col min="6653" max="6653" width="4.28515625" style="5" customWidth="1"/>
+    <col min="6654" max="6654" width="9.140625" style="5"/>
+    <col min="6655" max="6655" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6656" max="6657" width="9.140625" style="5"/>
+    <col min="6658" max="6658" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6908" width="9.140625" style="5"/>
+    <col min="6909" max="6909" width="4.28515625" style="5" customWidth="1"/>
+    <col min="6910" max="6910" width="9.140625" style="5"/>
+    <col min="6911" max="6911" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6912" max="6913" width="9.140625" style="5"/>
+    <col min="6914" max="6914" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6915" max="7164" width="9.140625" style="5"/>
+    <col min="7165" max="7165" width="4.28515625" style="5" customWidth="1"/>
+    <col min="7166" max="7166" width="9.140625" style="5"/>
+    <col min="7167" max="7167" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7168" max="7169" width="9.140625" style="5"/>
+    <col min="7170" max="7170" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7420" width="9.140625" style="5"/>
+    <col min="7421" max="7421" width="4.28515625" style="5" customWidth="1"/>
+    <col min="7422" max="7422" width="9.140625" style="5"/>
+    <col min="7423" max="7423" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7424" max="7425" width="9.140625" style="5"/>
+    <col min="7426" max="7426" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7676" width="9.140625" style="5"/>
+    <col min="7677" max="7677" width="4.28515625" style="5" customWidth="1"/>
+    <col min="7678" max="7678" width="9.140625" style="5"/>
+    <col min="7679" max="7679" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7680" max="7681" width="9.140625" style="5"/>
+    <col min="7682" max="7682" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7932" width="9.140625" style="5"/>
+    <col min="7933" max="7933" width="4.28515625" style="5" customWidth="1"/>
+    <col min="7934" max="7934" width="9.140625" style="5"/>
+    <col min="7935" max="7935" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7936" max="7937" width="9.140625" style="5"/>
+    <col min="7938" max="7938" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7939" max="8188" width="9.140625" style="5"/>
+    <col min="8189" max="8189" width="4.28515625" style="5" customWidth="1"/>
+    <col min="8190" max="8190" width="9.140625" style="5"/>
+    <col min="8191" max="8191" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8192" max="8193" width="9.140625" style="5"/>
+    <col min="8194" max="8194" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8444" width="9.140625" style="5"/>
+    <col min="8445" max="8445" width="4.28515625" style="5" customWidth="1"/>
+    <col min="8446" max="8446" width="9.140625" style="5"/>
+    <col min="8447" max="8447" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8448" max="8449" width="9.140625" style="5"/>
+    <col min="8450" max="8450" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8700" width="9.140625" style="5"/>
+    <col min="8701" max="8701" width="4.28515625" style="5" customWidth="1"/>
+    <col min="8702" max="8702" width="9.140625" style="5"/>
+    <col min="8703" max="8703" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8704" max="8705" width="9.140625" style="5"/>
+    <col min="8706" max="8706" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8956" width="9.140625" style="5"/>
+    <col min="8957" max="8957" width="4.28515625" style="5" customWidth="1"/>
+    <col min="8958" max="8958" width="9.140625" style="5"/>
+    <col min="8959" max="8959" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8960" max="8961" width="9.140625" style="5"/>
+    <col min="8962" max="8962" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8963" max="9212" width="9.140625" style="5"/>
+    <col min="9213" max="9213" width="4.28515625" style="5" customWidth="1"/>
+    <col min="9214" max="9214" width="9.140625" style="5"/>
+    <col min="9215" max="9215" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9216" max="9217" width="9.140625" style="5"/>
+    <col min="9218" max="9218" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9468" width="9.140625" style="5"/>
+    <col min="9469" max="9469" width="4.28515625" style="5" customWidth="1"/>
+    <col min="9470" max="9470" width="9.140625" style="5"/>
+    <col min="9471" max="9471" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9472" max="9473" width="9.140625" style="5"/>
+    <col min="9474" max="9474" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9724" width="9.140625" style="5"/>
+    <col min="9725" max="9725" width="4.28515625" style="5" customWidth="1"/>
+    <col min="9726" max="9726" width="9.140625" style="5"/>
+    <col min="9727" max="9727" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9728" max="9729" width="9.140625" style="5"/>
+    <col min="9730" max="9730" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9980" width="9.140625" style="5"/>
+    <col min="9981" max="9981" width="4.28515625" style="5" customWidth="1"/>
+    <col min="9982" max="9982" width="9.140625" style="5"/>
+    <col min="9983" max="9983" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9984" max="9985" width="9.140625" style="5"/>
+    <col min="9986" max="9986" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9987" max="10236" width="9.140625" style="5"/>
+    <col min="10237" max="10237" width="4.28515625" style="5" customWidth="1"/>
+    <col min="10238" max="10238" width="9.140625" style="5"/>
+    <col min="10239" max="10239" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10240" max="10241" width="9.140625" style="5"/>
+    <col min="10242" max="10242" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10492" width="9.140625" style="5"/>
+    <col min="10493" max="10493" width="4.28515625" style="5" customWidth="1"/>
+    <col min="10494" max="10494" width="9.140625" style="5"/>
+    <col min="10495" max="10495" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10496" max="10497" width="9.140625" style="5"/>
+    <col min="10498" max="10498" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10748" width="9.140625" style="5"/>
+    <col min="10749" max="10749" width="4.28515625" style="5" customWidth="1"/>
+    <col min="10750" max="10750" width="9.140625" style="5"/>
+    <col min="10751" max="10751" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10752" max="10753" width="9.140625" style="5"/>
+    <col min="10754" max="10754" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10755" max="11004" width="9.140625" style="5"/>
+    <col min="11005" max="11005" width="4.28515625" style="5" customWidth="1"/>
+    <col min="11006" max="11006" width="9.140625" style="5"/>
+    <col min="11007" max="11007" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11008" max="11009" width="9.140625" style="5"/>
+    <col min="11010" max="11010" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11260" width="9.140625" style="5"/>
+    <col min="11261" max="11261" width="4.28515625" style="5" customWidth="1"/>
+    <col min="11262" max="11262" width="9.140625" style="5"/>
+    <col min="11263" max="11263" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11264" max="11265" width="9.140625" style="5"/>
+    <col min="11266" max="11266" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11516" width="9.140625" style="5"/>
+    <col min="11517" max="11517" width="4.28515625" style="5" customWidth="1"/>
+    <col min="11518" max="11518" width="9.140625" style="5"/>
+    <col min="11519" max="11519" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11520" max="11521" width="9.140625" style="5"/>
+    <col min="11522" max="11522" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11772" width="9.140625" style="5"/>
+    <col min="11773" max="11773" width="4.28515625" style="5" customWidth="1"/>
+    <col min="11774" max="11774" width="9.140625" style="5"/>
+    <col min="11775" max="11775" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11776" max="11777" width="9.140625" style="5"/>
+    <col min="11778" max="11778" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11779" max="12028" width="9.140625" style="5"/>
+    <col min="12029" max="12029" width="4.28515625" style="5" customWidth="1"/>
+    <col min="12030" max="12030" width="9.140625" style="5"/>
+    <col min="12031" max="12031" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12032" max="12033" width="9.140625" style="5"/>
+    <col min="12034" max="12034" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12284" width="9.140625" style="5"/>
+    <col min="12285" max="12285" width="4.28515625" style="5" customWidth="1"/>
+    <col min="12286" max="12286" width="9.140625" style="5"/>
+    <col min="12287" max="12287" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12288" max="12289" width="9.140625" style="5"/>
+    <col min="12290" max="12290" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12540" width="9.140625" style="5"/>
+    <col min="12541" max="12541" width="4.28515625" style="5" customWidth="1"/>
+    <col min="12542" max="12542" width="9.140625" style="5"/>
+    <col min="12543" max="12543" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12544" max="12545" width="9.140625" style="5"/>
+    <col min="12546" max="12546" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12796" width="9.140625" style="5"/>
+    <col min="12797" max="12797" width="4.28515625" style="5" customWidth="1"/>
+    <col min="12798" max="12798" width="9.140625" style="5"/>
+    <col min="12799" max="12799" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12800" max="12801" width="9.140625" style="5"/>
+    <col min="12802" max="12802" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12803" max="13052" width="9.140625" style="5"/>
+    <col min="13053" max="13053" width="4.28515625" style="5" customWidth="1"/>
+    <col min="13054" max="13054" width="9.140625" style="5"/>
+    <col min="13055" max="13055" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13056" max="13057" width="9.140625" style="5"/>
+    <col min="13058" max="13058" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13308" width="9.140625" style="5"/>
+    <col min="13309" max="13309" width="4.28515625" style="5" customWidth="1"/>
+    <col min="13310" max="13310" width="9.140625" style="5"/>
+    <col min="13311" max="13311" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13312" max="13313" width="9.140625" style="5"/>
+    <col min="13314" max="13314" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13564" width="9.140625" style="5"/>
+    <col min="13565" max="13565" width="4.28515625" style="5" customWidth="1"/>
+    <col min="13566" max="13566" width="9.140625" style="5"/>
+    <col min="13567" max="13567" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13568" max="13569" width="9.140625" style="5"/>
+    <col min="13570" max="13570" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13820" width="9.140625" style="5"/>
+    <col min="13821" max="13821" width="4.28515625" style="5" customWidth="1"/>
+    <col min="13822" max="13822" width="9.140625" style="5"/>
+    <col min="13823" max="13823" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13824" max="13825" width="9.140625" style="5"/>
+    <col min="13826" max="13826" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13827" max="14076" width="9.140625" style="5"/>
+    <col min="14077" max="14077" width="4.28515625" style="5" customWidth="1"/>
+    <col min="14078" max="14078" width="9.140625" style="5"/>
+    <col min="14079" max="14079" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14080" max="14081" width="9.140625" style="5"/>
+    <col min="14082" max="14082" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14332" width="9.140625" style="5"/>
+    <col min="14333" max="14333" width="4.28515625" style="5" customWidth="1"/>
+    <col min="14334" max="14334" width="9.140625" style="5"/>
+    <col min="14335" max="14335" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14336" max="14337" width="9.140625" style="5"/>
+    <col min="14338" max="14338" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14588" width="9.140625" style="5"/>
+    <col min="14589" max="14589" width="4.28515625" style="5" customWidth="1"/>
+    <col min="14590" max="14590" width="9.140625" style="5"/>
+    <col min="14591" max="14591" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14592" max="14593" width="9.140625" style="5"/>
+    <col min="14594" max="14594" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14844" width="9.140625" style="5"/>
+    <col min="14845" max="14845" width="4.28515625" style="5" customWidth="1"/>
+    <col min="14846" max="14846" width="9.140625" style="5"/>
+    <col min="14847" max="14847" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14848" max="14849" width="9.140625" style="5"/>
+    <col min="14850" max="14850" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14851" max="15100" width="9.140625" style="5"/>
+    <col min="15101" max="15101" width="4.28515625" style="5" customWidth="1"/>
+    <col min="15102" max="15102" width="9.140625" style="5"/>
+    <col min="15103" max="15103" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="15104" max="15105" width="9.140625" style="5"/>
+    <col min="15106" max="15106" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15356" width="9.140625" style="5"/>
+    <col min="15357" max="15357" width="4.28515625" style="5" customWidth="1"/>
+    <col min="15358" max="15358" width="9.140625" style="5"/>
+    <col min="15359" max="15359" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="15360" max="15361" width="9.140625" style="5"/>
+    <col min="15362" max="15362" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15612" width="9.140625" style="5"/>
+    <col min="15613" max="15613" width="4.28515625" style="5" customWidth="1"/>
+    <col min="15614" max="15614" width="9.140625" style="5"/>
+    <col min="15615" max="15615" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="15616" max="15617" width="9.140625" style="5"/>
+    <col min="15618" max="15618" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15868" width="9.140625" style="5"/>
+    <col min="15869" max="15869" width="4.28515625" style="5" customWidth="1"/>
+    <col min="15870" max="15870" width="9.140625" style="5"/>
+    <col min="15871" max="15871" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="15872" max="15873" width="9.140625" style="5"/>
+    <col min="15874" max="15874" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15875" max="16124" width="9.140625" style="5"/>
+    <col min="16125" max="16125" width="4.28515625" style="5" customWidth="1"/>
+    <col min="16126" max="16126" width="9.140625" style="5"/>
+    <col min="16127" max="16127" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="16128" max="16129" width="9.140625" style="5"/>
+    <col min="16130" max="16130" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="L2" s="87" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="L2" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
     </row>
     <row r="3" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="88" t="s">
+      <c r="L3" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="90" t="s">
+      <c r="M3" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="91"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="90" t="s">
+      <c r="N3" s="90"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="93"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="92"/>
     </row>
     <row r="4" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <f>Data!B43</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="10">
-        <f t="shared" ref="E4:E8" si="0">D4-$D$16</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="10">
-        <f t="shared" ref="F4:F9" si="1">ABS(E4)</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="10">
-        <f t="shared" ref="G4:G9" si="2">(F4^2)/$E$20</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="94">
+        <v>564</v>
+      </c>
+      <c r="E4" s="9">
+        <f t="shared" ref="E4:E14" si="0">D4-$D$16</f>
+        <v>255.33333333333331</v>
+      </c>
+      <c r="F4" s="9">
+        <f t="shared" ref="F4:F15" si="1">ABS(E4)</f>
+        <v>255.33333333333331</v>
+      </c>
+      <c r="G4" s="9">
+        <f t="shared" ref="G4:G15" si="2">(F4^2)/$E$20</f>
+        <v>5432.9259259259252</v>
+      </c>
+      <c r="H4" s="93">
         <f>G17^0.5</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="10" t="e">
-        <f t="shared" ref="I4:I9" si="3">F4/$H$4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J4" s="10" t="e">
-        <f t="shared" ref="J4:J9" si="4">ABS(I4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L4" s="89"/>
-      <c r="M4" s="11">
+        <v>303.49171689227734</v>
+      </c>
+      <c r="I4" s="9">
+        <f t="shared" ref="I4:I15" si="3">F4/$H$4</f>
+        <v>0.8413189524508915</v>
+      </c>
+      <c r="J4" s="9">
+        <f t="shared" ref="J4:J15" si="4">ABS(I4)</f>
+        <v>0.8413189524508915</v>
+      </c>
+      <c r="L4" s="88"/>
+      <c r="M4" s="10">
         <v>0.9</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="10">
         <v>0.95</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="10">
         <v>0.99</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="10">
         <v>0.9</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="10">
         <v>0.95</v>
       </c>
-      <c r="R4" s="12">
+      <c r="R4" s="11">
         <v>0.99</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>2</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <f>Data!C43</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="10">
+        <v>888</v>
+      </c>
+      <c r="E5" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="10">
+        <v>579.33333333333326</v>
+      </c>
+      <c r="F5" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="10">
+        <v>579.33333333333326</v>
+      </c>
+      <c r="G5" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="95"/>
-      <c r="I5" s="10" t="e">
+        <v>27968.925925925916</v>
+      </c>
+      <c r="H5" s="94"/>
+      <c r="I5" s="9">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J5" s="10" t="e">
+        <v>1.9088933934199079</v>
+      </c>
+      <c r="J5" s="9">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" s="13">
+        <v>1.9088933934199079</v>
+      </c>
+      <c r="L5" s="12">
         <v>10</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="13">
         <v>1.05</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="14">
         <v>1.1399999999999999</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="13">
         <v>1.29</v>
       </c>
-      <c r="P5" s="14">
+      <c r="P5" s="13">
         <v>1.21</v>
       </c>
-      <c r="Q5" s="15">
+      <c r="Q5" s="14">
         <v>1.28</v>
       </c>
-      <c r="R5" s="16">
+      <c r="R5" s="15">
         <v>1.38</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>3</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <f>Data!D43</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="10">
+        <v>527</v>
+      </c>
+      <c r="E6" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="10">
+        <v>218.33333333333331</v>
+      </c>
+      <c r="F6" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="10">
+        <v>218.33333333333331</v>
+      </c>
+      <c r="G6" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="95"/>
-      <c r="I6" s="10" t="e">
+        <v>3972.453703703703</v>
+      </c>
+      <c r="H6" s="94"/>
+      <c r="I6" s="9">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" s="10" t="e">
+        <v>0.71940458727850387</v>
+      </c>
+      <c r="J6" s="9">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L6" s="17">
+        <v>0.71940458727850387</v>
+      </c>
+      <c r="L6" s="16">
         <v>20</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M6" s="17">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N6" s="19">
+      <c r="N6" s="18">
         <v>1.22</v>
       </c>
-      <c r="O6" s="18">
+      <c r="O6" s="17">
         <v>1.42</v>
       </c>
-      <c r="P6" s="18">
+      <c r="P6" s="17">
         <v>1.34</v>
       </c>
-      <c r="Q6" s="19">
+      <c r="Q6" s="18">
         <v>1.43</v>
       </c>
-      <c r="R6" s="20">
+      <c r="R6" s="19">
         <v>1.6</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>4</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <f>Data!E43</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="10">
+        <v>672</v>
+      </c>
+      <c r="E7" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="10">
+        <v>363.33333333333331</v>
+      </c>
+      <c r="F7" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="10">
+        <v>363.33333333333331</v>
+      </c>
+      <c r="G7" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="95"/>
-      <c r="I7" s="10" t="e">
+        <v>11000.925925925925</v>
+      </c>
+      <c r="H7" s="94"/>
+      <c r="I7" s="9">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" s="10" t="e">
+        <v>1.1971770994405637</v>
+      </c>
+      <c r="J7" s="9">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L7" s="17">
+        <v>1.1971770994405637</v>
+      </c>
+      <c r="L7" s="16">
         <v>30</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M7" s="17">
         <v>1.1200000000000001</v>
       </c>
-      <c r="N7" s="18">
+      <c r="N7" s="17">
         <v>1.24</v>
       </c>
-      <c r="O7" s="18">
+      <c r="O7" s="17">
         <v>1.48</v>
       </c>
-      <c r="P7" s="18">
+      <c r="P7" s="17">
         <v>1.4</v>
       </c>
-      <c r="Q7" s="18">
+      <c r="Q7" s="17">
         <v>1.5</v>
       </c>
-      <c r="R7" s="20">
+      <c r="R7" s="19">
         <v>1.7</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>5</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <f>Data!F43</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="10">
+        <v>177</v>
+      </c>
+      <c r="E8" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="10">
+        <v>-131.66666666666669</v>
+      </c>
+      <c r="F8" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="10">
+        <v>131.66666666666669</v>
+      </c>
+      <c r="G8" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="95"/>
-      <c r="I8" s="10" t="e">
+        <v>1444.6759259259263</v>
+      </c>
+      <c r="H8" s="94"/>
+      <c r="I8" s="9">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" s="10" t="e">
+        <v>0.43383940759543371</v>
+      </c>
+      <c r="J8" s="9">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L8" s="17">
+        <v>0.43383940759543371</v>
+      </c>
+      <c r="L8" s="16">
         <v>40</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M8" s="17">
         <v>1.1399999999999999</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N8" s="17">
         <v>1.27</v>
       </c>
-      <c r="O8" s="18">
+      <c r="O8" s="17">
         <v>1.52</v>
       </c>
-      <c r="P8" s="18">
+      <c r="P8" s="17">
         <v>1.44</v>
       </c>
-      <c r="Q8" s="18">
+      <c r="Q8" s="17">
         <v>1.55</v>
       </c>
-      <c r="R8" s="20">
+      <c r="R8" s="19">
         <v>1.78</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>6</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <f>Data!G43</f>
         <v>0</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <f>D9-$D$16</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="10">
+        <v>-308.66666666666669</v>
+      </c>
+      <c r="F9" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="10">
+        <v>308.66666666666669</v>
+      </c>
+      <c r="G9" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="95"/>
-      <c r="I9" s="10" t="e">
+        <v>7939.592592592594</v>
+      </c>
+      <c r="H9" s="94"/>
+      <c r="I9" s="9">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" s="10" t="e">
+        <v>1.0170513707173965</v>
+      </c>
+      <c r="J9" s="9">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L9" s="17">
+        <v>1.0170513707173965</v>
+      </c>
+      <c r="L9" s="16">
         <v>100</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="17">
         <v>1.17</v>
       </c>
-      <c r="N9" s="18">
+      <c r="N9" s="17">
         <v>1.29</v>
       </c>
-      <c r="O9" s="18">
+      <c r="O9" s="17">
         <v>1.55</v>
       </c>
-      <c r="P9" s="18">
+      <c r="P9" s="17">
         <v>1.5</v>
       </c>
-      <c r="Q9" s="18">
+      <c r="Q9" s="17">
         <v>1.62</v>
       </c>
-      <c r="R9" s="20">
+      <c r="R9" s="19">
         <v>1.85</v>
       </c>
     </row>
     <row r="10" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>7</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="22">
+      <c r="D10" s="9">
+        <f>Data!H43</f>
+        <v>43</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" si="0"/>
+        <v>-265.66666666666669</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="1"/>
+        <v>265.66666666666669</v>
+      </c>
+      <c r="G10" s="9">
+        <f t="shared" si="2"/>
+        <v>5881.5648148148148</v>
+      </c>
+      <c r="H10" s="94"/>
+      <c r="I10" s="9">
+        <f t="shared" si="3"/>
+        <v>0.87536710849002697</v>
+      </c>
+      <c r="J10" s="9">
+        <f t="shared" si="4"/>
+        <v>0.87536710849002697</v>
+      </c>
+      <c r="L10" s="20"/>
+      <c r="M10" s="21">
         <v>1.22</v>
       </c>
-      <c r="N10" s="22">
+      <c r="N10" s="21">
         <v>1.36</v>
       </c>
-      <c r="O10" s="22">
+      <c r="O10" s="21">
         <v>1.63</v>
       </c>
-      <c r="P10" s="22">
+      <c r="P10" s="21">
         <v>1.62</v>
       </c>
-      <c r="Q10" s="22">
+      <c r="Q10" s="21">
         <v>1.75</v>
       </c>
-      <c r="R10" s="23">
+      <c r="R10" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>8</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="L11" s="24" t="s">
+      <c r="D11" s="9">
+        <f>Data!I43</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="0"/>
+        <v>-308.66666666666669</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="1"/>
+        <v>308.66666666666669</v>
+      </c>
+      <c r="G11" s="9">
+        <f t="shared" si="2"/>
+        <v>7939.592592592594</v>
+      </c>
+      <c r="H11" s="94"/>
+      <c r="I11" s="9">
+        <f t="shared" si="3"/>
+        <v>1.0170513707173965</v>
+      </c>
+      <c r="J11" s="9">
+        <f t="shared" si="4"/>
+        <v>1.0170513707173965</v>
+      </c>
+      <c r="L11" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>9</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="D12" s="9">
+        <f>Data!J43</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" si="0"/>
+        <v>-308.66666666666669</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" si="1"/>
+        <v>308.66666666666669</v>
+      </c>
+      <c r="G12" s="9">
+        <f t="shared" si="2"/>
+        <v>7939.592592592594</v>
+      </c>
+      <c r="H12" s="94"/>
+      <c r="I12" s="9">
+        <f t="shared" si="3"/>
+        <v>1.0170513707173965</v>
+      </c>
+      <c r="J12" s="9">
+        <f t="shared" si="4"/>
+        <v>1.0170513707173965</v>
+      </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>10</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="L13" s="26">
+      <c r="D13" s="9">
+        <f>Data!K43</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <f t="shared" si="0"/>
+        <v>-308.66666666666669</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="1"/>
+        <v>308.66666666666669</v>
+      </c>
+      <c r="G13" s="9">
+        <f t="shared" si="2"/>
+        <v>7939.592592592594</v>
+      </c>
+      <c r="H13" s="94"/>
+      <c r="I13" s="9">
+        <f t="shared" si="3"/>
+        <v>1.0170513707173965</v>
+      </c>
+      <c r="J13" s="9">
+        <f t="shared" si="4"/>
+        <v>1.0170513707173965</v>
+      </c>
+      <c r="L13" s="25">
         <f>E20</f>
         <v>12</v>
       </c>
-      <c r="M13" s="27">
+      <c r="M13" s="26">
         <f t="shared" ref="M13:R13" si="5">M5</f>
         <v>1.05</v>
       </c>
-      <c r="N13" s="27">
+      <c r="N13" s="26">
         <f t="shared" si="5"/>
         <v>1.1399999999999999</v>
       </c>
-      <c r="O13" s="27">
+      <c r="O13" s="26">
         <f t="shared" si="5"/>
         <v>1.29</v>
       </c>
-      <c r="P13" s="27">
+      <c r="P13" s="26">
         <f t="shared" si="5"/>
         <v>1.21</v>
       </c>
-      <c r="Q13" s="27">
+      <c r="Q13" s="26">
         <f t="shared" si="5"/>
         <v>1.28</v>
       </c>
-      <c r="R13" s="27">
+      <c r="R13" s="26">
         <f t="shared" si="5"/>
         <v>1.38</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>11</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="28"/>
+      <c r="D14" s="9">
+        <f>Data!L43</f>
+        <v>289</v>
+      </c>
+      <c r="E14" s="9">
+        <f t="shared" si="0"/>
+        <v>-19.666666666666686</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" si="1"/>
+        <v>19.666666666666686</v>
+      </c>
+      <c r="G14" s="9">
+        <f t="shared" si="2"/>
+        <v>32.231481481481545</v>
+      </c>
+      <c r="H14" s="94"/>
+      <c r="I14" s="9">
+        <f t="shared" si="3"/>
+        <v>6.4801329235773697E-2</v>
+      </c>
+      <c r="J14" s="9">
+        <f t="shared" si="4"/>
+        <v>6.4801329235773697E-2</v>
+      </c>
+      <c r="K14" s="27"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="27"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>12</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="28"/>
+      <c r="D15" s="9">
+        <f>Data!M43</f>
+        <v>544</v>
+      </c>
+      <c r="E15" s="9">
+        <f>D15-$D$16</f>
+        <v>235.33333333333331</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" si="1"/>
+        <v>235.33333333333331</v>
+      </c>
+      <c r="G15" s="9">
+        <f t="shared" si="2"/>
+        <v>4615.1481481481469</v>
+      </c>
+      <c r="H15" s="95"/>
+      <c r="I15" s="9">
+        <f t="shared" si="3"/>
+        <v>0.77541929560095224</v>
+      </c>
+      <c r="J15" s="9">
+        <f t="shared" si="4"/>
+        <v>0.77541929560095224</v>
+      </c>
+      <c r="K15" s="27"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="27"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="86"/>
-      <c r="D16" s="31">
+      <c r="C16" s="85"/>
+      <c r="D16" s="30">
         <f>AVERAGE(D4:D15)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="32" t="s">
+        <v>308.66666666666669</v>
+      </c>
+      <c r="E16" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="30">
         <f>AVERAGE(F4:F15)</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="32" t="s">
+        <v>275.27777777777771</v>
+      </c>
+      <c r="G16" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="31" t="e">
+      <c r="I16" s="30">
         <f>MAX(I4:I15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" s="31" t="e">
+        <v>1.9088933934199079</v>
+      </c>
+      <c r="J16" s="30">
         <f>ABS(I16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K16" s="28"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="28"/>
+        <v>1.9088933934199079</v>
+      </c>
+      <c r="K16" s="27"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="27"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="86"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="31">
+      <c r="C17" s="85"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="30">
         <f>SUM(G4:G15)</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="32" t="s">
+        <v>92107.222222222219</v>
+      </c>
+      <c r="H17" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="I17" s="31" t="e">
+      <c r="I17" s="30">
         <f>MIN(I4:I15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J17" s="31" t="e">
+        <v>6.4801329235773697E-2</v>
+      </c>
+      <c r="J17" s="30">
         <f>ABS(I17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
+        <v>6.4801329235773697E-2</v>
+      </c>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="35">
+      <c r="C20" s="4"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="34">
         <v>12</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="36" t="e">
+      <c r="C21" s="4"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="35">
         <f>I16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+        <v>1.9088933934199079</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="36" t="e">
+      <c r="C22" s="4"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="35">
         <f>I17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+        <v>6.4801329235773697E-2</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="36" t="e">
+      <c r="C23" s="4"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="35">
         <f>I16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+        <v>1.9088933934199079</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="36" t="e">
+      <c r="C24" s="4"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="35">
         <f>I16-I17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+        <v>1.8440920641841343</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
     </row>
     <row r="25" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="36" t="e">
+      <c r="C25" s="4"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="35">
         <f>E23/(E20^0.5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" s="37" t="s">
+        <v>0.551050057272641</v>
+      </c>
+      <c r="F25" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="38">
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="37">
         <f>FORECAST(12,N5:N6,L5:L6)</f>
         <v>1.1559999999999999</v>
       </c>
-      <c r="J25" s="39" t="e">
+      <c r="J25" s="38" t="str">
         <f>IF(E25&lt;I25,"OK!!!","NOT OK")</f>
-        <v>#DIV/0!</v>
+        <v>OK!!!</v>
       </c>
     </row>
     <row r="26" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="36" t="e">
+      <c r="C26" s="4"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="35">
         <f>E24/(E20^0.5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F26" s="37" t="s">
+        <v>0.53234352483358127</v>
+      </c>
+      <c r="F26" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="38">
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="37">
         <f>FORECAST(12,Q5:Q6,L5:L6)</f>
         <v>1.31</v>
       </c>
-      <c r="J26" s="39" t="e">
+      <c r="J26" s="38" t="str">
         <f>IF(E26&lt;I26,"OK!!!","NOT OK")</f>
-        <v>#DIV/0!</v>
+        <v>OK!!!</v>
       </c>
     </row>
   </sheetData>
@@ -3932,926 +4786,926 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F165A54A-0B04-415A-A49A-8563B0C77326}">
   <dimension ref="B2:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="41"/>
-    <col min="2" max="2" width="5" style="41" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="41"/>
-    <col min="4" max="4" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="257" width="9.140625" style="41"/>
-    <col min="258" max="258" width="5" style="41" customWidth="1"/>
-    <col min="259" max="259" width="9.140625" style="41"/>
-    <col min="260" max="260" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="261" max="513" width="9.140625" style="41"/>
-    <col min="514" max="514" width="5" style="41" customWidth="1"/>
-    <col min="515" max="515" width="9.140625" style="41"/>
-    <col min="516" max="516" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="517" max="769" width="9.140625" style="41"/>
-    <col min="770" max="770" width="5" style="41" customWidth="1"/>
-    <col min="771" max="771" width="9.140625" style="41"/>
-    <col min="772" max="772" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="773" max="1025" width="9.140625" style="41"/>
-    <col min="1026" max="1026" width="5" style="41" customWidth="1"/>
-    <col min="1027" max="1027" width="9.140625" style="41"/>
-    <col min="1028" max="1028" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="1029" max="1281" width="9.140625" style="41"/>
-    <col min="1282" max="1282" width="5" style="41" customWidth="1"/>
-    <col min="1283" max="1283" width="9.140625" style="41"/>
-    <col min="1284" max="1284" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="1285" max="1537" width="9.140625" style="41"/>
-    <col min="1538" max="1538" width="5" style="41" customWidth="1"/>
-    <col min="1539" max="1539" width="9.140625" style="41"/>
-    <col min="1540" max="1540" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="1541" max="1793" width="9.140625" style="41"/>
-    <col min="1794" max="1794" width="5" style="41" customWidth="1"/>
-    <col min="1795" max="1795" width="9.140625" style="41"/>
-    <col min="1796" max="1796" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="1797" max="2049" width="9.140625" style="41"/>
-    <col min="2050" max="2050" width="5" style="41" customWidth="1"/>
-    <col min="2051" max="2051" width="9.140625" style="41"/>
-    <col min="2052" max="2052" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="2053" max="2305" width="9.140625" style="41"/>
-    <col min="2306" max="2306" width="5" style="41" customWidth="1"/>
-    <col min="2307" max="2307" width="9.140625" style="41"/>
-    <col min="2308" max="2308" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="2309" max="2561" width="9.140625" style="41"/>
-    <col min="2562" max="2562" width="5" style="41" customWidth="1"/>
-    <col min="2563" max="2563" width="9.140625" style="41"/>
-    <col min="2564" max="2564" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="2565" max="2817" width="9.140625" style="41"/>
-    <col min="2818" max="2818" width="5" style="41" customWidth="1"/>
-    <col min="2819" max="2819" width="9.140625" style="41"/>
-    <col min="2820" max="2820" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="2821" max="3073" width="9.140625" style="41"/>
-    <col min="3074" max="3074" width="5" style="41" customWidth="1"/>
-    <col min="3075" max="3075" width="9.140625" style="41"/>
-    <col min="3076" max="3076" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="3077" max="3329" width="9.140625" style="41"/>
-    <col min="3330" max="3330" width="5" style="41" customWidth="1"/>
-    <col min="3331" max="3331" width="9.140625" style="41"/>
-    <col min="3332" max="3332" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="3333" max="3585" width="9.140625" style="41"/>
-    <col min="3586" max="3586" width="5" style="41" customWidth="1"/>
-    <col min="3587" max="3587" width="9.140625" style="41"/>
-    <col min="3588" max="3588" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="3589" max="3841" width="9.140625" style="41"/>
-    <col min="3842" max="3842" width="5" style="41" customWidth="1"/>
-    <col min="3843" max="3843" width="9.140625" style="41"/>
-    <col min="3844" max="3844" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="3845" max="4097" width="9.140625" style="41"/>
-    <col min="4098" max="4098" width="5" style="41" customWidth="1"/>
-    <col min="4099" max="4099" width="9.140625" style="41"/>
-    <col min="4100" max="4100" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="4101" max="4353" width="9.140625" style="41"/>
-    <col min="4354" max="4354" width="5" style="41" customWidth="1"/>
-    <col min="4355" max="4355" width="9.140625" style="41"/>
-    <col min="4356" max="4356" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="4357" max="4609" width="9.140625" style="41"/>
-    <col min="4610" max="4610" width="5" style="41" customWidth="1"/>
-    <col min="4611" max="4611" width="9.140625" style="41"/>
-    <col min="4612" max="4612" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="4613" max="4865" width="9.140625" style="41"/>
-    <col min="4866" max="4866" width="5" style="41" customWidth="1"/>
-    <col min="4867" max="4867" width="9.140625" style="41"/>
-    <col min="4868" max="4868" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="4869" max="5121" width="9.140625" style="41"/>
-    <col min="5122" max="5122" width="5" style="41" customWidth="1"/>
-    <col min="5123" max="5123" width="9.140625" style="41"/>
-    <col min="5124" max="5124" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="5125" max="5377" width="9.140625" style="41"/>
-    <col min="5378" max="5378" width="5" style="41" customWidth="1"/>
-    <col min="5379" max="5379" width="9.140625" style="41"/>
-    <col min="5380" max="5380" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="5381" max="5633" width="9.140625" style="41"/>
-    <col min="5634" max="5634" width="5" style="41" customWidth="1"/>
-    <col min="5635" max="5635" width="9.140625" style="41"/>
-    <col min="5636" max="5636" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="5637" max="5889" width="9.140625" style="41"/>
-    <col min="5890" max="5890" width="5" style="41" customWidth="1"/>
-    <col min="5891" max="5891" width="9.140625" style="41"/>
-    <col min="5892" max="5892" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="5893" max="6145" width="9.140625" style="41"/>
-    <col min="6146" max="6146" width="5" style="41" customWidth="1"/>
-    <col min="6147" max="6147" width="9.140625" style="41"/>
-    <col min="6148" max="6148" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="6149" max="6401" width="9.140625" style="41"/>
-    <col min="6402" max="6402" width="5" style="41" customWidth="1"/>
-    <col min="6403" max="6403" width="9.140625" style="41"/>
-    <col min="6404" max="6404" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="6405" max="6657" width="9.140625" style="41"/>
-    <col min="6658" max="6658" width="5" style="41" customWidth="1"/>
-    <col min="6659" max="6659" width="9.140625" style="41"/>
-    <col min="6660" max="6660" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="6661" max="6913" width="9.140625" style="41"/>
-    <col min="6914" max="6914" width="5" style="41" customWidth="1"/>
-    <col min="6915" max="6915" width="9.140625" style="41"/>
-    <col min="6916" max="6916" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="6917" max="7169" width="9.140625" style="41"/>
-    <col min="7170" max="7170" width="5" style="41" customWidth="1"/>
-    <col min="7171" max="7171" width="9.140625" style="41"/>
-    <col min="7172" max="7172" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="7173" max="7425" width="9.140625" style="41"/>
-    <col min="7426" max="7426" width="5" style="41" customWidth="1"/>
-    <col min="7427" max="7427" width="9.140625" style="41"/>
-    <col min="7428" max="7428" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="7429" max="7681" width="9.140625" style="41"/>
-    <col min="7682" max="7682" width="5" style="41" customWidth="1"/>
-    <col min="7683" max="7683" width="9.140625" style="41"/>
-    <col min="7684" max="7684" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="7685" max="7937" width="9.140625" style="41"/>
-    <col min="7938" max="7938" width="5" style="41" customWidth="1"/>
-    <col min="7939" max="7939" width="9.140625" style="41"/>
-    <col min="7940" max="7940" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="7941" max="8193" width="9.140625" style="41"/>
-    <col min="8194" max="8194" width="5" style="41" customWidth="1"/>
-    <col min="8195" max="8195" width="9.140625" style="41"/>
-    <col min="8196" max="8196" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="8197" max="8449" width="9.140625" style="41"/>
-    <col min="8450" max="8450" width="5" style="41" customWidth="1"/>
-    <col min="8451" max="8451" width="9.140625" style="41"/>
-    <col min="8452" max="8452" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="8453" max="8705" width="9.140625" style="41"/>
-    <col min="8706" max="8706" width="5" style="41" customWidth="1"/>
-    <col min="8707" max="8707" width="9.140625" style="41"/>
-    <col min="8708" max="8708" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="8709" max="8961" width="9.140625" style="41"/>
-    <col min="8962" max="8962" width="5" style="41" customWidth="1"/>
-    <col min="8963" max="8963" width="9.140625" style="41"/>
-    <col min="8964" max="8964" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="8965" max="9217" width="9.140625" style="41"/>
-    <col min="9218" max="9218" width="5" style="41" customWidth="1"/>
-    <col min="9219" max="9219" width="9.140625" style="41"/>
-    <col min="9220" max="9220" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="9221" max="9473" width="9.140625" style="41"/>
-    <col min="9474" max="9474" width="5" style="41" customWidth="1"/>
-    <col min="9475" max="9475" width="9.140625" style="41"/>
-    <col min="9476" max="9476" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="9477" max="9729" width="9.140625" style="41"/>
-    <col min="9730" max="9730" width="5" style="41" customWidth="1"/>
-    <col min="9731" max="9731" width="9.140625" style="41"/>
-    <col min="9732" max="9732" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="9733" max="9985" width="9.140625" style="41"/>
-    <col min="9986" max="9986" width="5" style="41" customWidth="1"/>
-    <col min="9987" max="9987" width="9.140625" style="41"/>
-    <col min="9988" max="9988" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="9989" max="10241" width="9.140625" style="41"/>
-    <col min="10242" max="10242" width="5" style="41" customWidth="1"/>
-    <col min="10243" max="10243" width="9.140625" style="41"/>
-    <col min="10244" max="10244" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="10245" max="10497" width="9.140625" style="41"/>
-    <col min="10498" max="10498" width="5" style="41" customWidth="1"/>
-    <col min="10499" max="10499" width="9.140625" style="41"/>
-    <col min="10500" max="10500" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="10501" max="10753" width="9.140625" style="41"/>
-    <col min="10754" max="10754" width="5" style="41" customWidth="1"/>
-    <col min="10755" max="10755" width="9.140625" style="41"/>
-    <col min="10756" max="10756" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="10757" max="11009" width="9.140625" style="41"/>
-    <col min="11010" max="11010" width="5" style="41" customWidth="1"/>
-    <col min="11011" max="11011" width="9.140625" style="41"/>
-    <col min="11012" max="11012" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="11013" max="11265" width="9.140625" style="41"/>
-    <col min="11266" max="11266" width="5" style="41" customWidth="1"/>
-    <col min="11267" max="11267" width="9.140625" style="41"/>
-    <col min="11268" max="11268" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="11269" max="11521" width="9.140625" style="41"/>
-    <col min="11522" max="11522" width="5" style="41" customWidth="1"/>
-    <col min="11523" max="11523" width="9.140625" style="41"/>
-    <col min="11524" max="11524" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="11525" max="11777" width="9.140625" style="41"/>
-    <col min="11778" max="11778" width="5" style="41" customWidth="1"/>
-    <col min="11779" max="11779" width="9.140625" style="41"/>
-    <col min="11780" max="11780" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="11781" max="12033" width="9.140625" style="41"/>
-    <col min="12034" max="12034" width="5" style="41" customWidth="1"/>
-    <col min="12035" max="12035" width="9.140625" style="41"/>
-    <col min="12036" max="12036" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="12037" max="12289" width="9.140625" style="41"/>
-    <col min="12290" max="12290" width="5" style="41" customWidth="1"/>
-    <col min="12291" max="12291" width="9.140625" style="41"/>
-    <col min="12292" max="12292" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="12293" max="12545" width="9.140625" style="41"/>
-    <col min="12546" max="12546" width="5" style="41" customWidth="1"/>
-    <col min="12547" max="12547" width="9.140625" style="41"/>
-    <col min="12548" max="12548" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="12549" max="12801" width="9.140625" style="41"/>
-    <col min="12802" max="12802" width="5" style="41" customWidth="1"/>
-    <col min="12803" max="12803" width="9.140625" style="41"/>
-    <col min="12804" max="12804" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="12805" max="13057" width="9.140625" style="41"/>
-    <col min="13058" max="13058" width="5" style="41" customWidth="1"/>
-    <col min="13059" max="13059" width="9.140625" style="41"/>
-    <col min="13060" max="13060" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="13061" max="13313" width="9.140625" style="41"/>
-    <col min="13314" max="13314" width="5" style="41" customWidth="1"/>
-    <col min="13315" max="13315" width="9.140625" style="41"/>
-    <col min="13316" max="13316" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="13317" max="13569" width="9.140625" style="41"/>
-    <col min="13570" max="13570" width="5" style="41" customWidth="1"/>
-    <col min="13571" max="13571" width="9.140625" style="41"/>
-    <col min="13572" max="13572" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="13573" max="13825" width="9.140625" style="41"/>
-    <col min="13826" max="13826" width="5" style="41" customWidth="1"/>
-    <col min="13827" max="13827" width="9.140625" style="41"/>
-    <col min="13828" max="13828" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="13829" max="14081" width="9.140625" style="41"/>
-    <col min="14082" max="14082" width="5" style="41" customWidth="1"/>
-    <col min="14083" max="14083" width="9.140625" style="41"/>
-    <col min="14084" max="14084" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="14085" max="14337" width="9.140625" style="41"/>
-    <col min="14338" max="14338" width="5" style="41" customWidth="1"/>
-    <col min="14339" max="14339" width="9.140625" style="41"/>
-    <col min="14340" max="14340" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="14341" max="14593" width="9.140625" style="41"/>
-    <col min="14594" max="14594" width="5" style="41" customWidth="1"/>
-    <col min="14595" max="14595" width="9.140625" style="41"/>
-    <col min="14596" max="14596" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="14597" max="14849" width="9.140625" style="41"/>
-    <col min="14850" max="14850" width="5" style="41" customWidth="1"/>
-    <col min="14851" max="14851" width="9.140625" style="41"/>
-    <col min="14852" max="14852" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="14853" max="15105" width="9.140625" style="41"/>
-    <col min="15106" max="15106" width="5" style="41" customWidth="1"/>
-    <col min="15107" max="15107" width="9.140625" style="41"/>
-    <col min="15108" max="15108" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="15109" max="15361" width="9.140625" style="41"/>
-    <col min="15362" max="15362" width="5" style="41" customWidth="1"/>
-    <col min="15363" max="15363" width="9.140625" style="41"/>
-    <col min="15364" max="15364" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="15365" max="15617" width="9.140625" style="41"/>
-    <col min="15618" max="15618" width="5" style="41" customWidth="1"/>
-    <col min="15619" max="15619" width="9.140625" style="41"/>
-    <col min="15620" max="15620" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="15621" max="15873" width="9.140625" style="41"/>
-    <col min="15874" max="15874" width="5" style="41" customWidth="1"/>
-    <col min="15875" max="15875" width="9.140625" style="41"/>
-    <col min="15876" max="15876" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="15877" max="16129" width="9.140625" style="41"/>
-    <col min="16130" max="16130" width="5" style="41" customWidth="1"/>
-    <col min="16131" max="16131" width="9.140625" style="41"/>
-    <col min="16132" max="16132" width="11.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="16133" max="16384" width="9.140625" style="41"/>
+    <col min="1" max="1" width="9.140625" style="40"/>
+    <col min="2" max="2" width="5" style="40" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="40"/>
+    <col min="4" max="4" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="257" width="9.140625" style="40"/>
+    <col min="258" max="258" width="5" style="40" customWidth="1"/>
+    <col min="259" max="259" width="9.140625" style="40"/>
+    <col min="260" max="260" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="261" max="513" width="9.140625" style="40"/>
+    <col min="514" max="514" width="5" style="40" customWidth="1"/>
+    <col min="515" max="515" width="9.140625" style="40"/>
+    <col min="516" max="516" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="517" max="769" width="9.140625" style="40"/>
+    <col min="770" max="770" width="5" style="40" customWidth="1"/>
+    <col min="771" max="771" width="9.140625" style="40"/>
+    <col min="772" max="772" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="773" max="1025" width="9.140625" style="40"/>
+    <col min="1026" max="1026" width="5" style="40" customWidth="1"/>
+    <col min="1027" max="1027" width="9.140625" style="40"/>
+    <col min="1028" max="1028" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1281" width="9.140625" style="40"/>
+    <col min="1282" max="1282" width="5" style="40" customWidth="1"/>
+    <col min="1283" max="1283" width="9.140625" style="40"/>
+    <col min="1284" max="1284" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1537" width="9.140625" style="40"/>
+    <col min="1538" max="1538" width="5" style="40" customWidth="1"/>
+    <col min="1539" max="1539" width="9.140625" style="40"/>
+    <col min="1540" max="1540" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1793" width="9.140625" style="40"/>
+    <col min="1794" max="1794" width="5" style="40" customWidth="1"/>
+    <col min="1795" max="1795" width="9.140625" style="40"/>
+    <col min="1796" max="1796" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="1797" max="2049" width="9.140625" style="40"/>
+    <col min="2050" max="2050" width="5" style="40" customWidth="1"/>
+    <col min="2051" max="2051" width="9.140625" style="40"/>
+    <col min="2052" max="2052" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2305" width="9.140625" style="40"/>
+    <col min="2306" max="2306" width="5" style="40" customWidth="1"/>
+    <col min="2307" max="2307" width="9.140625" style="40"/>
+    <col min="2308" max="2308" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2561" width="9.140625" style="40"/>
+    <col min="2562" max="2562" width="5" style="40" customWidth="1"/>
+    <col min="2563" max="2563" width="9.140625" style="40"/>
+    <col min="2564" max="2564" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2817" width="9.140625" style="40"/>
+    <col min="2818" max="2818" width="5" style="40" customWidth="1"/>
+    <col min="2819" max="2819" width="9.140625" style="40"/>
+    <col min="2820" max="2820" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="2821" max="3073" width="9.140625" style="40"/>
+    <col min="3074" max="3074" width="5" style="40" customWidth="1"/>
+    <col min="3075" max="3075" width="9.140625" style="40"/>
+    <col min="3076" max="3076" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3329" width="9.140625" style="40"/>
+    <col min="3330" max="3330" width="5" style="40" customWidth="1"/>
+    <col min="3331" max="3331" width="9.140625" style="40"/>
+    <col min="3332" max="3332" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3585" width="9.140625" style="40"/>
+    <col min="3586" max="3586" width="5" style="40" customWidth="1"/>
+    <col min="3587" max="3587" width="9.140625" style="40"/>
+    <col min="3588" max="3588" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3841" width="9.140625" style="40"/>
+    <col min="3842" max="3842" width="5" style="40" customWidth="1"/>
+    <col min="3843" max="3843" width="9.140625" style="40"/>
+    <col min="3844" max="3844" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="3845" max="4097" width="9.140625" style="40"/>
+    <col min="4098" max="4098" width="5" style="40" customWidth="1"/>
+    <col min="4099" max="4099" width="9.140625" style="40"/>
+    <col min="4100" max="4100" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4353" width="9.140625" style="40"/>
+    <col min="4354" max="4354" width="5" style="40" customWidth="1"/>
+    <col min="4355" max="4355" width="9.140625" style="40"/>
+    <col min="4356" max="4356" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4609" width="9.140625" style="40"/>
+    <col min="4610" max="4610" width="5" style="40" customWidth="1"/>
+    <col min="4611" max="4611" width="9.140625" style="40"/>
+    <col min="4612" max="4612" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4865" width="9.140625" style="40"/>
+    <col min="4866" max="4866" width="5" style="40" customWidth="1"/>
+    <col min="4867" max="4867" width="9.140625" style="40"/>
+    <col min="4868" max="4868" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="4869" max="5121" width="9.140625" style="40"/>
+    <col min="5122" max="5122" width="5" style="40" customWidth="1"/>
+    <col min="5123" max="5123" width="9.140625" style="40"/>
+    <col min="5124" max="5124" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5377" width="9.140625" style="40"/>
+    <col min="5378" max="5378" width="5" style="40" customWidth="1"/>
+    <col min="5379" max="5379" width="9.140625" style="40"/>
+    <col min="5380" max="5380" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5633" width="9.140625" style="40"/>
+    <col min="5634" max="5634" width="5" style="40" customWidth="1"/>
+    <col min="5635" max="5635" width="9.140625" style="40"/>
+    <col min="5636" max="5636" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5889" width="9.140625" style="40"/>
+    <col min="5890" max="5890" width="5" style="40" customWidth="1"/>
+    <col min="5891" max="5891" width="9.140625" style="40"/>
+    <col min="5892" max="5892" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="5893" max="6145" width="9.140625" style="40"/>
+    <col min="6146" max="6146" width="5" style="40" customWidth="1"/>
+    <col min="6147" max="6147" width="9.140625" style="40"/>
+    <col min="6148" max="6148" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6401" width="9.140625" style="40"/>
+    <col min="6402" max="6402" width="5" style="40" customWidth="1"/>
+    <col min="6403" max="6403" width="9.140625" style="40"/>
+    <col min="6404" max="6404" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6657" width="9.140625" style="40"/>
+    <col min="6658" max="6658" width="5" style="40" customWidth="1"/>
+    <col min="6659" max="6659" width="9.140625" style="40"/>
+    <col min="6660" max="6660" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6913" width="9.140625" style="40"/>
+    <col min="6914" max="6914" width="5" style="40" customWidth="1"/>
+    <col min="6915" max="6915" width="9.140625" style="40"/>
+    <col min="6916" max="6916" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="6917" max="7169" width="9.140625" style="40"/>
+    <col min="7170" max="7170" width="5" style="40" customWidth="1"/>
+    <col min="7171" max="7171" width="9.140625" style="40"/>
+    <col min="7172" max="7172" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7425" width="9.140625" style="40"/>
+    <col min="7426" max="7426" width="5" style="40" customWidth="1"/>
+    <col min="7427" max="7427" width="9.140625" style="40"/>
+    <col min="7428" max="7428" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7681" width="9.140625" style="40"/>
+    <col min="7682" max="7682" width="5" style="40" customWidth="1"/>
+    <col min="7683" max="7683" width="9.140625" style="40"/>
+    <col min="7684" max="7684" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7937" width="9.140625" style="40"/>
+    <col min="7938" max="7938" width="5" style="40" customWidth="1"/>
+    <col min="7939" max="7939" width="9.140625" style="40"/>
+    <col min="7940" max="7940" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="7941" max="8193" width="9.140625" style="40"/>
+    <col min="8194" max="8194" width="5" style="40" customWidth="1"/>
+    <col min="8195" max="8195" width="9.140625" style="40"/>
+    <col min="8196" max="8196" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8449" width="9.140625" style="40"/>
+    <col min="8450" max="8450" width="5" style="40" customWidth="1"/>
+    <col min="8451" max="8451" width="9.140625" style="40"/>
+    <col min="8452" max="8452" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8705" width="9.140625" style="40"/>
+    <col min="8706" max="8706" width="5" style="40" customWidth="1"/>
+    <col min="8707" max="8707" width="9.140625" style="40"/>
+    <col min="8708" max="8708" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8961" width="9.140625" style="40"/>
+    <col min="8962" max="8962" width="5" style="40" customWidth="1"/>
+    <col min="8963" max="8963" width="9.140625" style="40"/>
+    <col min="8964" max="8964" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="8965" max="9217" width="9.140625" style="40"/>
+    <col min="9218" max="9218" width="5" style="40" customWidth="1"/>
+    <col min="9219" max="9219" width="9.140625" style="40"/>
+    <col min="9220" max="9220" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9473" width="9.140625" style="40"/>
+    <col min="9474" max="9474" width="5" style="40" customWidth="1"/>
+    <col min="9475" max="9475" width="9.140625" style="40"/>
+    <col min="9476" max="9476" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9729" width="9.140625" style="40"/>
+    <col min="9730" max="9730" width="5" style="40" customWidth="1"/>
+    <col min="9731" max="9731" width="9.140625" style="40"/>
+    <col min="9732" max="9732" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9985" width="9.140625" style="40"/>
+    <col min="9986" max="9986" width="5" style="40" customWidth="1"/>
+    <col min="9987" max="9987" width="9.140625" style="40"/>
+    <col min="9988" max="9988" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="9989" max="10241" width="9.140625" style="40"/>
+    <col min="10242" max="10242" width="5" style="40" customWidth="1"/>
+    <col min="10243" max="10243" width="9.140625" style="40"/>
+    <col min="10244" max="10244" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10497" width="9.140625" style="40"/>
+    <col min="10498" max="10498" width="5" style="40" customWidth="1"/>
+    <col min="10499" max="10499" width="9.140625" style="40"/>
+    <col min="10500" max="10500" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10753" width="9.140625" style="40"/>
+    <col min="10754" max="10754" width="5" style="40" customWidth="1"/>
+    <col min="10755" max="10755" width="9.140625" style="40"/>
+    <col min="10756" max="10756" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="10757" max="11009" width="9.140625" style="40"/>
+    <col min="11010" max="11010" width="5" style="40" customWidth="1"/>
+    <col min="11011" max="11011" width="9.140625" style="40"/>
+    <col min="11012" max="11012" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11265" width="9.140625" style="40"/>
+    <col min="11266" max="11266" width="5" style="40" customWidth="1"/>
+    <col min="11267" max="11267" width="9.140625" style="40"/>
+    <col min="11268" max="11268" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11521" width="9.140625" style="40"/>
+    <col min="11522" max="11522" width="5" style="40" customWidth="1"/>
+    <col min="11523" max="11523" width="9.140625" style="40"/>
+    <col min="11524" max="11524" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11777" width="9.140625" style="40"/>
+    <col min="11778" max="11778" width="5" style="40" customWidth="1"/>
+    <col min="11779" max="11779" width="9.140625" style="40"/>
+    <col min="11780" max="11780" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="11781" max="12033" width="9.140625" style="40"/>
+    <col min="12034" max="12034" width="5" style="40" customWidth="1"/>
+    <col min="12035" max="12035" width="9.140625" style="40"/>
+    <col min="12036" max="12036" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12289" width="9.140625" style="40"/>
+    <col min="12290" max="12290" width="5" style="40" customWidth="1"/>
+    <col min="12291" max="12291" width="9.140625" style="40"/>
+    <col min="12292" max="12292" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12545" width="9.140625" style="40"/>
+    <col min="12546" max="12546" width="5" style="40" customWidth="1"/>
+    <col min="12547" max="12547" width="9.140625" style="40"/>
+    <col min="12548" max="12548" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12801" width="9.140625" style="40"/>
+    <col min="12802" max="12802" width="5" style="40" customWidth="1"/>
+    <col min="12803" max="12803" width="9.140625" style="40"/>
+    <col min="12804" max="12804" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="12805" max="13057" width="9.140625" style="40"/>
+    <col min="13058" max="13058" width="5" style="40" customWidth="1"/>
+    <col min="13059" max="13059" width="9.140625" style="40"/>
+    <col min="13060" max="13060" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13313" width="9.140625" style="40"/>
+    <col min="13314" max="13314" width="5" style="40" customWidth="1"/>
+    <col min="13315" max="13315" width="9.140625" style="40"/>
+    <col min="13316" max="13316" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13569" width="9.140625" style="40"/>
+    <col min="13570" max="13570" width="5" style="40" customWidth="1"/>
+    <col min="13571" max="13571" width="9.140625" style="40"/>
+    <col min="13572" max="13572" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13825" width="9.140625" style="40"/>
+    <col min="13826" max="13826" width="5" style="40" customWidth="1"/>
+    <col min="13827" max="13827" width="9.140625" style="40"/>
+    <col min="13828" max="13828" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="13829" max="14081" width="9.140625" style="40"/>
+    <col min="14082" max="14082" width="5" style="40" customWidth="1"/>
+    <col min="14083" max="14083" width="9.140625" style="40"/>
+    <col min="14084" max="14084" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14337" width="9.140625" style="40"/>
+    <col min="14338" max="14338" width="5" style="40" customWidth="1"/>
+    <col min="14339" max="14339" width="9.140625" style="40"/>
+    <col min="14340" max="14340" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14593" width="9.140625" style="40"/>
+    <col min="14594" max="14594" width="5" style="40" customWidth="1"/>
+    <col min="14595" max="14595" width="9.140625" style="40"/>
+    <col min="14596" max="14596" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14849" width="9.140625" style="40"/>
+    <col min="14850" max="14850" width="5" style="40" customWidth="1"/>
+    <col min="14851" max="14851" width="9.140625" style="40"/>
+    <col min="14852" max="14852" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="14853" max="15105" width="9.140625" style="40"/>
+    <col min="15106" max="15106" width="5" style="40" customWidth="1"/>
+    <col min="15107" max="15107" width="9.140625" style="40"/>
+    <col min="15108" max="15108" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15361" width="9.140625" style="40"/>
+    <col min="15362" max="15362" width="5" style="40" customWidth="1"/>
+    <col min="15363" max="15363" width="9.140625" style="40"/>
+    <col min="15364" max="15364" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15617" width="9.140625" style="40"/>
+    <col min="15618" max="15618" width="5" style="40" customWidth="1"/>
+    <col min="15619" max="15619" width="9.140625" style="40"/>
+    <col min="15620" max="15620" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15873" width="9.140625" style="40"/>
+    <col min="15874" max="15874" width="5" style="40" customWidth="1"/>
+    <col min="15875" max="15875" width="9.140625" style="40"/>
+    <col min="15876" max="15876" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="15877" max="16129" width="9.140625" style="40"/>
+    <col min="16130" max="16130" width="5" style="40" customWidth="1"/>
+    <col min="16131" max="16131" width="9.140625" style="40"/>
+    <col min="16132" max="16132" width="11.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16384" width="9.140625" style="40"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="39" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="97" t="s">
+      <c r="E3" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="97" t="s">
+      <c r="F3" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="99"/>
-      <c r="J3" s="43" t="s">
+      <c r="G3" s="98"/>
+      <c r="J3" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="K3" s="97" t="s">
+      <c r="K3" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="L3" s="44" t="s">
+      <c r="L3" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="M3" s="97" t="s">
+      <c r="M3" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="N3" s="44" t="s">
+      <c r="N3" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="O3" s="97" t="s">
+      <c r="O3" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="P3" s="44" t="s">
+      <c r="P3" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="99" t="s">
+      <c r="Q3" s="98" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="102"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="45" t="s">
+      <c r="B4" s="101"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="100"/>
-      <c r="J4" s="46" t="s">
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="99"/>
+      <c r="J4" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="98"/>
-      <c r="L4" s="45" t="s">
+      <c r="K4" s="97"/>
+      <c r="L4" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="M4" s="98"/>
-      <c r="N4" s="45" t="s">
+      <c r="M4" s="97"/>
+      <c r="N4" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="O4" s="98"/>
-      <c r="P4" s="45" t="s">
+      <c r="O4" s="97"/>
+      <c r="P4" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="Q4" s="100"/>
+      <c r="Q4" s="99"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="47">
+      <c r="B5" s="46">
         <v>1</v>
       </c>
-      <c r="C5" s="48" t="str">
+      <c r="C5" s="47" t="str">
         <f>'[1]Uji Raps'!C4</f>
         <v>Januari</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="48">
         <f>'Uji RAPS'!D4</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="50" t="e">
+        <v>564</v>
+      </c>
+      <c r="E5" s="49">
         <f>LOG(D5)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G5" s="51"/>
-      <c r="J5" s="52">
+        <v>2.7512791039833422</v>
+      </c>
+      <c r="G5" s="50"/>
+      <c r="J5" s="51">
         <v>10</v>
       </c>
-      <c r="K5" s="53">
+      <c r="K5" s="52">
         <v>2.036</v>
       </c>
-      <c r="L5" s="54">
+      <c r="L5" s="53">
         <v>24</v>
       </c>
-      <c r="M5" s="53">
+      <c r="M5" s="52">
         <v>2.4670000000000001</v>
       </c>
-      <c r="N5" s="54">
+      <c r="N5" s="53">
         <v>38</v>
       </c>
-      <c r="O5" s="53">
+      <c r="O5" s="52">
         <v>2.661</v>
       </c>
-      <c r="P5" s="54">
+      <c r="P5" s="53">
         <v>60</v>
       </c>
-      <c r="Q5" s="55">
+      <c r="Q5" s="54">
         <v>2.8370000000000002</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="47">
+      <c r="B6" s="46">
         <v>2</v>
       </c>
-      <c r="C6" s="48" t="str">
+      <c r="C6" s="47" t="str">
         <f>'[1]Uji Raps'!C5</f>
         <v>Februari</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="48">
         <f>'Uji RAPS'!D5</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="49" t="e">
+        <v>888</v>
+      </c>
+      <c r="E6" s="48">
         <f t="shared" ref="E6:E10" si="0">LOG(D6)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F6" s="41" t="s">
+        <v>2.9484129657786009</v>
+      </c>
+      <c r="F6" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="G6" s="56"/>
-      <c r="J6" s="47">
+      <c r="G6" s="55"/>
+      <c r="J6" s="46">
         <v>11</v>
       </c>
-      <c r="K6" s="57">
+      <c r="K6" s="56">
         <v>2.0880000000000001</v>
       </c>
-      <c r="L6" s="58">
+      <c r="L6" s="57">
         <v>25</v>
       </c>
-      <c r="M6" s="59">
+      <c r="M6" s="58">
         <v>2.468</v>
       </c>
-      <c r="N6" s="58">
+      <c r="N6" s="57">
         <v>39</v>
       </c>
-      <c r="O6" s="59">
+      <c r="O6" s="58">
         <v>2.6709999999999998</v>
       </c>
-      <c r="P6" s="58">
+      <c r="P6" s="57">
         <v>65</v>
       </c>
-      <c r="Q6" s="60">
+      <c r="Q6" s="59">
         <v>2.8660000000000001</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="47">
+      <c r="B7" s="46">
         <v>3</v>
       </c>
-      <c r="C7" s="48" t="str">
+      <c r="C7" s="47" t="str">
         <f>'[1]Uji Raps'!C6</f>
         <v>Maret</v>
       </c>
-      <c r="D7" s="61">
+      <c r="D7" s="60">
         <f>'Uji RAPS'!D6</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="49" t="e">
+        <v>527</v>
+      </c>
+      <c r="E7" s="48">
+        <f t="shared" si="0"/>
+        <v>2.7218106152125467</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="62" t="e">
+        <f>10^(E18+(E19*E17))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J7" s="46">
+        <v>12</v>
+      </c>
+      <c r="K7" s="56">
+        <v>2.1339999999999999</v>
+      </c>
+      <c r="L7" s="57">
+        <v>26</v>
+      </c>
+      <c r="M7" s="58">
+        <v>2.5019999999999998</v>
+      </c>
+      <c r="N7" s="57">
+        <v>40</v>
+      </c>
+      <c r="O7" s="58">
+        <v>2.6819999999999999</v>
+      </c>
+      <c r="P7" s="57">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="59">
+        <v>2.8929999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="46">
+        <v>4</v>
+      </c>
+      <c r="C8" s="47" t="str">
+        <f>'[1]Uji Raps'!C7</f>
+        <v>April</v>
+      </c>
+      <c r="D8" s="60">
+        <f>'Uji RAPS'!D7</f>
+        <v>672</v>
+      </c>
+      <c r="E8" s="48">
+        <f t="shared" si="0"/>
+        <v>2.8273692730538253</v>
+      </c>
+      <c r="G8" s="55"/>
+      <c r="J8" s="46">
+        <v>13</v>
+      </c>
+      <c r="K8" s="56">
+        <v>2.1749999999999998</v>
+      </c>
+      <c r="L8" s="57">
+        <v>27</v>
+      </c>
+      <c r="M8" s="58">
+        <v>2.5190000000000001</v>
+      </c>
+      <c r="N8" s="57">
+        <v>41</v>
+      </c>
+      <c r="O8" s="58">
+        <v>2.6920000000000002</v>
+      </c>
+      <c r="P8" s="57">
+        <v>75</v>
+      </c>
+      <c r="Q8" s="59">
+        <v>2.9169999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="46">
+        <v>5</v>
+      </c>
+      <c r="C9" s="47" t="str">
+        <f>'[1]Uji Raps'!C8</f>
+        <v>Mei</v>
+      </c>
+      <c r="D9" s="60">
+        <f>'Uji RAPS'!D8</f>
+        <v>177</v>
+      </c>
+      <c r="E9" s="60">
+        <f t="shared" si="0"/>
+        <v>2.2479732663618068</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="55"/>
+      <c r="J9" s="46">
+        <v>14</v>
+      </c>
+      <c r="K9" s="56">
+        <v>2.2130000000000001</v>
+      </c>
+      <c r="L9" s="57">
+        <v>28</v>
+      </c>
+      <c r="M9" s="58">
+        <v>2.5339999999999998</v>
+      </c>
+      <c r="N9" s="57">
+        <v>42</v>
+      </c>
+      <c r="O9" s="58">
+        <v>2.7</v>
+      </c>
+      <c r="P9" s="57">
+        <v>80</v>
+      </c>
+      <c r="Q9" s="59">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="46">
+        <v>6</v>
+      </c>
+      <c r="C10" s="47" t="str">
+        <f>'[1]Uji Raps'!C9</f>
+        <v>Juni</v>
+      </c>
+      <c r="D10" s="60">
+        <f>'Uji RAPS'!D9</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="60" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
-      <c r="F7" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" s="63" t="e">
-        <f>10^(E18+(E19*E17))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J7" s="47">
-        <v>12</v>
-      </c>
-      <c r="K7" s="57">
-        <v>2.1339999999999999</v>
-      </c>
-      <c r="L7" s="58">
-        <v>26</v>
-      </c>
-      <c r="M7" s="59">
-        <v>2.5019999999999998</v>
-      </c>
-      <c r="N7" s="58">
-        <v>40</v>
-      </c>
-      <c r="O7" s="59">
-        <v>2.6819999999999999</v>
-      </c>
-      <c r="P7" s="58">
-        <v>70</v>
-      </c>
-      <c r="Q7" s="60">
-        <v>2.8929999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="47">
-        <v>4</v>
-      </c>
-      <c r="C8" s="48" t="str">
-        <f>'[1]Uji Raps'!C7</f>
-        <v>April</v>
-      </c>
-      <c r="D8" s="61">
-        <f>'Uji RAPS'!D7</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="49" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G8" s="56"/>
-      <c r="J8" s="47">
-        <v>13</v>
-      </c>
-      <c r="K8" s="57">
-        <v>2.1749999999999998</v>
-      </c>
-      <c r="L8" s="58">
-        <v>27</v>
-      </c>
-      <c r="M8" s="59">
-        <v>2.5190000000000001</v>
-      </c>
-      <c r="N8" s="58">
-        <v>41</v>
-      </c>
-      <c r="O8" s="59">
-        <v>2.6920000000000002</v>
-      </c>
-      <c r="P8" s="58">
-        <v>75</v>
-      </c>
-      <c r="Q8" s="60">
-        <v>2.9169999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="47">
-        <v>5</v>
-      </c>
-      <c r="C9" s="48" t="str">
-        <f>'[1]Uji Raps'!C8</f>
-        <v>Mei</v>
-      </c>
-      <c r="D9" s="61">
-        <f>'Uji RAPS'!D8</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="61" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" s="56"/>
-      <c r="J9" s="47">
-        <v>14</v>
-      </c>
-      <c r="K9" s="57">
-        <v>2.2130000000000001</v>
-      </c>
-      <c r="L9" s="58">
-        <v>28</v>
-      </c>
-      <c r="M9" s="59">
-        <v>2.5339999999999998</v>
-      </c>
-      <c r="N9" s="58">
-        <v>42</v>
-      </c>
-      <c r="O9" s="59">
-        <v>2.7</v>
-      </c>
-      <c r="P9" s="58">
-        <v>80</v>
-      </c>
-      <c r="Q9" s="60">
-        <v>2.94</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="47">
-        <v>6</v>
-      </c>
-      <c r="C10" s="48" t="str">
-        <f>'[1]Uji Raps'!C9</f>
-        <v>Juni</v>
-      </c>
-      <c r="D10" s="61">
-        <f>'Uji RAPS'!D9</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="61" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F10" s="62" t="s">
+      <c r="F10" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="G10" s="63" t="e">
+      <c r="G10" s="62" t="e">
         <f>10^(E18-(E19*E17))</f>
         <v>#NUM!</v>
       </c>
-      <c r="J10" s="47">
+      <c r="J10" s="46">
         <v>15</v>
       </c>
-      <c r="K10" s="57">
+      <c r="K10" s="56">
         <v>2.2469999999999999</v>
       </c>
-      <c r="L10" s="58">
+      <c r="L10" s="57">
         <v>29</v>
       </c>
-      <c r="M10" s="59">
+      <c r="M10" s="58">
         <v>2.5489999999999999</v>
       </c>
-      <c r="N10" s="58">
+      <c r="N10" s="57">
         <v>43</v>
       </c>
-      <c r="O10" s="59">
+      <c r="O10" s="58">
         <v>2.71</v>
       </c>
-      <c r="P10" s="58">
+      <c r="P10" s="57">
         <v>85</v>
       </c>
-      <c r="Q10" s="60">
+      <c r="Q10" s="59">
         <v>2.9609999999999999</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="47">
+      <c r="B11" s="46">
         <v>7</v>
       </c>
-      <c r="C11" s="48" t="str">
+      <c r="C11" s="47" t="str">
         <f>'[1]Uji Raps'!C10</f>
         <v>Juli</v>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="49"/>
-      <c r="G11" s="56"/>
-      <c r="J11" s="47">
+      <c r="D11" s="60"/>
+      <c r="E11" s="48"/>
+      <c r="G11" s="55"/>
+      <c r="J11" s="46">
         <v>16</v>
       </c>
-      <c r="K11" s="57">
+      <c r="K11" s="56">
         <v>2.2789999999999999</v>
       </c>
-      <c r="L11" s="58">
+      <c r="L11" s="57">
         <v>30</v>
       </c>
-      <c r="M11" s="59">
+      <c r="M11" s="58">
         <v>2.5630000000000002</v>
       </c>
-      <c r="N11" s="58">
+      <c r="N11" s="57">
         <v>44</v>
       </c>
-      <c r="O11" s="59">
+      <c r="O11" s="58">
         <v>2.7189999999999999</v>
       </c>
-      <c r="P11" s="58">
+      <c r="P11" s="57">
         <v>90</v>
       </c>
-      <c r="Q11" s="60">
+      <c r="Q11" s="59">
         <v>2.9809999999999999</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="47">
+      <c r="B12" s="46">
         <v>8</v>
       </c>
-      <c r="C12" s="48" t="str">
+      <c r="C12" s="47" t="str">
         <f>'[1]Uji Raps'!C11</f>
         <v>Agustus</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="G12" s="56"/>
-      <c r="J12" s="47">
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="G12" s="55"/>
+      <c r="J12" s="46">
         <v>17</v>
       </c>
-      <c r="K12" s="59">
+      <c r="K12" s="58">
         <v>2.3090000000000002</v>
       </c>
-      <c r="L12" s="58">
+      <c r="L12" s="57">
         <v>31</v>
       </c>
-      <c r="M12" s="59">
+      <c r="M12" s="58">
         <v>2.577</v>
       </c>
-      <c r="N12" s="58">
+      <c r="N12" s="57">
         <v>45</v>
       </c>
-      <c r="O12" s="59">
+      <c r="O12" s="58">
         <v>2.7269999999999999</v>
       </c>
-      <c r="P12" s="58">
+      <c r="P12" s="57">
         <v>95</v>
       </c>
-      <c r="Q12" s="60">
+      <c r="Q12" s="59">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="47">
+      <c r="B13" s="46">
         <v>9</v>
       </c>
-      <c r="C13" s="48" t="str">
+      <c r="C13" s="47" t="str">
         <f>'[1]Uji Raps'!C12</f>
         <v>September</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="G13" s="56"/>
-      <c r="J13" s="47">
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="G13" s="55"/>
+      <c r="J13" s="46">
         <v>18</v>
       </c>
-      <c r="K13" s="59">
+      <c r="K13" s="58">
         <v>2.335</v>
       </c>
-      <c r="L13" s="58">
+      <c r="L13" s="57">
         <v>32</v>
       </c>
-      <c r="M13" s="59">
+      <c r="M13" s="58">
         <v>2.5910000000000002</v>
       </c>
-      <c r="N13" s="58">
+      <c r="N13" s="57">
         <v>46</v>
       </c>
-      <c r="O13" s="59">
+      <c r="O13" s="58">
         <v>2.7360000000000002</v>
       </c>
-      <c r="P13" s="58">
+      <c r="P13" s="57">
         <v>100</v>
       </c>
-      <c r="Q13" s="60">
+      <c r="Q13" s="59">
         <v>3.0169999999999999</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="47">
+      <c r="B14" s="46">
         <v>10</v>
       </c>
-      <c r="C14" s="48" t="str">
+      <c r="C14" s="47" t="str">
         <f>'[1]Uji Raps'!C13</f>
         <v>Oktober</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="G14" s="56"/>
-      <c r="J14" s="47">
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="G14" s="55"/>
+      <c r="J14" s="46">
         <v>19</v>
       </c>
-      <c r="K14" s="59">
+      <c r="K14" s="58">
         <v>2.3610000000000002</v>
       </c>
-      <c r="L14" s="58">
+      <c r="L14" s="57">
         <v>33</v>
       </c>
-      <c r="M14" s="59">
+      <c r="M14" s="58">
         <v>2.6040000000000001</v>
       </c>
-      <c r="N14" s="58">
+      <c r="N14" s="57">
         <v>47</v>
       </c>
-      <c r="O14" s="59">
+      <c r="O14" s="58">
         <v>2.7440000000000002</v>
       </c>
-      <c r="P14" s="58">
+      <c r="P14" s="57">
         <v>110</v>
       </c>
-      <c r="Q14" s="60">
+      <c r="Q14" s="59">
         <v>3.0489999999999999</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="47">
+      <c r="B15" s="46">
         <v>11</v>
       </c>
-      <c r="C15" s="48" t="str">
+      <c r="C15" s="47" t="str">
         <f>'[1]Uji Raps'!C14</f>
         <v>November</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="G15" s="56"/>
-      <c r="J15" s="47">
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="G15" s="55"/>
+      <c r="J15" s="46">
         <v>20</v>
       </c>
-      <c r="K15" s="59">
+      <c r="K15" s="58">
         <v>2.3849999999999998</v>
       </c>
-      <c r="L15" s="58">
+      <c r="L15" s="57">
         <v>34</v>
       </c>
-      <c r="M15" s="59">
+      <c r="M15" s="58">
         <v>2.6160000000000001</v>
       </c>
-      <c r="N15" s="58">
+      <c r="N15" s="57">
         <v>48</v>
       </c>
-      <c r="O15" s="59">
+      <c r="O15" s="58">
         <v>2.7530000000000001</v>
       </c>
-      <c r="P15" s="58">
+      <c r="P15" s="57">
         <v>120</v>
       </c>
-      <c r="Q15" s="60">
+      <c r="Q15" s="59">
         <v>3.0779999999999998</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="47">
+      <c r="B16" s="46">
         <v>12</v>
       </c>
-      <c r="C16" s="48" t="str">
+      <c r="C16" s="47" t="str">
         <f>'[1]Uji Raps'!C15</f>
         <v>Desember</v>
       </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="G16" s="56"/>
-      <c r="J16" s="47">
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="G16" s="55"/>
+      <c r="J16" s="46">
         <v>21</v>
       </c>
-      <c r="K16" s="59">
+      <c r="K16" s="58">
         <v>2.4079999999999999</v>
       </c>
-      <c r="L16" s="58">
+      <c r="L16" s="57">
         <v>35</v>
       </c>
-      <c r="M16" s="59">
+      <c r="M16" s="58">
         <v>2.6280000000000001</v>
       </c>
-      <c r="N16" s="58">
+      <c r="N16" s="57">
         <v>49</v>
       </c>
-      <c r="O16" s="59">
+      <c r="O16" s="58">
         <v>2.76</v>
       </c>
-      <c r="P16" s="58">
+      <c r="P16" s="57">
         <v>130</v>
       </c>
-      <c r="Q16" s="60">
+      <c r="Q16" s="59">
         <v>3.1040000000000001</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="64"/>
-      <c r="C17" s="65" t="s">
+      <c r="B17" s="63"/>
+      <c r="C17" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="66" t="s">
+      <c r="D17" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="67" t="e">
+      <c r="E17" s="66" t="e">
         <f>STDEV(E5:E16)</f>
         <v>#NUM!</v>
       </c>
-      <c r="F17" s="65"/>
-      <c r="G17" s="68"/>
-      <c r="J17" s="47">
+      <c r="F17" s="64"/>
+      <c r="G17" s="67"/>
+      <c r="J17" s="46">
         <v>22</v>
       </c>
-      <c r="K17" s="59">
+      <c r="K17" s="58">
         <v>2.4289999999999998</v>
       </c>
-      <c r="L17" s="58">
+      <c r="L17" s="57">
         <v>36</v>
       </c>
-      <c r="M17" s="59">
+      <c r="M17" s="58">
         <v>2.6389999999999998</v>
       </c>
-      <c r="N17" s="58">
+      <c r="N17" s="57">
         <v>50</v>
       </c>
-      <c r="O17" s="59">
+      <c r="O17" s="58">
         <v>2.7679999999999998</v>
       </c>
-      <c r="P17" s="58">
+      <c r="P17" s="57">
         <v>140</v>
       </c>
-      <c r="Q17" s="60">
+      <c r="Q17" s="59">
         <v>3.129</v>
       </c>
     </row>
     <row r="18" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="69"/>
-      <c r="C18" s="41" t="s">
+      <c r="B18" s="68"/>
+      <c r="C18" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="70" t="s">
+      <c r="D18" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="E18" s="71" t="e">
+      <c r="E18" s="70" t="e">
         <f>AVERAGE(E5:E16)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G18" s="56"/>
-      <c r="J18" s="72">
+      <c r="G18" s="55"/>
+      <c r="J18" s="71">
         <v>23</v>
       </c>
-      <c r="K18" s="73">
+      <c r="K18" s="72">
         <v>2.448</v>
       </c>
-      <c r="L18" s="74">
+      <c r="L18" s="73">
         <v>37</v>
       </c>
-      <c r="M18" s="73">
+      <c r="M18" s="72">
         <v>2.65</v>
       </c>
-      <c r="N18" s="74">
+      <c r="N18" s="73">
         <v>55</v>
       </c>
-      <c r="O18" s="73">
+      <c r="O18" s="72">
         <v>2.8039999999999998</v>
       </c>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="75"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="74"/>
     </row>
     <row r="19" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="76"/>
-      <c r="C19" s="77" t="s">
+      <c r="B19" s="75"/>
+      <c r="C19" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="78" t="s">
+      <c r="D19" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="79">
+      <c r="E19" s="78">
         <f>K7</f>
         <v>2.1339999999999999</v>
       </c>
-      <c r="F19" s="77"/>
-      <c r="G19" s="80"/>
-      <c r="J19" s="81" t="s">
+      <c r="F19" s="76"/>
+      <c r="G19" s="79"/>
+      <c r="J19" s="80" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="40" t="s">
         <v>91</v>
       </c>
     </row>

--- a/Data Source.xlsx
+++ b/Data Source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\olah_data_hidrologi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF6DDD0-9EC7-48A9-B863-C92C1B77EC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139D0080-E91A-4346-AA7C-C28BD04245EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{8D55CE16-5948-44A0-B88B-ED623A383CF9}"/>
+    <workbookView xWindow="6285" yWindow="3360" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{8D55CE16-5948-44A0-B88B-ED623A383CF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -1126,15 +1126,21 @@
     <xf numFmtId="2" fontId="18" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1187,12 +1193,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1639,7 +1639,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="83"/>
@@ -1656,7 +1656,7 @@
       <c r="M1" s="83"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="85" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="83"/>
@@ -1688,131 +1688,131 @@
       <c r="M3" s="83"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="84" t="s">
+      <c r="B4" s="84"/>
+      <c r="C4" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81" t="s">
+      <c r="B5" s="84"/>
+      <c r="C5" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="81"/>
+      <c r="D5" s="84"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="81" t="s">
+      <c r="F5" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81" t="s">
+      <c r="G5" s="84"/>
+      <c r="H5" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81" t="s">
+      <c r="I5" s="84"/>
+      <c r="J5" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81" t="s">
+      <c r="K5" s="84"/>
+      <c r="L5" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="81"/>
+      <c r="M5" s="84"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81" t="s">
+      <c r="B6" s="84"/>
+      <c r="C6" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="81"/>
+      <c r="D6" s="84"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="81" t="s">
+      <c r="F6" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81" t="s">
+      <c r="G6" s="84"/>
+      <c r="H6" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81" t="s">
+      <c r="I6" s="84"/>
+      <c r="J6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81" t="s">
+      <c r="K6" s="84"/>
+      <c r="L6" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="81"/>
+      <c r="M6" s="84"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81" t="s">
+      <c r="B7" s="84"/>
+      <c r="C7" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="81"/>
+      <c r="D7" s="84"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="81" t="s">
+      <c r="F7" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81" t="s">
+      <c r="G7" s="84"/>
+      <c r="H7" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81" t="s">
+      <c r="I7" s="84"/>
+      <c r="J7" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81" t="s">
+      <c r="K7" s="84"/>
+      <c r="L7" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="81"/>
+      <c r="M7" s="84"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81" t="s">
+      <c r="B8" s="84"/>
+      <c r="C8" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="81"/>
+      <c r="D8" s="84"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="81" t="s">
+      <c r="F8" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81" t="s">
+      <c r="G8" s="84"/>
+      <c r="H8" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81" t="s">
+      <c r="I8" s="84"/>
+      <c r="J8" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81" t="s">
+      <c r="K8" s="84"/>
+      <c r="L8" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="M8" s="81"/>
+      <c r="M8" s="84"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="83"/>
@@ -1891,40 +1891,40 @@
       <c r="A12" s="1">
         <v>1</v>
       </c>
-      <c r="B12" s="102">
+      <c r="B12" s="81">
         <v>31</v>
       </c>
-      <c r="C12" s="102">
+      <c r="C12" s="81">
         <v>9</v>
       </c>
-      <c r="D12" s="102">
+      <c r="D12" s="81">
         <v>26</v>
       </c>
-      <c r="E12" s="102">
+      <c r="E12" s="81">
         <v>67</v>
       </c>
-      <c r="F12" s="102">
+      <c r="F12" s="81">
         <v>31</v>
       </c>
-      <c r="G12" s="102">
-        <v>0</v>
-      </c>
-      <c r="H12" s="102">
-        <v>0</v>
-      </c>
-      <c r="I12" s="102">
-        <v>0</v>
-      </c>
-      <c r="J12" s="102">
-        <v>0</v>
-      </c>
-      <c r="K12" s="102">
-        <v>0</v>
-      </c>
-      <c r="L12" s="102">
-        <v>0</v>
-      </c>
-      <c r="M12" s="102">
+      <c r="G12" s="81">
+        <v>0</v>
+      </c>
+      <c r="H12" s="81">
+        <v>0</v>
+      </c>
+      <c r="I12" s="81">
+        <v>0</v>
+      </c>
+      <c r="J12" s="81">
+        <v>0</v>
+      </c>
+      <c r="K12" s="81">
+        <v>0</v>
+      </c>
+      <c r="L12" s="81">
+        <v>0</v>
+      </c>
+      <c r="M12" s="81">
         <v>0</v>
       </c>
     </row>
@@ -1932,40 +1932,40 @@
       <c r="A13" s="1">
         <v>2</v>
       </c>
-      <c r="B13" s="102">
+      <c r="B13" s="81">
         <v>16</v>
       </c>
-      <c r="C13" s="102">
+      <c r="C13" s="81">
         <v>5</v>
       </c>
-      <c r="D13" s="102">
+      <c r="D13" s="81">
         <v>32</v>
       </c>
-      <c r="E13" s="102">
+      <c r="E13" s="81">
         <v>7</v>
       </c>
-      <c r="F13" s="102">
-        <v>0</v>
-      </c>
-      <c r="G13" s="102">
-        <v>0</v>
-      </c>
-      <c r="H13" s="102">
-        <v>0</v>
-      </c>
-      <c r="I13" s="102">
-        <v>0</v>
-      </c>
-      <c r="J13" s="102">
-        <v>0</v>
-      </c>
-      <c r="K13" s="102">
-        <v>0</v>
-      </c>
-      <c r="L13" s="102">
-        <v>0</v>
-      </c>
-      <c r="M13" s="102">
+      <c r="F13" s="81">
+        <v>0</v>
+      </c>
+      <c r="G13" s="81">
+        <v>0</v>
+      </c>
+      <c r="H13" s="81">
+        <v>0</v>
+      </c>
+      <c r="I13" s="81">
+        <v>0</v>
+      </c>
+      <c r="J13" s="81">
+        <v>0</v>
+      </c>
+      <c r="K13" s="81">
+        <v>0</v>
+      </c>
+      <c r="L13" s="81">
+        <v>0</v>
+      </c>
+      <c r="M13" s="81">
         <v>67</v>
       </c>
     </row>
@@ -1973,40 +1973,40 @@
       <c r="A14" s="1">
         <v>3</v>
       </c>
-      <c r="B14" s="102">
-        <v>0</v>
-      </c>
-      <c r="C14" s="102">
+      <c r="B14" s="81">
+        <v>0</v>
+      </c>
+      <c r="C14" s="81">
         <v>68</v>
       </c>
-      <c r="D14" s="102">
+      <c r="D14" s="81">
         <v>16</v>
       </c>
-      <c r="E14" s="102">
+      <c r="E14" s="81">
         <v>47</v>
       </c>
-      <c r="F14" s="102">
+      <c r="F14" s="81">
         <v>64</v>
       </c>
-      <c r="G14" s="102">
-        <v>0</v>
-      </c>
-      <c r="H14" s="102">
+      <c r="G14" s="81">
+        <v>0</v>
+      </c>
+      <c r="H14" s="81">
         <v>23</v>
       </c>
-      <c r="I14" s="102">
-        <v>0</v>
-      </c>
-      <c r="J14" s="102">
-        <v>0</v>
-      </c>
-      <c r="K14" s="102">
-        <v>0</v>
-      </c>
-      <c r="L14" s="102">
-        <v>0</v>
-      </c>
-      <c r="M14" s="102">
+      <c r="I14" s="81">
+        <v>0</v>
+      </c>
+      <c r="J14" s="81">
+        <v>0</v>
+      </c>
+      <c r="K14" s="81">
+        <v>0</v>
+      </c>
+      <c r="L14" s="81">
+        <v>0</v>
+      </c>
+      <c r="M14" s="81">
         <v>0</v>
       </c>
     </row>
@@ -2014,40 +2014,40 @@
       <c r="A15" s="1">
         <v>4</v>
       </c>
-      <c r="B15" s="102">
-        <v>0</v>
-      </c>
-      <c r="C15" s="102">
+      <c r="B15" s="81">
+        <v>0</v>
+      </c>
+      <c r="C15" s="81">
         <v>7</v>
       </c>
-      <c r="D15" s="102">
-        <v>0</v>
-      </c>
-      <c r="E15" s="102">
-        <v>0</v>
-      </c>
-      <c r="F15" s="102">
+      <c r="D15" s="81">
+        <v>0</v>
+      </c>
+      <c r="E15" s="81">
+        <v>0</v>
+      </c>
+      <c r="F15" s="81">
         <v>59</v>
       </c>
-      <c r="G15" s="102">
-        <v>0</v>
-      </c>
-      <c r="H15" s="102">
-        <v>0</v>
-      </c>
-      <c r="I15" s="102">
-        <v>0</v>
-      </c>
-      <c r="J15" s="102">
-        <v>0</v>
-      </c>
-      <c r="K15" s="102">
-        <v>0</v>
-      </c>
-      <c r="L15" s="102">
-        <v>0</v>
-      </c>
-      <c r="M15" s="102">
+      <c r="G15" s="81">
+        <v>0</v>
+      </c>
+      <c r="H15" s="81">
+        <v>0</v>
+      </c>
+      <c r="I15" s="81">
+        <v>0</v>
+      </c>
+      <c r="J15" s="81">
+        <v>0</v>
+      </c>
+      <c r="K15" s="81">
+        <v>0</v>
+      </c>
+      <c r="L15" s="81">
+        <v>0</v>
+      </c>
+      <c r="M15" s="81">
         <v>18</v>
       </c>
     </row>
@@ -2055,40 +2055,40 @@
       <c r="A16" s="1">
         <v>5</v>
       </c>
-      <c r="B16" s="102">
+      <c r="B16" s="81">
         <v>14</v>
       </c>
-      <c r="C16" s="102">
-        <v>0</v>
-      </c>
-      <c r="D16" s="102">
+      <c r="C16" s="81">
+        <v>0</v>
+      </c>
+      <c r="D16" s="81">
         <v>15</v>
       </c>
-      <c r="E16" s="102">
-        <v>0</v>
-      </c>
-      <c r="F16" s="102">
-        <v>0</v>
-      </c>
-      <c r="G16" s="102">
-        <v>0</v>
-      </c>
-      <c r="H16" s="102">
+      <c r="E16" s="81">
+        <v>0</v>
+      </c>
+      <c r="F16" s="81">
+        <v>0</v>
+      </c>
+      <c r="G16" s="81">
+        <v>0</v>
+      </c>
+      <c r="H16" s="81">
         <v>13</v>
       </c>
-      <c r="I16" s="102">
-        <v>0</v>
-      </c>
-      <c r="J16" s="102">
-        <v>0</v>
-      </c>
-      <c r="K16" s="102">
-        <v>0</v>
-      </c>
-      <c r="L16" s="102">
+      <c r="I16" s="81">
+        <v>0</v>
+      </c>
+      <c r="J16" s="81">
+        <v>0</v>
+      </c>
+      <c r="K16" s="81">
+        <v>0</v>
+      </c>
+      <c r="L16" s="81">
         <v>23</v>
       </c>
-      <c r="M16" s="102">
+      <c r="M16" s="81">
         <v>54</v>
       </c>
     </row>
@@ -2096,40 +2096,40 @@
       <c r="A17" s="1">
         <v>6</v>
       </c>
-      <c r="B17" s="102">
-        <v>0</v>
-      </c>
-      <c r="C17" s="102">
-        <v>0</v>
-      </c>
-      <c r="D17" s="102">
+      <c r="B17" s="81">
+        <v>0</v>
+      </c>
+      <c r="C17" s="81">
+        <v>0</v>
+      </c>
+      <c r="D17" s="81">
         <v>81</v>
       </c>
-      <c r="E17" s="102">
-        <v>0</v>
-      </c>
-      <c r="F17" s="102">
-        <v>0</v>
-      </c>
-      <c r="G17" s="102">
-        <v>0</v>
-      </c>
-      <c r="H17" s="102">
-        <v>0</v>
-      </c>
-      <c r="I17" s="102">
-        <v>0</v>
-      </c>
-      <c r="J17" s="102">
-        <v>0</v>
-      </c>
-      <c r="K17" s="102">
-        <v>0</v>
-      </c>
-      <c r="L17" s="102">
-        <v>0</v>
-      </c>
-      <c r="M17" s="102">
+      <c r="E17" s="81">
+        <v>0</v>
+      </c>
+      <c r="F17" s="81">
+        <v>0</v>
+      </c>
+      <c r="G17" s="81">
+        <v>0</v>
+      </c>
+      <c r="H17" s="81">
+        <v>0</v>
+      </c>
+      <c r="I17" s="81">
+        <v>0</v>
+      </c>
+      <c r="J17" s="81">
+        <v>0</v>
+      </c>
+      <c r="K17" s="81">
+        <v>0</v>
+      </c>
+      <c r="L17" s="81">
+        <v>0</v>
+      </c>
+      <c r="M17" s="81">
         <v>0</v>
       </c>
     </row>
@@ -2137,40 +2137,40 @@
       <c r="A18" s="1">
         <v>7</v>
       </c>
-      <c r="B18" s="102">
-        <v>0</v>
-      </c>
-      <c r="C18" s="102">
+      <c r="B18" s="81">
+        <v>0</v>
+      </c>
+      <c r="C18" s="81">
         <v>15</v>
       </c>
-      <c r="D18" s="102">
-        <v>0</v>
-      </c>
-      <c r="E18" s="102">
-        <v>0</v>
-      </c>
-      <c r="F18" s="102">
-        <v>0</v>
-      </c>
-      <c r="G18" s="102">
-        <v>0</v>
-      </c>
-      <c r="H18" s="102">
-        <v>0</v>
-      </c>
-      <c r="I18" s="102">
-        <v>0</v>
-      </c>
-      <c r="J18" s="102">
-        <v>0</v>
-      </c>
-      <c r="K18" s="102">
-        <v>0</v>
-      </c>
-      <c r="L18" s="102">
-        <v>0</v>
-      </c>
-      <c r="M18" s="102">
+      <c r="D18" s="81">
+        <v>0</v>
+      </c>
+      <c r="E18" s="81">
+        <v>0</v>
+      </c>
+      <c r="F18" s="81">
+        <v>0</v>
+      </c>
+      <c r="G18" s="81">
+        <v>0</v>
+      </c>
+      <c r="H18" s="81">
+        <v>0</v>
+      </c>
+      <c r="I18" s="81">
+        <v>0</v>
+      </c>
+      <c r="J18" s="81">
+        <v>0</v>
+      </c>
+      <c r="K18" s="81">
+        <v>0</v>
+      </c>
+      <c r="L18" s="81">
+        <v>0</v>
+      </c>
+      <c r="M18" s="81">
         <v>26</v>
       </c>
     </row>
@@ -2178,40 +2178,40 @@
       <c r="A19" s="1">
         <v>8</v>
       </c>
-      <c r="B19" s="102">
-        <v>0</v>
-      </c>
-      <c r="C19" s="102">
+      <c r="B19" s="81">
+        <v>0</v>
+      </c>
+      <c r="C19" s="81">
         <v>72</v>
       </c>
-      <c r="D19" s="102">
-        <v>0</v>
-      </c>
-      <c r="E19" s="102">
-        <v>0</v>
-      </c>
-      <c r="F19" s="102">
+      <c r="D19" s="81">
+        <v>0</v>
+      </c>
+      <c r="E19" s="81">
+        <v>0</v>
+      </c>
+      <c r="F19" s="81">
         <v>16</v>
       </c>
-      <c r="G19" s="102">
-        <v>0</v>
-      </c>
-      <c r="H19" s="102">
+      <c r="G19" s="81">
+        <v>0</v>
+      </c>
+      <c r="H19" s="81">
         <v>7</v>
       </c>
-      <c r="I19" s="102">
-        <v>0</v>
-      </c>
-      <c r="J19" s="102">
-        <v>0</v>
-      </c>
-      <c r="K19" s="102">
-        <v>0</v>
-      </c>
-      <c r="L19" s="102">
-        <v>0</v>
-      </c>
-      <c r="M19" s="102">
+      <c r="I19" s="81">
+        <v>0</v>
+      </c>
+      <c r="J19" s="81">
+        <v>0</v>
+      </c>
+      <c r="K19" s="81">
+        <v>0</v>
+      </c>
+      <c r="L19" s="81">
+        <v>0</v>
+      </c>
+      <c r="M19" s="81">
         <v>51</v>
       </c>
     </row>
@@ -2219,40 +2219,40 @@
       <c r="A20" s="1">
         <v>9</v>
       </c>
-      <c r="B20" s="102">
+      <c r="B20" s="81">
         <v>37</v>
       </c>
-      <c r="C20" s="102">
+      <c r="C20" s="81">
         <v>19</v>
       </c>
-      <c r="D20" s="102">
+      <c r="D20" s="81">
         <v>12</v>
       </c>
-      <c r="E20" s="102">
+      <c r="E20" s="81">
         <v>38</v>
       </c>
-      <c r="F20" s="102">
-        <v>0</v>
-      </c>
-      <c r="G20" s="102">
-        <v>0</v>
-      </c>
-      <c r="H20" s="102">
-        <v>0</v>
-      </c>
-      <c r="I20" s="102">
-        <v>0</v>
-      </c>
-      <c r="J20" s="102">
-        <v>0</v>
-      </c>
-      <c r="K20" s="102">
-        <v>0</v>
-      </c>
-      <c r="L20" s="102">
-        <v>0</v>
-      </c>
-      <c r="M20" s="102">
+      <c r="F20" s="81">
+        <v>0</v>
+      </c>
+      <c r="G20" s="81">
+        <v>0</v>
+      </c>
+      <c r="H20" s="81">
+        <v>0</v>
+      </c>
+      <c r="I20" s="81">
+        <v>0</v>
+      </c>
+      <c r="J20" s="81">
+        <v>0</v>
+      </c>
+      <c r="K20" s="81">
+        <v>0</v>
+      </c>
+      <c r="L20" s="81">
+        <v>0</v>
+      </c>
+      <c r="M20" s="81">
         <v>0</v>
       </c>
     </row>
@@ -2260,40 +2260,40 @@
       <c r="A21" s="1">
         <v>10</v>
       </c>
-      <c r="B21" s="102">
+      <c r="B21" s="81">
         <v>23</v>
       </c>
-      <c r="C21" s="102">
+      <c r="C21" s="81">
         <v>43</v>
       </c>
-      <c r="D21" s="102">
+      <c r="D21" s="81">
         <v>47</v>
       </c>
-      <c r="E21" s="102">
+      <c r="E21" s="81">
         <v>49</v>
       </c>
-      <c r="F21" s="102">
+      <c r="F21" s="81">
         <v>7</v>
       </c>
-      <c r="G21" s="102">
-        <v>0</v>
-      </c>
-      <c r="H21" s="102">
-        <v>0</v>
-      </c>
-      <c r="I21" s="102">
-        <v>0</v>
-      </c>
-      <c r="J21" s="102">
-        <v>0</v>
-      </c>
-      <c r="K21" s="102">
-        <v>0</v>
-      </c>
-      <c r="L21" s="102">
+      <c r="G21" s="81">
+        <v>0</v>
+      </c>
+      <c r="H21" s="81">
+        <v>0</v>
+      </c>
+      <c r="I21" s="81">
+        <v>0</v>
+      </c>
+      <c r="J21" s="81">
+        <v>0</v>
+      </c>
+      <c r="K21" s="81">
+        <v>0</v>
+      </c>
+      <c r="L21" s="81">
         <v>5</v>
       </c>
-      <c r="M21" s="102">
+      <c r="M21" s="81">
         <v>34</v>
       </c>
     </row>
@@ -2301,40 +2301,40 @@
       <c r="A22" s="1">
         <v>11</v>
       </c>
-      <c r="B22" s="102">
-        <v>0</v>
-      </c>
-      <c r="C22" s="102">
+      <c r="B22" s="81">
+        <v>0</v>
+      </c>
+      <c r="C22" s="81">
         <v>46</v>
       </c>
-      <c r="D22" s="102">
-        <v>0</v>
-      </c>
-      <c r="E22" s="102">
+      <c r="D22" s="81">
+        <v>0</v>
+      </c>
+      <c r="E22" s="81">
         <v>24</v>
       </c>
-      <c r="F22" s="102">
-        <v>0</v>
-      </c>
-      <c r="G22" s="102">
-        <v>0</v>
-      </c>
-      <c r="H22" s="102">
-        <v>0</v>
-      </c>
-      <c r="I22" s="102">
-        <v>0</v>
-      </c>
-      <c r="J22" s="102">
-        <v>0</v>
-      </c>
-      <c r="K22" s="102">
-        <v>0</v>
-      </c>
-      <c r="L22" s="102">
+      <c r="F22" s="81">
+        <v>0</v>
+      </c>
+      <c r="G22" s="81">
+        <v>0</v>
+      </c>
+      <c r="H22" s="81">
+        <v>0</v>
+      </c>
+      <c r="I22" s="81">
+        <v>0</v>
+      </c>
+      <c r="J22" s="81">
+        <v>0</v>
+      </c>
+      <c r="K22" s="81">
+        <v>0</v>
+      </c>
+      <c r="L22" s="81">
         <v>9</v>
       </c>
-      <c r="M22" s="102">
+      <c r="M22" s="81">
         <v>9</v>
       </c>
     </row>
@@ -2342,40 +2342,40 @@
       <c r="A23" s="1">
         <v>12</v>
       </c>
-      <c r="B23" s="102">
-        <v>0</v>
-      </c>
-      <c r="C23" s="102">
+      <c r="B23" s="81">
+        <v>0</v>
+      </c>
+      <c r="C23" s="81">
         <v>31</v>
       </c>
-      <c r="D23" s="102">
+      <c r="D23" s="81">
         <v>32</v>
       </c>
-      <c r="E23" s="102">
+      <c r="E23" s="81">
         <v>29</v>
       </c>
-      <c r="F23" s="102">
-        <v>0</v>
-      </c>
-      <c r="G23" s="102">
-        <v>0</v>
-      </c>
-      <c r="H23" s="102">
-        <v>0</v>
-      </c>
-      <c r="I23" s="102">
-        <v>0</v>
-      </c>
-      <c r="J23" s="102">
-        <v>0</v>
-      </c>
-      <c r="K23" s="102">
-        <v>0</v>
-      </c>
-      <c r="L23" s="102">
-        <v>0</v>
-      </c>
-      <c r="M23" s="102">
+      <c r="F23" s="81">
+        <v>0</v>
+      </c>
+      <c r="G23" s="81">
+        <v>0</v>
+      </c>
+      <c r="H23" s="81">
+        <v>0</v>
+      </c>
+      <c r="I23" s="81">
+        <v>0</v>
+      </c>
+      <c r="J23" s="81">
+        <v>0</v>
+      </c>
+      <c r="K23" s="81">
+        <v>0</v>
+      </c>
+      <c r="L23" s="81">
+        <v>0</v>
+      </c>
+      <c r="M23" s="81">
         <v>26</v>
       </c>
     </row>
@@ -2383,40 +2383,40 @@
       <c r="A24" s="1">
         <v>13</v>
       </c>
-      <c r="B24" s="102">
-        <v>0</v>
-      </c>
-      <c r="C24" s="102">
+      <c r="B24" s="81">
+        <v>0</v>
+      </c>
+      <c r="C24" s="81">
         <v>47</v>
       </c>
-      <c r="D24" s="102">
-        <v>0</v>
-      </c>
-      <c r="E24" s="102">
+      <c r="D24" s="81">
+        <v>0</v>
+      </c>
+      <c r="E24" s="81">
         <v>84</v>
       </c>
-      <c r="F24" s="102">
-        <v>0</v>
-      </c>
-      <c r="G24" s="102">
-        <v>0</v>
-      </c>
-      <c r="H24" s="102">
-        <v>0</v>
-      </c>
-      <c r="I24" s="102">
-        <v>0</v>
-      </c>
-      <c r="J24" s="102">
-        <v>0</v>
-      </c>
-      <c r="K24" s="102">
-        <v>0</v>
-      </c>
-      <c r="L24" s="102">
-        <v>0</v>
-      </c>
-      <c r="M24" s="102">
+      <c r="F24" s="81">
+        <v>0</v>
+      </c>
+      <c r="G24" s="81">
+        <v>0</v>
+      </c>
+      <c r="H24" s="81">
+        <v>0</v>
+      </c>
+      <c r="I24" s="81">
+        <v>0</v>
+      </c>
+      <c r="J24" s="81">
+        <v>0</v>
+      </c>
+      <c r="K24" s="81">
+        <v>0</v>
+      </c>
+      <c r="L24" s="81">
+        <v>0</v>
+      </c>
+      <c r="M24" s="81">
         <v>0</v>
       </c>
     </row>
@@ -2424,40 +2424,40 @@
       <c r="A25" s="1">
         <v>14</v>
       </c>
-      <c r="B25" s="102">
+      <c r="B25" s="81">
         <v>23</v>
       </c>
-      <c r="C25" s="102">
+      <c r="C25" s="81">
         <v>42</v>
       </c>
-      <c r="D25" s="102">
-        <v>0</v>
-      </c>
-      <c r="E25" s="102">
+      <c r="D25" s="81">
+        <v>0</v>
+      </c>
+      <c r="E25" s="81">
         <v>12</v>
       </c>
-      <c r="F25" s="102">
-        <v>0</v>
-      </c>
-      <c r="G25" s="102">
-        <v>0</v>
-      </c>
-      <c r="H25" s="102">
-        <v>0</v>
-      </c>
-      <c r="I25" s="102">
-        <v>0</v>
-      </c>
-      <c r="J25" s="102">
-        <v>0</v>
-      </c>
-      <c r="K25" s="102">
-        <v>0</v>
-      </c>
-      <c r="L25" s="102">
-        <v>0</v>
-      </c>
-      <c r="M25" s="102">
+      <c r="F25" s="81">
+        <v>0</v>
+      </c>
+      <c r="G25" s="81">
+        <v>0</v>
+      </c>
+      <c r="H25" s="81">
+        <v>0</v>
+      </c>
+      <c r="I25" s="81">
+        <v>0</v>
+      </c>
+      <c r="J25" s="81">
+        <v>0</v>
+      </c>
+      <c r="K25" s="81">
+        <v>0</v>
+      </c>
+      <c r="L25" s="81">
+        <v>0</v>
+      </c>
+      <c r="M25" s="81">
         <v>0</v>
       </c>
     </row>
@@ -2465,40 +2465,40 @@
       <c r="A26" s="1">
         <v>15</v>
       </c>
-      <c r="B26" s="102">
-        <v>0</v>
-      </c>
-      <c r="C26" s="102">
+      <c r="B26" s="81">
+        <v>0</v>
+      </c>
+      <c r="C26" s="81">
         <v>52</v>
       </c>
-      <c r="D26" s="102">
+      <c r="D26" s="81">
         <v>61</v>
       </c>
-      <c r="E26" s="102">
+      <c r="E26" s="81">
         <v>54</v>
       </c>
-      <c r="F26" s="102">
-        <v>0</v>
-      </c>
-      <c r="G26" s="102">
-        <v>0</v>
-      </c>
-      <c r="H26" s="102">
-        <v>0</v>
-      </c>
-      <c r="I26" s="102">
-        <v>0</v>
-      </c>
-      <c r="J26" s="102">
-        <v>0</v>
-      </c>
-      <c r="K26" s="102">
-        <v>0</v>
-      </c>
-      <c r="L26" s="102">
-        <v>0</v>
-      </c>
-      <c r="M26" s="102">
+      <c r="F26" s="81">
+        <v>0</v>
+      </c>
+      <c r="G26" s="81">
+        <v>0</v>
+      </c>
+      <c r="H26" s="81">
+        <v>0</v>
+      </c>
+      <c r="I26" s="81">
+        <v>0</v>
+      </c>
+      <c r="J26" s="81">
+        <v>0</v>
+      </c>
+      <c r="K26" s="81">
+        <v>0</v>
+      </c>
+      <c r="L26" s="81">
+        <v>0</v>
+      </c>
+      <c r="M26" s="81">
         <v>32</v>
       </c>
     </row>
@@ -2506,40 +2506,40 @@
       <c r="A27" s="1">
         <v>16</v>
       </c>
-      <c r="B27" s="102">
+      <c r="B27" s="81">
         <v>36</v>
       </c>
-      <c r="C27" s="102">
+      <c r="C27" s="81">
         <v>9</v>
       </c>
-      <c r="D27" s="102">
+      <c r="D27" s="81">
         <v>7</v>
       </c>
-      <c r="E27" s="102">
-        <v>0</v>
-      </c>
-      <c r="F27" s="102">
-        <v>0</v>
-      </c>
-      <c r="G27" s="102">
-        <v>0</v>
-      </c>
-      <c r="H27" s="102">
-        <v>0</v>
-      </c>
-      <c r="I27" s="102">
-        <v>0</v>
-      </c>
-      <c r="J27" s="102">
-        <v>0</v>
-      </c>
-      <c r="K27" s="102">
-        <v>0</v>
-      </c>
-      <c r="L27" s="102">
+      <c r="E27" s="81">
+        <v>0</v>
+      </c>
+      <c r="F27" s="81">
+        <v>0</v>
+      </c>
+      <c r="G27" s="81">
+        <v>0</v>
+      </c>
+      <c r="H27" s="81">
+        <v>0</v>
+      </c>
+      <c r="I27" s="81">
+        <v>0</v>
+      </c>
+      <c r="J27" s="81">
+        <v>0</v>
+      </c>
+      <c r="K27" s="81">
+        <v>0</v>
+      </c>
+      <c r="L27" s="81">
         <v>24</v>
       </c>
-      <c r="M27" s="102">
+      <c r="M27" s="81">
         <v>46</v>
       </c>
     </row>
@@ -2547,40 +2547,40 @@
       <c r="A28" s="1">
         <v>17</v>
       </c>
-      <c r="B28" s="102">
+      <c r="B28" s="81">
         <v>9</v>
       </c>
-      <c r="C28" s="102">
+      <c r="C28" s="81">
         <v>23</v>
       </c>
-      <c r="D28" s="102">
-        <v>0</v>
-      </c>
-      <c r="E28" s="102">
+      <c r="D28" s="81">
+        <v>0</v>
+      </c>
+      <c r="E28" s="81">
         <v>14</v>
       </c>
-      <c r="F28" s="102">
-        <v>0</v>
-      </c>
-      <c r="G28" s="102">
-        <v>0</v>
-      </c>
-      <c r="H28" s="102">
-        <v>0</v>
-      </c>
-      <c r="I28" s="102">
-        <v>0</v>
-      </c>
-      <c r="J28" s="102">
-        <v>0</v>
-      </c>
-      <c r="K28" s="102">
-        <v>0</v>
-      </c>
-      <c r="L28" s="102">
+      <c r="F28" s="81">
+        <v>0</v>
+      </c>
+      <c r="G28" s="81">
+        <v>0</v>
+      </c>
+      <c r="H28" s="81">
+        <v>0</v>
+      </c>
+      <c r="I28" s="81">
+        <v>0</v>
+      </c>
+      <c r="J28" s="81">
+        <v>0</v>
+      </c>
+      <c r="K28" s="81">
+        <v>0</v>
+      </c>
+      <c r="L28" s="81">
         <v>49</v>
       </c>
-      <c r="M28" s="102">
+      <c r="M28" s="81">
         <v>29</v>
       </c>
     </row>
@@ -2588,40 +2588,40 @@
       <c r="A29" s="1">
         <v>18</v>
       </c>
-      <c r="B29" s="102">
+      <c r="B29" s="81">
         <v>29</v>
       </c>
-      <c r="C29" s="102">
+      <c r="C29" s="81">
         <v>11</v>
       </c>
-      <c r="D29" s="102">
-        <v>0</v>
-      </c>
-      <c r="E29" s="102">
+      <c r="D29" s="81">
+        <v>0</v>
+      </c>
+      <c r="E29" s="81">
         <v>58</v>
       </c>
-      <c r="F29" s="102">
-        <v>0</v>
-      </c>
-      <c r="G29" s="102">
-        <v>0</v>
-      </c>
-      <c r="H29" s="102">
-        <v>0</v>
-      </c>
-      <c r="I29" s="102">
-        <v>0</v>
-      </c>
-      <c r="J29" s="102">
-        <v>0</v>
-      </c>
-      <c r="K29" s="102">
-        <v>0</v>
-      </c>
-      <c r="L29" s="102">
-        <v>0</v>
-      </c>
-      <c r="M29" s="102">
+      <c r="F29" s="81">
+        <v>0</v>
+      </c>
+      <c r="G29" s="81">
+        <v>0</v>
+      </c>
+      <c r="H29" s="81">
+        <v>0</v>
+      </c>
+      <c r="I29" s="81">
+        <v>0</v>
+      </c>
+      <c r="J29" s="81">
+        <v>0</v>
+      </c>
+      <c r="K29" s="81">
+        <v>0</v>
+      </c>
+      <c r="L29" s="81">
+        <v>0</v>
+      </c>
+      <c r="M29" s="81">
         <v>0</v>
       </c>
     </row>
@@ -2629,40 +2629,40 @@
       <c r="A30" s="1">
         <v>19</v>
       </c>
-      <c r="B30" s="102">
+      <c r="B30" s="81">
         <v>49</v>
       </c>
-      <c r="C30" s="102">
+      <c r="C30" s="81">
         <v>56</v>
       </c>
-      <c r="D30" s="102">
-        <v>0</v>
-      </c>
-      <c r="E30" s="102">
-        <v>0</v>
-      </c>
-      <c r="F30" s="102">
-        <v>0</v>
-      </c>
-      <c r="G30" s="102">
-        <v>0</v>
-      </c>
-      <c r="H30" s="102">
-        <v>0</v>
-      </c>
-      <c r="I30" s="102">
-        <v>0</v>
-      </c>
-      <c r="J30" s="102">
-        <v>0</v>
-      </c>
-      <c r="K30" s="102">
-        <v>0</v>
-      </c>
-      <c r="L30" s="102">
-        <v>0</v>
-      </c>
-      <c r="M30" s="102">
+      <c r="D30" s="81">
+        <v>0</v>
+      </c>
+      <c r="E30" s="81">
+        <v>0</v>
+      </c>
+      <c r="F30" s="81">
+        <v>0</v>
+      </c>
+      <c r="G30" s="81">
+        <v>0</v>
+      </c>
+      <c r="H30" s="81">
+        <v>0</v>
+      </c>
+      <c r="I30" s="81">
+        <v>0</v>
+      </c>
+      <c r="J30" s="81">
+        <v>0</v>
+      </c>
+      <c r="K30" s="81">
+        <v>0</v>
+      </c>
+      <c r="L30" s="81">
+        <v>0</v>
+      </c>
+      <c r="M30" s="81">
         <v>0</v>
       </c>
     </row>
@@ -2670,40 +2670,40 @@
       <c r="A31" s="1">
         <v>20</v>
       </c>
-      <c r="B31" s="102">
+      <c r="B31" s="81">
         <v>34</v>
       </c>
-      <c r="C31" s="102">
+      <c r="C31" s="81">
         <v>78</v>
       </c>
-      <c r="D31" s="102">
-        <v>0</v>
-      </c>
-      <c r="E31" s="102">
+      <c r="D31" s="81">
+        <v>0</v>
+      </c>
+      <c r="E31" s="81">
         <v>14</v>
       </c>
-      <c r="F31" s="102">
-        <v>0</v>
-      </c>
-      <c r="G31" s="102">
-        <v>0</v>
-      </c>
-      <c r="H31" s="102">
-        <v>0</v>
-      </c>
-      <c r="I31" s="102">
-        <v>0</v>
-      </c>
-      <c r="J31" s="102">
-        <v>0</v>
-      </c>
-      <c r="K31" s="102">
-        <v>0</v>
-      </c>
-      <c r="L31" s="102">
-        <v>0</v>
-      </c>
-      <c r="M31" s="102">
+      <c r="F31" s="81">
+        <v>0</v>
+      </c>
+      <c r="G31" s="81">
+        <v>0</v>
+      </c>
+      <c r="H31" s="81">
+        <v>0</v>
+      </c>
+      <c r="I31" s="81">
+        <v>0</v>
+      </c>
+      <c r="J31" s="81">
+        <v>0</v>
+      </c>
+      <c r="K31" s="81">
+        <v>0</v>
+      </c>
+      <c r="L31" s="81">
+        <v>0</v>
+      </c>
+      <c r="M31" s="81">
         <v>0</v>
       </c>
     </row>
@@ -2711,40 +2711,40 @@
       <c r="A32" s="1">
         <v>21</v>
       </c>
-      <c r="B32" s="102">
-        <v>0</v>
-      </c>
-      <c r="C32" s="102">
+      <c r="B32" s="81">
+        <v>0</v>
+      </c>
+      <c r="C32" s="81">
         <v>48</v>
       </c>
-      <c r="D32" s="102">
-        <v>0</v>
-      </c>
-      <c r="E32" s="102">
-        <v>0</v>
-      </c>
-      <c r="F32" s="102">
-        <v>0</v>
-      </c>
-      <c r="G32" s="102">
-        <v>0</v>
-      </c>
-      <c r="H32" s="102">
-        <v>0</v>
-      </c>
-      <c r="I32" s="102">
-        <v>0</v>
-      </c>
-      <c r="J32" s="102">
-        <v>0</v>
-      </c>
-      <c r="K32" s="102">
-        <v>0</v>
-      </c>
-      <c r="L32" s="102">
-        <v>0</v>
-      </c>
-      <c r="M32" s="102">
+      <c r="D32" s="81">
+        <v>0</v>
+      </c>
+      <c r="E32" s="81">
+        <v>0</v>
+      </c>
+      <c r="F32" s="81">
+        <v>0</v>
+      </c>
+      <c r="G32" s="81">
+        <v>0</v>
+      </c>
+      <c r="H32" s="81">
+        <v>0</v>
+      </c>
+      <c r="I32" s="81">
+        <v>0</v>
+      </c>
+      <c r="J32" s="81">
+        <v>0</v>
+      </c>
+      <c r="K32" s="81">
+        <v>0</v>
+      </c>
+      <c r="L32" s="81">
+        <v>0</v>
+      </c>
+      <c r="M32" s="81">
         <v>0</v>
       </c>
     </row>
@@ -2752,40 +2752,40 @@
       <c r="A33" s="1">
         <v>22</v>
       </c>
-      <c r="B33" s="102">
+      <c r="B33" s="81">
         <v>11</v>
       </c>
-      <c r="C33" s="102">
+      <c r="C33" s="81">
         <v>116</v>
       </c>
-      <c r="D33" s="102">
+      <c r="D33" s="81">
         <v>28</v>
       </c>
-      <c r="E33" s="102">
+      <c r="E33" s="81">
         <v>48</v>
       </c>
-      <c r="F33" s="102">
-        <v>0</v>
-      </c>
-      <c r="G33" s="102">
-        <v>0</v>
-      </c>
-      <c r="H33" s="102">
-        <v>0</v>
-      </c>
-      <c r="I33" s="102">
-        <v>0</v>
-      </c>
-      <c r="J33" s="102">
-        <v>0</v>
-      </c>
-      <c r="K33" s="102">
-        <v>0</v>
-      </c>
-      <c r="L33" s="102">
-        <v>0</v>
-      </c>
-      <c r="M33" s="102">
+      <c r="F33" s="81">
+        <v>0</v>
+      </c>
+      <c r="G33" s="81">
+        <v>0</v>
+      </c>
+      <c r="H33" s="81">
+        <v>0</v>
+      </c>
+      <c r="I33" s="81">
+        <v>0</v>
+      </c>
+      <c r="J33" s="81">
+        <v>0</v>
+      </c>
+      <c r="K33" s="81">
+        <v>0</v>
+      </c>
+      <c r="L33" s="81">
+        <v>0</v>
+      </c>
+      <c r="M33" s="81">
         <v>8</v>
       </c>
     </row>
@@ -2793,40 +2793,40 @@
       <c r="A34" s="1">
         <v>23</v>
       </c>
-      <c r="B34" s="102">
-        <v>0</v>
-      </c>
-      <c r="C34" s="102">
+      <c r="B34" s="81">
+        <v>0</v>
+      </c>
+      <c r="C34" s="81">
         <v>50</v>
       </c>
-      <c r="D34" s="102">
-        <v>0</v>
-      </c>
-      <c r="E34" s="102">
-        <v>0</v>
-      </c>
-      <c r="F34" s="102">
-        <v>0</v>
-      </c>
-      <c r="G34" s="102">
-        <v>0</v>
-      </c>
-      <c r="H34" s="102">
-        <v>0</v>
-      </c>
-      <c r="I34" s="102">
-        <v>0</v>
-      </c>
-      <c r="J34" s="102">
-        <v>0</v>
-      </c>
-      <c r="K34" s="102">
-        <v>0</v>
-      </c>
-      <c r="L34" s="102">
-        <v>0</v>
-      </c>
-      <c r="M34" s="102">
+      <c r="D34" s="81">
+        <v>0</v>
+      </c>
+      <c r="E34" s="81">
+        <v>0</v>
+      </c>
+      <c r="F34" s="81">
+        <v>0</v>
+      </c>
+      <c r="G34" s="81">
+        <v>0</v>
+      </c>
+      <c r="H34" s="81">
+        <v>0</v>
+      </c>
+      <c r="I34" s="81">
+        <v>0</v>
+      </c>
+      <c r="J34" s="81">
+        <v>0</v>
+      </c>
+      <c r="K34" s="81">
+        <v>0</v>
+      </c>
+      <c r="L34" s="81">
+        <v>0</v>
+      </c>
+      <c r="M34" s="81">
         <v>0</v>
       </c>
     </row>
@@ -2834,40 +2834,40 @@
       <c r="A35" s="1">
         <v>24</v>
       </c>
-      <c r="B35" s="102">
-        <v>0</v>
-      </c>
-      <c r="C35" s="102">
+      <c r="B35" s="81">
+        <v>0</v>
+      </c>
+      <c r="C35" s="81">
         <v>7</v>
       </c>
-      <c r="D35" s="102">
+      <c r="D35" s="81">
         <v>39</v>
       </c>
-      <c r="E35" s="102">
+      <c r="E35" s="81">
         <v>39</v>
       </c>
-      <c r="F35" s="102">
-        <v>0</v>
-      </c>
-      <c r="G35" s="102">
-        <v>0</v>
-      </c>
-      <c r="H35" s="102">
-        <v>0</v>
-      </c>
-      <c r="I35" s="102">
-        <v>0</v>
-      </c>
-      <c r="J35" s="102">
-        <v>0</v>
-      </c>
-      <c r="K35" s="102">
-        <v>0</v>
-      </c>
-      <c r="L35" s="102">
-        <v>0</v>
-      </c>
-      <c r="M35" s="102">
+      <c r="F35" s="81">
+        <v>0</v>
+      </c>
+      <c r="G35" s="81">
+        <v>0</v>
+      </c>
+      <c r="H35" s="81">
+        <v>0</v>
+      </c>
+      <c r="I35" s="81">
+        <v>0</v>
+      </c>
+      <c r="J35" s="81">
+        <v>0</v>
+      </c>
+      <c r="K35" s="81">
+        <v>0</v>
+      </c>
+      <c r="L35" s="81">
+        <v>0</v>
+      </c>
+      <c r="M35" s="81">
         <v>0</v>
       </c>
     </row>
@@ -2875,40 +2875,40 @@
       <c r="A36" s="1">
         <v>25</v>
       </c>
-      <c r="B36" s="102">
-        <v>0</v>
-      </c>
-      <c r="C36" s="102">
-        <v>0</v>
-      </c>
-      <c r="D36" s="102">
+      <c r="B36" s="81">
+        <v>0</v>
+      </c>
+      <c r="C36" s="81">
+        <v>0</v>
+      </c>
+      <c r="D36" s="81">
         <v>61</v>
       </c>
-      <c r="E36" s="102">
-        <v>0</v>
-      </c>
-      <c r="F36" s="102">
-        <v>0</v>
-      </c>
-      <c r="G36" s="102">
-        <v>0</v>
-      </c>
-      <c r="H36" s="102">
-        <v>0</v>
-      </c>
-      <c r="I36" s="102">
-        <v>0</v>
-      </c>
-      <c r="J36" s="102">
-        <v>0</v>
-      </c>
-      <c r="K36" s="102">
-        <v>0</v>
-      </c>
-      <c r="L36" s="102">
-        <v>0</v>
-      </c>
-      <c r="M36" s="102">
+      <c r="E36" s="81">
+        <v>0</v>
+      </c>
+      <c r="F36" s="81">
+        <v>0</v>
+      </c>
+      <c r="G36" s="81">
+        <v>0</v>
+      </c>
+      <c r="H36" s="81">
+        <v>0</v>
+      </c>
+      <c r="I36" s="81">
+        <v>0</v>
+      </c>
+      <c r="J36" s="81">
+        <v>0</v>
+      </c>
+      <c r="K36" s="81">
+        <v>0</v>
+      </c>
+      <c r="L36" s="81">
+        <v>0</v>
+      </c>
+      <c r="M36" s="81">
         <v>0</v>
       </c>
     </row>
@@ -2916,40 +2916,40 @@
       <c r="A37" s="1">
         <v>26</v>
       </c>
-      <c r="B37" s="102">
+      <c r="B37" s="81">
         <v>63</v>
       </c>
-      <c r="C37" s="102">
-        <v>0</v>
-      </c>
-      <c r="D37" s="102">
+      <c r="C37" s="81">
+        <v>0</v>
+      </c>
+      <c r="D37" s="81">
         <v>3</v>
       </c>
-      <c r="E37" s="102">
+      <c r="E37" s="81">
         <v>7</v>
       </c>
-      <c r="F37" s="102">
-        <v>0</v>
-      </c>
-      <c r="G37" s="102">
-        <v>0</v>
-      </c>
-      <c r="H37" s="102">
-        <v>0</v>
-      </c>
-      <c r="I37" s="102">
-        <v>0</v>
-      </c>
-      <c r="J37" s="102">
-        <v>0</v>
-      </c>
-      <c r="K37" s="102">
-        <v>0</v>
-      </c>
-      <c r="L37" s="102">
-        <v>0</v>
-      </c>
-      <c r="M37" s="102">
+      <c r="F37" s="81">
+        <v>0</v>
+      </c>
+      <c r="G37" s="81">
+        <v>0</v>
+      </c>
+      <c r="H37" s="81">
+        <v>0</v>
+      </c>
+      <c r="I37" s="81">
+        <v>0</v>
+      </c>
+      <c r="J37" s="81">
+        <v>0</v>
+      </c>
+      <c r="K37" s="81">
+        <v>0</v>
+      </c>
+      <c r="L37" s="81">
+        <v>0</v>
+      </c>
+      <c r="M37" s="81">
         <v>20</v>
       </c>
     </row>
@@ -2957,40 +2957,40 @@
       <c r="A38" s="1">
         <v>27</v>
       </c>
-      <c r="B38" s="102">
+      <c r="B38" s="81">
         <v>35</v>
       </c>
-      <c r="C38" s="102">
+      <c r="C38" s="81">
         <v>11</v>
       </c>
-      <c r="D38" s="102">
-        <v>0</v>
-      </c>
-      <c r="E38" s="102">
-        <v>0</v>
-      </c>
-      <c r="F38" s="102">
-        <v>0</v>
-      </c>
-      <c r="G38" s="102">
-        <v>0</v>
-      </c>
-      <c r="H38" s="102">
-        <v>0</v>
-      </c>
-      <c r="I38" s="102">
-        <v>0</v>
-      </c>
-      <c r="J38" s="102">
-        <v>0</v>
-      </c>
-      <c r="K38" s="102">
-        <v>0</v>
-      </c>
-      <c r="L38" s="102">
+      <c r="D38" s="81">
+        <v>0</v>
+      </c>
+      <c r="E38" s="81">
+        <v>0</v>
+      </c>
+      <c r="F38" s="81">
+        <v>0</v>
+      </c>
+      <c r="G38" s="81">
+        <v>0</v>
+      </c>
+      <c r="H38" s="81">
+        <v>0</v>
+      </c>
+      <c r="I38" s="81">
+        <v>0</v>
+      </c>
+      <c r="J38" s="81">
+        <v>0</v>
+      </c>
+      <c r="K38" s="81">
+        <v>0</v>
+      </c>
+      <c r="L38" s="81">
         <v>43</v>
       </c>
-      <c r="M38" s="102">
+      <c r="M38" s="81">
         <v>34</v>
       </c>
     </row>
@@ -2998,40 +2998,40 @@
       <c r="A39" s="1">
         <v>28</v>
       </c>
-      <c r="B39" s="102">
+      <c r="B39" s="81">
         <v>47</v>
       </c>
-      <c r="C39" s="102">
+      <c r="C39" s="81">
         <v>23</v>
       </c>
-      <c r="D39" s="102">
-        <v>0</v>
-      </c>
-      <c r="E39" s="102">
-        <v>0</v>
-      </c>
-      <c r="F39" s="102">
-        <v>0</v>
-      </c>
-      <c r="G39" s="102">
-        <v>0</v>
-      </c>
-      <c r="H39" s="102">
-        <v>0</v>
-      </c>
-      <c r="I39" s="102">
-        <v>0</v>
-      </c>
-      <c r="J39" s="102">
-        <v>0</v>
-      </c>
-      <c r="K39" s="102">
-        <v>0</v>
-      </c>
-      <c r="L39" s="102">
+      <c r="D39" s="81">
+        <v>0</v>
+      </c>
+      <c r="E39" s="81">
+        <v>0</v>
+      </c>
+      <c r="F39" s="81">
+        <v>0</v>
+      </c>
+      <c r="G39" s="81">
+        <v>0</v>
+      </c>
+      <c r="H39" s="81">
+        <v>0</v>
+      </c>
+      <c r="I39" s="81">
+        <v>0</v>
+      </c>
+      <c r="J39" s="81">
+        <v>0</v>
+      </c>
+      <c r="K39" s="81">
+        <v>0</v>
+      </c>
+      <c r="L39" s="81">
         <v>36</v>
       </c>
-      <c r="M39" s="102">
+      <c r="M39" s="81">
         <v>0</v>
       </c>
     </row>
@@ -3039,38 +3039,38 @@
       <c r="A40" s="1">
         <v>29</v>
       </c>
-      <c r="B40" s="102">
+      <c r="B40" s="81">
         <v>53</v>
       </c>
-      <c r="C40" s="103"/>
-      <c r="D40" s="102">
+      <c r="C40" s="82"/>
+      <c r="D40" s="81">
         <v>9</v>
       </c>
-      <c r="E40" s="102">
+      <c r="E40" s="81">
         <v>73</v>
       </c>
-      <c r="F40" s="102">
-        <v>0</v>
-      </c>
-      <c r="G40" s="102">
-        <v>0</v>
-      </c>
-      <c r="H40" s="102">
-        <v>0</v>
-      </c>
-      <c r="I40" s="102">
-        <v>0</v>
-      </c>
-      <c r="J40" s="102">
-        <v>0</v>
-      </c>
-      <c r="K40" s="102">
-        <v>0</v>
-      </c>
-      <c r="L40" s="102">
+      <c r="F40" s="81">
+        <v>0</v>
+      </c>
+      <c r="G40" s="81">
+        <v>0</v>
+      </c>
+      <c r="H40" s="81">
+        <v>0</v>
+      </c>
+      <c r="I40" s="81">
+        <v>0</v>
+      </c>
+      <c r="J40" s="81">
+        <v>0</v>
+      </c>
+      <c r="K40" s="81">
+        <v>0</v>
+      </c>
+      <c r="L40" s="81">
         <v>59</v>
       </c>
-      <c r="M40" s="102">
+      <c r="M40" s="81">
         <v>41</v>
       </c>
     </row>
@@ -3078,38 +3078,38 @@
       <c r="A41" s="1">
         <v>30</v>
       </c>
-      <c r="B41" s="102">
+      <c r="B41" s="81">
         <v>42</v>
       </c>
-      <c r="C41" s="103"/>
-      <c r="D41" s="102">
-        <v>0</v>
-      </c>
-      <c r="E41" s="102">
+      <c r="C41" s="82"/>
+      <c r="D41" s="81">
+        <v>0</v>
+      </c>
+      <c r="E41" s="81">
         <v>8</v>
       </c>
-      <c r="F41" s="102">
-        <v>0</v>
-      </c>
-      <c r="G41" s="102">
-        <v>0</v>
-      </c>
-      <c r="H41" s="102">
-        <v>0</v>
-      </c>
-      <c r="I41" s="102">
-        <v>0</v>
-      </c>
-      <c r="J41" s="102">
-        <v>0</v>
-      </c>
-      <c r="K41" s="102">
-        <v>0</v>
-      </c>
-      <c r="L41" s="102">
+      <c r="F41" s="81">
+        <v>0</v>
+      </c>
+      <c r="G41" s="81">
+        <v>0</v>
+      </c>
+      <c r="H41" s="81">
+        <v>0</v>
+      </c>
+      <c r="I41" s="81">
+        <v>0</v>
+      </c>
+      <c r="J41" s="81">
+        <v>0</v>
+      </c>
+      <c r="K41" s="81">
+        <v>0</v>
+      </c>
+      <c r="L41" s="81">
         <v>41</v>
       </c>
-      <c r="M41" s="102">
+      <c r="M41" s="81">
         <v>49</v>
       </c>
     </row>
@@ -3117,30 +3117,30 @@
       <c r="A42" s="1">
         <v>31</v>
       </c>
-      <c r="B42" s="102">
+      <c r="B42" s="81">
         <v>12</v>
       </c>
-      <c r="C42" s="103"/>
-      <c r="D42" s="102">
+      <c r="C42" s="82"/>
+      <c r="D42" s="81">
         <v>58</v>
       </c>
-      <c r="E42" s="103"/>
-      <c r="F42" s="102">
-        <v>0</v>
-      </c>
-      <c r="G42" s="103"/>
-      <c r="H42" s="102">
-        <v>0</v>
-      </c>
-      <c r="I42" s="102">
-        <v>0</v>
-      </c>
-      <c r="J42" s="103"/>
-      <c r="K42" s="102">
-        <v>0</v>
-      </c>
-      <c r="L42" s="103"/>
-      <c r="M42" s="102">
+      <c r="E42" s="82"/>
+      <c r="F42" s="81">
+        <v>0</v>
+      </c>
+      <c r="G42" s="82"/>
+      <c r="H42" s="81">
+        <v>0</v>
+      </c>
+      <c r="I42" s="81">
+        <v>0</v>
+      </c>
+      <c r="J42" s="82"/>
+      <c r="K42" s="81">
+        <v>0</v>
+      </c>
+      <c r="L42" s="82"/>
+      <c r="M42" s="81">
         <v>0</v>
       </c>
     </row>
@@ -3452,15 +3452,18 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A9:M9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:M10"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:M4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
@@ -3473,18 +3476,15 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:M4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A9:M9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:M10"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3494,8 +3494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9CD2B76-21D7-4623-B0B0-158FBAF48880}">
   <dimension ref="B2:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3901,15 +3901,15 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="L2" s="86" t="s">
+      <c r="L2" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
     </row>
     <row r="3" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
@@ -3939,19 +3939,19 @@
       <c r="J3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="87" t="s">
+      <c r="L3" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="89" t="s">
+      <c r="M3" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="90"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="89" t="s">
+      <c r="N3" s="92"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="94"/>
     </row>
     <row r="4" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7">
@@ -3976,7 +3976,7 @@
         <f t="shared" ref="G4:G15" si="2">(F4^2)/$E$20</f>
         <v>5432.9259259259252</v>
       </c>
-      <c r="H4" s="93">
+      <c r="H4" s="95">
         <f>G17^0.5</f>
         <v>303.49171689227734</v>
       </c>
@@ -3988,7 +3988,7 @@
         <f t="shared" ref="J4:J15" si="4">ABS(I4)</f>
         <v>0.8413189524508915</v>
       </c>
-      <c r="L4" s="88"/>
+      <c r="L4" s="90"/>
       <c r="M4" s="10">
         <v>0.9</v>
       </c>
@@ -4031,7 +4031,7 @@
         <f t="shared" si="2"/>
         <v>27968.925925925916</v>
       </c>
-      <c r="H5" s="94"/>
+      <c r="H5" s="96"/>
       <c r="I5" s="9">
         <f t="shared" si="3"/>
         <v>1.9088933934199079</v>
@@ -4085,7 +4085,7 @@
         <f t="shared" si="2"/>
         <v>3972.453703703703</v>
       </c>
-      <c r="H6" s="94"/>
+      <c r="H6" s="96"/>
       <c r="I6" s="9">
         <f t="shared" si="3"/>
         <v>0.71940458727850387</v>
@@ -4139,7 +4139,7 @@
         <f t="shared" si="2"/>
         <v>11000.925925925925</v>
       </c>
-      <c r="H7" s="94"/>
+      <c r="H7" s="96"/>
       <c r="I7" s="9">
         <f t="shared" si="3"/>
         <v>1.1971770994405637</v>
@@ -4193,7 +4193,7 @@
         <f t="shared" si="2"/>
         <v>1444.6759259259263</v>
       </c>
-      <c r="H8" s="94"/>
+      <c r="H8" s="96"/>
       <c r="I8" s="9">
         <f t="shared" si="3"/>
         <v>0.43383940759543371</v>
@@ -4247,7 +4247,7 @@
         <f t="shared" si="2"/>
         <v>7939.592592592594</v>
       </c>
-      <c r="H9" s="94"/>
+      <c r="H9" s="96"/>
       <c r="I9" s="9">
         <f t="shared" si="3"/>
         <v>1.0170513707173965</v>
@@ -4301,7 +4301,7 @@
         <f t="shared" si="2"/>
         <v>5881.5648148148148</v>
       </c>
-      <c r="H10" s="94"/>
+      <c r="H10" s="96"/>
       <c r="I10" s="9">
         <f t="shared" si="3"/>
         <v>0.87536710849002697</v>
@@ -4353,7 +4353,7 @@
         <f t="shared" si="2"/>
         <v>7939.592592592594</v>
       </c>
-      <c r="H11" s="94"/>
+      <c r="H11" s="96"/>
       <c r="I11" s="9">
         <f t="shared" si="3"/>
         <v>1.0170513707173965</v>
@@ -4395,7 +4395,7 @@
         <f t="shared" si="2"/>
         <v>7939.592592592594</v>
       </c>
-      <c r="H12" s="94"/>
+      <c r="H12" s="96"/>
       <c r="I12" s="9">
         <f t="shared" si="3"/>
         <v>1.0170513707173965</v>
@@ -4428,7 +4428,7 @@
         <f t="shared" si="2"/>
         <v>7939.592592592594</v>
       </c>
-      <c r="H13" s="94"/>
+      <c r="H13" s="96"/>
       <c r="I13" s="9">
         <f t="shared" si="3"/>
         <v>1.0170513707173965</v>
@@ -4489,7 +4489,7 @@
         <f t="shared" si="2"/>
         <v>32.231481481481545</v>
       </c>
-      <c r="H14" s="94"/>
+      <c r="H14" s="96"/>
       <c r="I14" s="9">
         <f t="shared" si="3"/>
         <v>6.4801329235773697E-2</v>
@@ -4531,7 +4531,7 @@
         <f t="shared" si="2"/>
         <v>4615.1481481481469</v>
       </c>
-      <c r="H15" s="95"/>
+      <c r="H15" s="97"/>
       <c r="I15" s="9">
         <f t="shared" si="3"/>
         <v>0.77541929560095224</v>
@@ -4551,10 +4551,10 @@
       <c r="S15" s="27"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="85"/>
+      <c r="C16" s="87"/>
       <c r="D16" s="30">
         <f>AVERAGE(D4:D15)</f>
         <v>308.66666666666669</v>
@@ -4591,10 +4591,10 @@
       <c r="S16" s="27"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="85"/>
+      <c r="C17" s="87"/>
       <c r="D17" s="32"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
@@ -4736,8 +4736,8 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="37">
-        <f>FORECAST(12,N5:N6,L5:L6)</f>
-        <v>1.1559999999999999</v>
+        <f>FORECAST(12,N5:N10,L5:L10)</f>
+        <v>1.1961599999999997</v>
       </c>
       <c r="J25" s="38" t="str">
         <f>IF(E25&lt;I25,"OK!!!","NOT OK")</f>
@@ -4760,8 +4760,8 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="37">
-        <f>FORECAST(12,Q5:Q6,L5:L6)</f>
-        <v>1.31</v>
+        <f>FORECAST(12,Q5:Q10,L5:L10)</f>
+        <v>1.3908799999999999</v>
       </c>
       <c r="J26" s="38" t="str">
         <f>IF(E26&lt;I26,"OK!!!","NOT OK")</f>
@@ -5060,72 +5060,72 @@
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="98" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="96" t="s">
+      <c r="E3" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="96" t="s">
+      <c r="F3" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="98"/>
+      <c r="G3" s="100"/>
       <c r="J3" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="K3" s="96" t="s">
+      <c r="K3" s="98" t="s">
         <v>80</v>
       </c>
       <c r="L3" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="M3" s="96" t="s">
+      <c r="M3" s="98" t="s">
         <v>80</v>
       </c>
       <c r="N3" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="O3" s="96" t="s">
+      <c r="O3" s="98" t="s">
         <v>80</v>
       </c>
       <c r="P3" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="98" t="s">
+      <c r="Q3" s="100" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="101"/>
-      <c r="C4" s="97"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="99"/>
       <c r="D4" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="101"/>
       <c r="J4" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="97"/>
+      <c r="K4" s="99"/>
       <c r="L4" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="M4" s="97"/>
+      <c r="M4" s="99"/>
       <c r="N4" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="O4" s="97"/>
+      <c r="O4" s="99"/>
       <c r="P4" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="Q4" s="99"/>
+      <c r="Q4" s="101"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="46">
